--- a/cointrede/dd.xlsx
+++ b/cointrede/dd.xlsx
@@ -498,28 +498,28 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44399.375</v>
+        <v>44409.375</v>
       </c>
       <c r="B2" t="n">
-        <v>38012000</v>
+        <v>47979000</v>
       </c>
       <c r="C2" t="n">
-        <v>38470000</v>
+        <v>49471000</v>
       </c>
       <c r="D2" t="n">
-        <v>37428000</v>
+        <v>46003000</v>
       </c>
       <c r="E2" t="n">
-        <v>37925000</v>
+        <v>46274000</v>
       </c>
       <c r="F2" t="n">
-        <v>4209.60291091</v>
+        <v>6806.08556397</v>
       </c>
       <c r="G2" t="n">
-        <v>159613929614.4732</v>
+        <v>325989173859.4448</v>
       </c>
       <c r="H2" t="n">
-        <v>521000</v>
+        <v>1734000</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -534,37 +534,37 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44400.375</v>
+        <v>44410.375</v>
       </c>
       <c r="B3" t="n">
-        <v>37922000</v>
+        <v>46263000</v>
       </c>
       <c r="C3" t="n">
-        <v>39113000</v>
+        <v>46788000</v>
       </c>
       <c r="D3" t="n">
-        <v>37790000</v>
+        <v>45150000</v>
       </c>
       <c r="E3" t="n">
-        <v>39108000</v>
+        <v>45451000</v>
       </c>
       <c r="F3" t="n">
-        <v>4624.03229131</v>
+        <v>7121.32542712</v>
       </c>
       <c r="G3" t="n">
-        <v>176644365075.1862</v>
+        <v>327175849671.0313</v>
       </c>
       <c r="H3" t="n">
-        <v>661500</v>
+        <v>819000</v>
       </c>
       <c r="I3" t="n">
-        <v>38443000</v>
+        <v>47997000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.017298337798819</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1.017298337798819</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -572,37 +572,37 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44401.375</v>
+        <v>44411.375</v>
       </c>
       <c r="B4" t="n">
-        <v>39113000</v>
+        <v>45451000</v>
       </c>
       <c r="C4" t="n">
-        <v>40240000</v>
+        <v>46150000</v>
       </c>
       <c r="D4" t="n">
-        <v>38919000</v>
+        <v>44440000</v>
       </c>
       <c r="E4" t="n">
-        <v>40112000</v>
+        <v>44969000</v>
       </c>
       <c r="F4" t="n">
-        <v>4969.11794139</v>
+        <v>7445.82457713</v>
       </c>
       <c r="G4" t="n">
-        <v>196353164978.1259</v>
+        <v>335516584182.572</v>
       </c>
       <c r="H4" t="n">
-        <v>660500</v>
+        <v>855000</v>
       </c>
       <c r="I4" t="n">
-        <v>39774500</v>
+        <v>46270000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.008485336082163</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1.025930456090868</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -610,75 +610,75 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44402.375</v>
+        <v>44412.375</v>
       </c>
       <c r="B5" t="n">
-        <v>40076000</v>
+        <v>44950000</v>
       </c>
       <c r="C5" t="n">
-        <v>41110000</v>
+        <v>46038000</v>
       </c>
       <c r="D5" t="n">
-        <v>39547000</v>
+        <v>44000000</v>
       </c>
       <c r="E5" t="n">
-        <v>41070000</v>
+        <v>45718000</v>
       </c>
       <c r="F5" t="n">
-        <v>4748.42546082</v>
+        <v>6481.94468452</v>
       </c>
       <c r="G5" t="n">
-        <v>190643539619.3983</v>
+        <v>291363934837.1122</v>
       </c>
       <c r="H5" t="n">
-        <v>781500</v>
+        <v>1019000</v>
       </c>
       <c r="I5" t="n">
-        <v>40736500</v>
+        <v>45805000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.008186761258331</v>
+        <v>0.9981006440344941</v>
       </c>
       <c r="K5" t="n">
-        <v>1.034329503802535</v>
+        <v>0.9981006440344941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.1899355965505944</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44403.375</v>
+        <v>44413.375</v>
       </c>
       <c r="B6" t="n">
-        <v>41054000</v>
+        <v>45718000</v>
       </c>
       <c r="C6" t="n">
-        <v>46800000</v>
+        <v>47650000</v>
       </c>
       <c r="D6" t="n">
-        <v>40864000</v>
+        <v>43841000</v>
       </c>
       <c r="E6" t="n">
-        <v>43001000</v>
+        <v>47139000</v>
       </c>
       <c r="F6" t="n">
-        <v>18124.95452103</v>
+        <v>10399.67917867</v>
       </c>
       <c r="G6" t="n">
-        <v>803409465489.3989</v>
+        <v>473390293840.2888</v>
       </c>
       <c r="H6" t="n">
-        <v>2968000</v>
+        <v>1904500</v>
       </c>
       <c r="I6" t="n">
-        <v>41835500</v>
+        <v>46737000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.027859114866561</v>
+        <v>1.00860132229283</v>
       </c>
       <c r="K6" t="n">
-        <v>1.063145008258842</v>
+        <v>1.006685629354516</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -686,37 +686,37 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44404.375</v>
+        <v>44414.375</v>
       </c>
       <c r="B7" t="n">
-        <v>43021000</v>
+        <v>47099000</v>
       </c>
       <c r="C7" t="n">
-        <v>45506000</v>
+        <v>49898000</v>
       </c>
       <c r="D7" t="n">
-        <v>42050000</v>
+        <v>46250000</v>
       </c>
       <c r="E7" t="n">
-        <v>45409000</v>
+        <v>49349000</v>
       </c>
       <c r="F7" t="n">
-        <v>10710.88094497</v>
+        <v>9456.96848632</v>
       </c>
       <c r="G7" t="n">
-        <v>467385408621.4562</v>
+        <v>453840993289.6811</v>
       </c>
       <c r="H7" t="n">
-        <v>1728000</v>
+        <v>1824000</v>
       </c>
       <c r="I7" t="n">
-        <v>45989000</v>
+        <v>49003500</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>1.00705051679982</v>
       </c>
       <c r="K7" t="n">
-        <v>1.063145008258842</v>
+        <v>1.013783283296418</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -724,113 +724,113 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44405.375</v>
+        <v>44415.375</v>
       </c>
       <c r="B8" t="n">
-        <v>45447000</v>
+        <v>49342000</v>
       </c>
       <c r="C8" t="n">
-        <v>47494000</v>
+        <v>51300000</v>
       </c>
       <c r="D8" t="n">
-        <v>45000000</v>
+        <v>49000000</v>
       </c>
       <c r="E8" t="n">
-        <v>46350000</v>
+        <v>50956000</v>
       </c>
       <c r="F8" t="n">
-        <v>11869.72271998</v>
+        <v>10988.79383695</v>
       </c>
       <c r="G8" t="n">
-        <v>547717509631.0625</v>
+        <v>550505738787.5818</v>
       </c>
       <c r="H8" t="n">
-        <v>1247000</v>
+        <v>1150000</v>
       </c>
       <c r="I8" t="n">
-        <v>47175000</v>
+        <v>51166000</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9825119236883942</v>
+        <v>0.9958957119962475</v>
       </c>
       <c r="K8" t="n">
-        <v>1.044552647224109</v>
+        <v>1.009622424728379</v>
       </c>
       <c r="L8" t="n">
-        <v>1.748807631160577</v>
+        <v>0.4104288003752573</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44406.375</v>
+        <v>44416.375</v>
       </c>
       <c r="B9" t="n">
-        <v>46350000</v>
+        <v>50956000</v>
       </c>
       <c r="C9" t="n">
-        <v>46996000</v>
+        <v>51731000</v>
       </c>
       <c r="D9" t="n">
-        <v>45529000</v>
+        <v>50110000</v>
       </c>
       <c r="E9" t="n">
-        <v>45907000</v>
+        <v>50799000</v>
       </c>
       <c r="F9" t="n">
-        <v>5904.86424006</v>
+        <v>8950.68143253</v>
       </c>
       <c r="G9" t="n">
-        <v>272164212254.3347</v>
+        <v>456213636723.8092</v>
       </c>
       <c r="H9" t="n">
-        <v>733500</v>
+        <v>810500</v>
       </c>
       <c r="I9" t="n">
-        <v>47597000</v>
+        <v>52106000</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.044552647224109</v>
+        <v>1.009622424728379</v>
       </c>
       <c r="L9" t="n">
-        <v>1.748807631160577</v>
+        <v>0.4104288003752573</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44407.375</v>
+        <v>44417.375</v>
       </c>
       <c r="B10" t="n">
-        <v>45936000</v>
+        <v>50790000</v>
       </c>
       <c r="C10" t="n">
-        <v>48661000</v>
+        <v>53077000</v>
       </c>
       <c r="D10" t="n">
-        <v>44450000</v>
+        <v>49585000</v>
       </c>
       <c r="E10" t="n">
-        <v>48555000</v>
+        <v>52846000</v>
       </c>
       <c r="F10" t="n">
-        <v>9277.569455270001</v>
+        <v>10539.78165913</v>
       </c>
       <c r="G10" t="n">
-        <v>426284796838.6512</v>
+        <v>545486912751.485</v>
       </c>
       <c r="H10" t="n">
-        <v>2105500</v>
+        <v>1746000</v>
       </c>
       <c r="I10" t="n">
-        <v>46669500</v>
+        <v>51600500</v>
       </c>
       <c r="J10" t="n">
-        <v>1.040401118503519</v>
+        <v>1.024137363010048</v>
       </c>
       <c r="K10" t="n">
-        <v>1.086753742507775</v>
+        <v>1.033992047697133</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -838,37 +838,37 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44408.375</v>
+        <v>44418.375</v>
       </c>
       <c r="B11" t="n">
-        <v>48570000</v>
+        <v>52862000</v>
       </c>
       <c r="C11" t="n">
-        <v>48768000</v>
+        <v>53491000</v>
       </c>
       <c r="D11" t="n">
-        <v>47650000</v>
+        <v>51800000</v>
       </c>
       <c r="E11" t="n">
-        <v>47979000</v>
+        <v>52339000</v>
       </c>
       <c r="F11" t="n">
-        <v>5158.44167442</v>
+        <v>9910.238109989999</v>
       </c>
       <c r="G11" t="n">
-        <v>248552503038.628</v>
+        <v>520878470417.8687</v>
       </c>
       <c r="H11" t="n">
-        <v>559000</v>
+        <v>845500</v>
       </c>
       <c r="I11" t="n">
-        <v>50675500</v>
+        <v>54608000</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1.086753742507775</v>
+        <v>1.033992047697133</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -876,2355 +876,2355 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44409.375</v>
+        <v>44419.375</v>
       </c>
       <c r="B12" t="n">
-        <v>47979000</v>
+        <v>52335000</v>
       </c>
       <c r="C12" t="n">
-        <v>49471000</v>
+        <v>53500000</v>
       </c>
       <c r="D12" t="n">
-        <v>46003000</v>
+        <v>52219000</v>
       </c>
       <c r="E12" t="n">
-        <v>46274000</v>
+        <v>52590000</v>
       </c>
       <c r="F12" t="n">
-        <v>6806.08556397</v>
+        <v>10943.96845795</v>
       </c>
       <c r="G12" t="n">
-        <v>325989173859.4448</v>
+        <v>579202786491.2515</v>
       </c>
       <c r="H12" t="n">
-        <v>1734000</v>
+        <v>640500</v>
       </c>
       <c r="I12" t="n">
-        <v>48538000</v>
+        <v>53180500</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9533561333388273</v>
+        <v>0.9888963059768148</v>
       </c>
       <c r="K12" t="n">
-        <v>1.036063345848712</v>
+        <v>1.022510916377098</v>
       </c>
       <c r="L12" t="n">
-        <v>4.664386666117269</v>
+        <v>1.110369402318532</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44410.375</v>
+        <v>44420.375</v>
       </c>
       <c r="B13" t="n">
-        <v>46263000</v>
+        <v>52585000</v>
       </c>
       <c r="C13" t="n">
-        <v>46788000</v>
+        <v>53395000</v>
       </c>
       <c r="D13" t="n">
-        <v>45150000</v>
+        <v>51391000</v>
       </c>
       <c r="E13" t="n">
-        <v>45451000</v>
+        <v>52079000</v>
       </c>
       <c r="F13" t="n">
-        <v>7121.32542712</v>
+        <v>13202.59267402</v>
       </c>
       <c r="G13" t="n">
-        <v>327175849671.0313</v>
+        <v>691538686333.4755</v>
       </c>
       <c r="H13" t="n">
-        <v>819000</v>
+        <v>1002000</v>
       </c>
       <c r="I13" t="n">
-        <v>47997000</v>
+        <v>53225500</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0.9784595729490564</v>
       </c>
       <c r="K13" t="n">
-        <v>1.036063345848712</v>
+        <v>1.000485594574083</v>
       </c>
       <c r="L13" t="n">
-        <v>4.664386666117269</v>
+        <v>3.240494276302655</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44411.375</v>
+        <v>44421.375</v>
       </c>
       <c r="B14" t="n">
-        <v>45451000</v>
+        <v>52078000</v>
       </c>
       <c r="C14" t="n">
-        <v>46150000</v>
+        <v>55313000</v>
       </c>
       <c r="D14" t="n">
-        <v>44440000</v>
+        <v>51767000</v>
       </c>
       <c r="E14" t="n">
-        <v>44969000</v>
+        <v>55146000</v>
       </c>
       <c r="F14" t="n">
-        <v>7445.82457713</v>
+        <v>11542.23600174</v>
       </c>
       <c r="G14" t="n">
-        <v>335516584182.572</v>
+        <v>619038294155.9808</v>
       </c>
       <c r="H14" t="n">
-        <v>855000</v>
+        <v>1773000</v>
       </c>
       <c r="I14" t="n">
-        <v>46270000</v>
+        <v>53080000</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>1.038922381311228</v>
       </c>
       <c r="K14" t="n">
-        <v>1.036063345848712</v>
+        <v>1.039426876382487</v>
       </c>
       <c r="L14" t="n">
-        <v>4.664386666117269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44412.375</v>
+        <v>44422.375</v>
       </c>
       <c r="B15" t="n">
-        <v>44950000</v>
+        <v>55145000</v>
       </c>
       <c r="C15" t="n">
-        <v>46038000</v>
+        <v>55742000</v>
       </c>
       <c r="D15" t="n">
-        <v>44000000</v>
+        <v>53573000</v>
       </c>
       <c r="E15" t="n">
-        <v>45718000</v>
+        <v>54812000</v>
       </c>
       <c r="F15" t="n">
-        <v>6481.94468452</v>
+        <v>10406.46231641</v>
       </c>
       <c r="G15" t="n">
-        <v>291363934837.1122</v>
+        <v>570678967849.8423</v>
       </c>
       <c r="H15" t="n">
-        <v>1019000</v>
+        <v>1084500</v>
       </c>
       <c r="I15" t="n">
-        <v>45805000</v>
+        <v>56918000</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9981006440344941</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1.034095492752132</v>
+        <v>1.039426876382487</v>
       </c>
       <c r="L15" t="n">
-        <v>4.845462932028155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44413.375</v>
+        <v>44423.375</v>
       </c>
       <c r="B16" t="n">
-        <v>45718000</v>
+        <v>54817000</v>
       </c>
       <c r="C16" t="n">
-        <v>47650000</v>
+        <v>55166000</v>
       </c>
       <c r="D16" t="n">
-        <v>43841000</v>
+        <v>53349000</v>
       </c>
       <c r="E16" t="n">
-        <v>47139000</v>
+        <v>54636000</v>
       </c>
       <c r="F16" t="n">
-        <v>10399.67917867</v>
+        <v>8686.547280590001</v>
       </c>
       <c r="G16" t="n">
-        <v>473390293840.2888</v>
+        <v>470845007276.4989</v>
       </c>
       <c r="H16" t="n">
-        <v>1904500</v>
+        <v>908500</v>
       </c>
       <c r="I16" t="n">
-        <v>46737000</v>
+        <v>55901500</v>
       </c>
       <c r="J16" t="n">
-        <v>1.00860132229283</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1.042990081366856</v>
+        <v>1.039426876382487</v>
       </c>
       <c r="L16" t="n">
-        <v>4.027008091081481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44414.375</v>
+        <v>44424.375</v>
       </c>
       <c r="B17" t="n">
-        <v>47099000</v>
+        <v>54638000</v>
       </c>
       <c r="C17" t="n">
-        <v>49898000</v>
+        <v>55704000</v>
       </c>
       <c r="D17" t="n">
-        <v>46250000</v>
+        <v>53700000</v>
       </c>
       <c r="E17" t="n">
-        <v>49349000</v>
+        <v>53863000</v>
       </c>
       <c r="F17" t="n">
-        <v>9456.96848632</v>
+        <v>8599.292439389999</v>
       </c>
       <c r="G17" t="n">
-        <v>453840993289.6811</v>
+        <v>470451841173.9128</v>
       </c>
       <c r="H17" t="n">
-        <v>1824000</v>
+        <v>1002000</v>
       </c>
       <c r="I17" t="n">
-        <v>49003500</v>
+        <v>55546500</v>
       </c>
       <c r="J17" t="n">
-        <v>1.00705051679982</v>
+        <v>0.9696920598057484</v>
       </c>
       <c r="K17" t="n">
-        <v>1.050343700457579</v>
+        <v>1.007923988776788</v>
       </c>
       <c r="L17" t="n">
-        <v>3.350348899298623</v>
+        <v>3.030794019425164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44415.375</v>
+        <v>44425.375</v>
       </c>
       <c r="B18" t="n">
-        <v>49342000</v>
+        <v>53863000</v>
       </c>
       <c r="C18" t="n">
-        <v>51300000</v>
+        <v>54649000</v>
       </c>
       <c r="D18" t="n">
-        <v>49000000</v>
+        <v>52500000</v>
       </c>
       <c r="E18" t="n">
-        <v>50956000</v>
+        <v>52660000</v>
       </c>
       <c r="F18" t="n">
-        <v>10988.79383695</v>
+        <v>9398.259196679999</v>
       </c>
       <c r="G18" t="n">
-        <v>550505738787.5818</v>
+        <v>505480406480.1733</v>
       </c>
       <c r="H18" t="n">
-        <v>1150000</v>
+        <v>1074500</v>
       </c>
       <c r="I18" t="n">
-        <v>51166000</v>
+        <v>54865000</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9958957119962475</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1.046032787407974</v>
+        <v>1.007923988776788</v>
       </c>
       <c r="L18" t="n">
-        <v>3.747026902878098</v>
+        <v>3.030794019425164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44416.375</v>
+        <v>44426.375</v>
       </c>
       <c r="B19" t="n">
-        <v>50956000</v>
+        <v>52674000</v>
       </c>
       <c r="C19" t="n">
-        <v>51731000</v>
+        <v>53874000</v>
       </c>
       <c r="D19" t="n">
-        <v>50110000</v>
+        <v>51938000</v>
       </c>
       <c r="E19" t="n">
-        <v>50799000</v>
+        <v>52812000</v>
       </c>
       <c r="F19" t="n">
-        <v>8950.68143253</v>
+        <v>14256.33672927</v>
       </c>
       <c r="G19" t="n">
-        <v>456213636723.8092</v>
+        <v>757953791475.3573</v>
       </c>
       <c r="H19" t="n">
-        <v>810500</v>
+        <v>968000</v>
       </c>
       <c r="I19" t="n">
-        <v>52106000</v>
+        <v>53748500</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0.9825762579420821</v>
       </c>
       <c r="K19" t="n">
-        <v>1.046032787407974</v>
+        <v>0.9903621811823539</v>
       </c>
       <c r="L19" t="n">
-        <v>3.747026902878098</v>
+        <v>4.720360451991809</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44417.375</v>
+        <v>44427.375</v>
       </c>
       <c r="B20" t="n">
-        <v>50790000</v>
+        <v>52815000</v>
       </c>
       <c r="C20" t="n">
-        <v>53077000</v>
+        <v>55050000</v>
       </c>
       <c r="D20" t="n">
-        <v>49585000</v>
+        <v>52002000</v>
       </c>
       <c r="E20" t="n">
-        <v>52846000</v>
+        <v>55017000</v>
       </c>
       <c r="F20" t="n">
-        <v>10539.78165913</v>
+        <v>13997.11722659</v>
       </c>
       <c r="G20" t="n">
-        <v>545486912751.485</v>
+        <v>744124182994.7227</v>
       </c>
       <c r="H20" t="n">
-        <v>1746000</v>
+        <v>1524000</v>
       </c>
       <c r="I20" t="n">
-        <v>51600500</v>
+        <v>53783000</v>
       </c>
       <c r="J20" t="n">
-        <v>1.024137363010048</v>
+        <v>1.022944052953535</v>
       </c>
       <c r="K20" t="n">
-        <v>1.071281260518053</v>
+        <v>1.013085103510581</v>
       </c>
       <c r="L20" t="n">
-        <v>1.423733950436444</v>
+        <v>2.534259356808548</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44418.375</v>
+        <v>44428.375</v>
       </c>
       <c r="B21" t="n">
-        <v>52862000</v>
+        <v>55030000</v>
       </c>
       <c r="C21" t="n">
-        <v>53491000</v>
+        <v>57910000</v>
       </c>
       <c r="D21" t="n">
-        <v>51800000</v>
+        <v>54824000</v>
       </c>
       <c r="E21" t="n">
-        <v>52339000</v>
+        <v>57683000</v>
       </c>
       <c r="F21" t="n">
-        <v>9910.238109989999</v>
+        <v>12560.50365601</v>
       </c>
       <c r="G21" t="n">
-        <v>520878470417.8687</v>
+        <v>702429945452.2936</v>
       </c>
       <c r="H21" t="n">
-        <v>845500</v>
+        <v>1543000</v>
       </c>
       <c r="I21" t="n">
-        <v>54608000</v>
+        <v>56554000</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>1.019963220992326</v>
       </c>
       <c r="K21" t="n">
-        <v>1.071281260518053</v>
+        <v>1.033309545315996</v>
       </c>
       <c r="L21" t="n">
-        <v>1.423733950436444</v>
+        <v>0.5885292371677882</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44419.375</v>
+        <v>44429.375</v>
       </c>
       <c r="B22" t="n">
-        <v>52335000</v>
+        <v>57690000</v>
       </c>
       <c r="C22" t="n">
-        <v>53500000</v>
+        <v>58280000</v>
       </c>
       <c r="D22" t="n">
-        <v>52219000</v>
+        <v>56557000</v>
       </c>
       <c r="E22" t="n">
-        <v>52590000</v>
+        <v>57553000</v>
       </c>
       <c r="F22" t="n">
-        <v>10943.96845795</v>
+        <v>9176.90265489</v>
       </c>
       <c r="G22" t="n">
-        <v>579202786491.2515</v>
+        <v>526538062801.1975</v>
       </c>
       <c r="H22" t="n">
-        <v>640500</v>
+        <v>861500</v>
       </c>
       <c r="I22" t="n">
-        <v>53180500</v>
+        <v>59233000</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9888963059768148</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1.059386081188488</v>
+        <v>1.033309545315996</v>
       </c>
       <c r="L22" t="n">
-        <v>2.518294646598909</v>
+        <v>0.5885292371677882</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44420.375</v>
+        <v>44430.375</v>
       </c>
       <c r="B23" t="n">
-        <v>52585000</v>
+        <v>57576000</v>
       </c>
       <c r="C23" t="n">
-        <v>53395000</v>
+        <v>58000000</v>
       </c>
       <c r="D23" t="n">
-        <v>51391000</v>
+        <v>56611000</v>
       </c>
       <c r="E23" t="n">
-        <v>52079000</v>
+        <v>57681000</v>
       </c>
       <c r="F23" t="n">
-        <v>13202.59267402</v>
+        <v>7327.1797741</v>
       </c>
       <c r="G23" t="n">
-        <v>691538686333.4755</v>
+        <v>420622994566.5057</v>
       </c>
       <c r="H23" t="n">
-        <v>1002000</v>
+        <v>694500</v>
       </c>
       <c r="I23" t="n">
-        <v>53225500</v>
+        <v>58437500</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9784595729490564</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>1.036566452587863</v>
+        <v>1.033309545315996</v>
       </c>
       <c r="L23" t="n">
-        <v>4.618092209565427</v>
+        <v>0.5885292371677882</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44421.375</v>
+        <v>44431.375</v>
       </c>
       <c r="B24" t="n">
-        <v>52078000</v>
+        <v>57714000</v>
       </c>
       <c r="C24" t="n">
-        <v>55313000</v>
+        <v>58726000</v>
       </c>
       <c r="D24" t="n">
-        <v>51767000</v>
+        <v>57374000</v>
       </c>
       <c r="E24" t="n">
-        <v>55146000</v>
+        <v>57627000</v>
       </c>
       <c r="F24" t="n">
-        <v>11542.23600174</v>
+        <v>10945.24369893</v>
       </c>
       <c r="G24" t="n">
-        <v>619038294155.9808</v>
+        <v>637195815103.7274</v>
       </c>
       <c r="H24" t="n">
-        <v>1773000</v>
+        <v>676000</v>
       </c>
       <c r="I24" t="n">
-        <v>53080000</v>
+        <v>58408500</v>
       </c>
       <c r="J24" t="n">
-        <v>1.038922381311228</v>
+        <v>0.9866200981021598</v>
       </c>
       <c r="K24" t="n">
-        <v>1.076912087309915</v>
+        <v>1.019483964969566</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9056012243537103</v>
+        <v>1.918644963494504</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44422.375</v>
+        <v>44432.375</v>
       </c>
       <c r="B25" t="n">
-        <v>55145000</v>
+        <v>57627000</v>
       </c>
       <c r="C25" t="n">
-        <v>55742000</v>
+        <v>57905000</v>
       </c>
       <c r="D25" t="n">
-        <v>53573000</v>
+        <v>55800000</v>
       </c>
       <c r="E25" t="n">
-        <v>54812000</v>
+        <v>56134000</v>
       </c>
       <c r="F25" t="n">
-        <v>10406.46231641</v>
+        <v>16813.02809495</v>
       </c>
       <c r="G25" t="n">
-        <v>570678967849.8423</v>
+        <v>960959159079.5452</v>
       </c>
       <c r="H25" t="n">
-        <v>1084500</v>
+        <v>1052500</v>
       </c>
       <c r="I25" t="n">
-        <v>56918000</v>
+        <v>58303000</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1.076912087309915</v>
+        <v>1.019483964969566</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9056012243537103</v>
+        <v>1.918644963494504</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44423.375</v>
+        <v>44433.375</v>
       </c>
       <c r="B26" t="n">
-        <v>54817000</v>
+        <v>56168000</v>
       </c>
       <c r="C26" t="n">
-        <v>55166000</v>
+        <v>57325000</v>
       </c>
       <c r="D26" t="n">
-        <v>53349000</v>
+        <v>55100000</v>
       </c>
       <c r="E26" t="n">
-        <v>54636000</v>
+        <v>57100000</v>
       </c>
       <c r="F26" t="n">
-        <v>8686.547280590001</v>
+        <v>11188.10656994</v>
       </c>
       <c r="G26" t="n">
-        <v>470845007276.4989</v>
+        <v>628614221129.9324</v>
       </c>
       <c r="H26" t="n">
-        <v>908500</v>
+        <v>1112500</v>
       </c>
       <c r="I26" t="n">
-        <v>55901500</v>
+        <v>57220500</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.9978941113761677</v>
       </c>
       <c r="K26" t="n">
-        <v>1.076912087309915</v>
+        <v>1.017337045285557</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9056012243537103</v>
+        <v>2.125193373275944</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44424.375</v>
+        <v>44434.375</v>
       </c>
       <c r="B27" t="n">
-        <v>54638000</v>
+        <v>57088000</v>
       </c>
       <c r="C27" t="n">
-        <v>55704000</v>
+        <v>57497000</v>
       </c>
       <c r="D27" t="n">
-        <v>53700000</v>
+        <v>54504000</v>
       </c>
       <c r="E27" t="n">
-        <v>53863000</v>
+        <v>55225000</v>
       </c>
       <c r="F27" t="n">
-        <v>8599.292439389999</v>
+        <v>9477.10372476</v>
       </c>
       <c r="G27" t="n">
-        <v>470451841173.9128</v>
+        <v>527838423776.1475</v>
       </c>
       <c r="H27" t="n">
-        <v>1002000</v>
+        <v>1496500</v>
       </c>
       <c r="I27" t="n">
-        <v>55546500</v>
+        <v>58200500</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9696920598057484</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1.044273100173259</v>
+        <v>1.017337045285557</v>
       </c>
       <c r="L27" t="n">
-        <v>3.90894833603133</v>
+        <v>2.125193373275944</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44425.375</v>
+        <v>44435.375</v>
       </c>
       <c r="B28" t="n">
-        <v>53863000</v>
+        <v>55255000</v>
       </c>
       <c r="C28" t="n">
-        <v>54649000</v>
+        <v>57600000</v>
       </c>
       <c r="D28" t="n">
-        <v>52500000</v>
+        <v>54616000</v>
       </c>
       <c r="E28" t="n">
-        <v>52660000</v>
+        <v>57401000</v>
       </c>
       <c r="F28" t="n">
-        <v>9398.259196679999</v>
+        <v>8324.331967890001</v>
       </c>
       <c r="G28" t="n">
-        <v>505480406480.1733</v>
+        <v>466075659839.3081</v>
       </c>
       <c r="H28" t="n">
-        <v>1074500</v>
+        <v>1492000</v>
       </c>
       <c r="I28" t="n">
-        <v>54865000</v>
+        <v>56751500</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>1.011444631419434</v>
       </c>
       <c r="K28" t="n">
-        <v>1.044273100173259</v>
+        <v>1.028980092798186</v>
       </c>
       <c r="L28" t="n">
-        <v>3.90894833603133</v>
+        <v>1.005052286184733</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44426.375</v>
+        <v>44436.375</v>
       </c>
       <c r="B29" t="n">
-        <v>52674000</v>
+        <v>57400000</v>
       </c>
       <c r="C29" t="n">
-        <v>53874000</v>
+        <v>57885000</v>
       </c>
       <c r="D29" t="n">
-        <v>51938000</v>
+        <v>56704000</v>
       </c>
       <c r="E29" t="n">
-        <v>52812000</v>
+        <v>57428000</v>
       </c>
       <c r="F29" t="n">
-        <v>14256.33672927</v>
+        <v>5552.26274864</v>
       </c>
       <c r="G29" t="n">
-        <v>757953791475.3573</v>
+        <v>318695080890.533</v>
       </c>
       <c r="H29" t="n">
-        <v>968000</v>
+        <v>590500</v>
       </c>
       <c r="I29" t="n">
-        <v>53748500</v>
+        <v>58892000</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9825762579420821</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>1.026077955037818</v>
+        <v>1.028980092798186</v>
       </c>
       <c r="L29" t="n">
-        <v>5.583214034298388</v>
+        <v>1.005052286184733</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44427.375</v>
+        <v>44437.375</v>
       </c>
       <c r="B30" t="n">
-        <v>52815000</v>
+        <v>57428000</v>
       </c>
       <c r="C30" t="n">
-        <v>55050000</v>
+        <v>58000000</v>
       </c>
       <c r="D30" t="n">
-        <v>52002000</v>
+        <v>56500000</v>
       </c>
       <c r="E30" t="n">
-        <v>55017000</v>
+        <v>57272000</v>
       </c>
       <c r="F30" t="n">
-        <v>13997.11722659</v>
+        <v>11623.61867326</v>
       </c>
       <c r="G30" t="n">
-        <v>744124182994.7227</v>
+        <v>664765748254.3783</v>
       </c>
       <c r="H30" t="n">
-        <v>1524000</v>
+        <v>750000</v>
       </c>
       <c r="I30" t="n">
-        <v>53783000</v>
+        <v>58018500</v>
       </c>
       <c r="J30" t="n">
-        <v>1.022944052953535</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>1.049620341972661</v>
+        <v>1.028980092798186</v>
       </c>
       <c r="L30" t="n">
-        <v>3.416910297398712</v>
+        <v>1.005052286184733</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44428.375</v>
+        <v>44438.375</v>
       </c>
       <c r="B31" t="n">
-        <v>55030000</v>
+        <v>57272000</v>
       </c>
       <c r="C31" t="n">
-        <v>57910000</v>
+        <v>57479000</v>
       </c>
       <c r="D31" t="n">
-        <v>54824000</v>
+        <v>55555000</v>
       </c>
       <c r="E31" t="n">
-        <v>57683000</v>
+        <v>55800000</v>
       </c>
       <c r="F31" t="n">
-        <v>12560.50365601</v>
+        <v>14613.33339131</v>
       </c>
       <c r="G31" t="n">
-        <v>702429945452.2936</v>
+        <v>827526275068.3098</v>
       </c>
       <c r="H31" t="n">
-        <v>1543000</v>
+        <v>962000</v>
       </c>
       <c r="I31" t="n">
-        <v>56554000</v>
+        <v>58022000</v>
       </c>
       <c r="J31" t="n">
-        <v>1.019963220992326</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>1.070574144817502</v>
+        <v>1.028980092798186</v>
       </c>
       <c r="L31" t="n">
-        <v>1.488800733544034</v>
+        <v>1.005052286184733</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44429.375</v>
+        <v>44439.375</v>
       </c>
       <c r="B32" t="n">
-        <v>57690000</v>
+        <v>55800000</v>
       </c>
       <c r="C32" t="n">
-        <v>58280000</v>
+        <v>56333000</v>
       </c>
       <c r="D32" t="n">
-        <v>56557000</v>
+        <v>55022000</v>
       </c>
       <c r="E32" t="n">
-        <v>57553000</v>
+        <v>55230000</v>
       </c>
       <c r="F32" t="n">
-        <v>9176.90265489</v>
+        <v>11075.54698274</v>
       </c>
       <c r="G32" t="n">
-        <v>526538062801.1975</v>
+        <v>616516258003.1985</v>
       </c>
       <c r="H32" t="n">
-        <v>861500</v>
+        <v>655500</v>
       </c>
       <c r="I32" t="n">
-        <v>59233000</v>
+        <v>56762000</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>1.070574144817502</v>
+        <v>1.028980092798186</v>
       </c>
       <c r="L32" t="n">
-        <v>1.488800733544034</v>
+        <v>1.005052286184733</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44430.375</v>
+        <v>44440.375</v>
       </c>
       <c r="B33" t="n">
-        <v>57576000</v>
+        <v>55228000</v>
       </c>
       <c r="C33" t="n">
-        <v>58000000</v>
+        <v>56900000</v>
       </c>
       <c r="D33" t="n">
-        <v>56611000</v>
+        <v>54538000</v>
       </c>
       <c r="E33" t="n">
-        <v>57681000</v>
+        <v>56455000</v>
       </c>
       <c r="F33" t="n">
-        <v>7327.1797741</v>
+        <v>9099.48005828</v>
       </c>
       <c r="G33" t="n">
-        <v>420622994566.5057</v>
+        <v>505247782246.0479</v>
       </c>
       <c r="H33" t="n">
-        <v>694500</v>
+        <v>1181000</v>
       </c>
       <c r="I33" t="n">
-        <v>58437500</v>
+        <v>55883500</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>1.010226632190181</v>
       </c>
       <c r="K33" t="n">
-        <v>1.070574144817502</v>
+        <v>1.039503093738252</v>
       </c>
       <c r="L33" t="n">
-        <v>1.488800733544034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44431.375</v>
+        <v>44441.375</v>
       </c>
       <c r="B34" t="n">
-        <v>57714000</v>
+        <v>56445000</v>
       </c>
       <c r="C34" t="n">
-        <v>58726000</v>
+        <v>58369000</v>
       </c>
       <c r="D34" t="n">
-        <v>57374000</v>
+        <v>56232000</v>
       </c>
       <c r="E34" t="n">
-        <v>57627000</v>
+        <v>57155000</v>
       </c>
       <c r="F34" t="n">
-        <v>10945.24369893</v>
+        <v>8965.19366094</v>
       </c>
       <c r="G34" t="n">
-        <v>637195815103.7274</v>
+        <v>515970812918.009</v>
       </c>
       <c r="H34" t="n">
-        <v>676000</v>
+        <v>1068500</v>
       </c>
       <c r="I34" t="n">
-        <v>58408500</v>
+        <v>57626000</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9866200981021598</v>
+        <v>0.991826606045882</v>
       </c>
       <c r="K34" t="n">
-        <v>1.05624996778548</v>
+        <v>1.031006825436604</v>
       </c>
       <c r="L34" t="n">
-        <v>2.806870915567806</v>
+        <v>0.8173393954117998</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44432.375</v>
+        <v>44442.375</v>
       </c>
       <c r="B35" t="n">
-        <v>57627000</v>
+        <v>57155000</v>
       </c>
       <c r="C35" t="n">
-        <v>57905000</v>
+        <v>59110000</v>
       </c>
       <c r="D35" t="n">
-        <v>55800000</v>
+        <v>56500000</v>
       </c>
       <c r="E35" t="n">
-        <v>56134000</v>
+        <v>57783000</v>
       </c>
       <c r="F35" t="n">
-        <v>16813.02809495</v>
+        <v>11527.48633542</v>
       </c>
       <c r="G35" t="n">
-        <v>960959159079.5452</v>
+        <v>667571204414.9666</v>
       </c>
       <c r="H35" t="n">
-        <v>1052500</v>
+        <v>1305000</v>
       </c>
       <c r="I35" t="n">
-        <v>58303000</v>
+        <v>58223500</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0.9924343263458912</v>
       </c>
       <c r="K35" t="n">
-        <v>1.05624996778548</v>
+        <v>1.023206564260192</v>
       </c>
       <c r="L35" t="n">
-        <v>2.806870915567806</v>
+        <v>1.567723037692349</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44433.375</v>
+        <v>44443.375</v>
       </c>
       <c r="B36" t="n">
-        <v>56168000</v>
+        <v>57717000</v>
       </c>
       <c r="C36" t="n">
-        <v>57325000</v>
+        <v>58500000</v>
       </c>
       <c r="D36" t="n">
-        <v>55100000</v>
+        <v>57184000</v>
       </c>
       <c r="E36" t="n">
-        <v>57100000</v>
+        <v>57827000</v>
       </c>
       <c r="F36" t="n">
-        <v>11188.10656994</v>
+        <v>7242.35579057</v>
       </c>
       <c r="G36" t="n">
-        <v>628614221129.9324</v>
+        <v>419279027038.7803</v>
       </c>
       <c r="H36" t="n">
-        <v>1112500</v>
+        <v>658000</v>
       </c>
       <c r="I36" t="n">
-        <v>57220500</v>
+        <v>59022000</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9978941113761677</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>1.054025622994397</v>
+        <v>1.023206564260192</v>
       </c>
       <c r="L36" t="n">
-        <v>3.011548820421387</v>
+        <v>1.567723037692349</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44434.375</v>
+        <v>44444.375</v>
       </c>
       <c r="B37" t="n">
-        <v>57088000</v>
+        <v>57836000</v>
       </c>
       <c r="C37" t="n">
-        <v>57497000</v>
+        <v>59650000</v>
       </c>
       <c r="D37" t="n">
-        <v>54504000</v>
+        <v>57217000</v>
       </c>
       <c r="E37" t="n">
-        <v>55225000</v>
+        <v>59212000</v>
       </c>
       <c r="F37" t="n">
-        <v>9477.10372476</v>
+        <v>7573.37229192</v>
       </c>
       <c r="G37" t="n">
-        <v>527838423776.1475</v>
+        <v>439317277734.582</v>
       </c>
       <c r="H37" t="n">
-        <v>1496500</v>
+        <v>1216500</v>
       </c>
       <c r="I37" t="n">
-        <v>58200500</v>
+        <v>58494000</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>1.012274763223578</v>
       </c>
       <c r="K37" t="n">
-        <v>1.054025622994397</v>
+        <v>1.035766182565298</v>
       </c>
       <c r="L37" t="n">
-        <v>3.011548820421387</v>
+        <v>0.3594901444223234</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44435.375</v>
+        <v>44445.375</v>
       </c>
       <c r="B38" t="n">
-        <v>55255000</v>
+        <v>59212000</v>
       </c>
       <c r="C38" t="n">
-        <v>57600000</v>
+        <v>61056000</v>
       </c>
       <c r="D38" t="n">
-        <v>54616000</v>
+        <v>58810000</v>
       </c>
       <c r="E38" t="n">
-        <v>57401000</v>
+        <v>60839000</v>
       </c>
       <c r="F38" t="n">
-        <v>8324.331967890001</v>
+        <v>7151.92707503</v>
       </c>
       <c r="G38" t="n">
-        <v>466075659839.3081</v>
+        <v>426546418425.8442</v>
       </c>
       <c r="H38" t="n">
-        <v>1492000</v>
+        <v>1123000</v>
       </c>
       <c r="I38" t="n">
-        <v>56751500</v>
+        <v>60428500</v>
       </c>
       <c r="J38" t="n">
-        <v>1.011444631419434</v>
+        <v>1.006793152237769</v>
       </c>
       <c r="K38" t="n">
-        <v>1.066088557756207</v>
+        <v>1.042802299926196</v>
       </c>
       <c r="L38" t="n">
-        <v>1.901551744729359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44436.375</v>
+        <v>44446.375</v>
       </c>
       <c r="B39" t="n">
-        <v>57400000</v>
+        <v>60839000</v>
       </c>
       <c r="C39" t="n">
-        <v>57885000</v>
+        <v>61113000</v>
       </c>
       <c r="D39" t="n">
-        <v>56704000</v>
+        <v>55000000</v>
       </c>
       <c r="E39" t="n">
-        <v>57428000</v>
+        <v>56672000</v>
       </c>
       <c r="F39" t="n">
-        <v>5552.26274864</v>
+        <v>19856.73841443</v>
       </c>
       <c r="G39" t="n">
-        <v>318695080890.533</v>
+        <v>1160638810012.454</v>
       </c>
       <c r="H39" t="n">
-        <v>590500</v>
+        <v>3056500</v>
       </c>
       <c r="I39" t="n">
-        <v>58892000</v>
+        <v>61962000</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>1.066088557756207</v>
+        <v>1.042802299926196</v>
       </c>
       <c r="L39" t="n">
-        <v>1.901551744729359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44437.375</v>
+        <v>44447.375</v>
       </c>
       <c r="B40" t="n">
-        <v>57428000</v>
+        <v>56668000</v>
       </c>
       <c r="C40" t="n">
-        <v>58000000</v>
+        <v>57250000</v>
       </c>
       <c r="D40" t="n">
-        <v>56500000</v>
+        <v>53154000</v>
       </c>
       <c r="E40" t="n">
-        <v>57272000</v>
+        <v>55580000</v>
       </c>
       <c r="F40" t="n">
-        <v>11623.61867326</v>
+        <v>12683.32987229</v>
       </c>
       <c r="G40" t="n">
-        <v>664765748254.3783</v>
+        <v>701590969807.58</v>
       </c>
       <c r="H40" t="n">
-        <v>750000</v>
+        <v>2048000</v>
       </c>
       <c r="I40" t="n">
-        <v>58018500</v>
+        <v>59724500</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>1.066088557756207</v>
+        <v>1.042802299926196</v>
       </c>
       <c r="L40" t="n">
-        <v>1.901551744729359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44438.375</v>
+        <v>44448.375</v>
       </c>
       <c r="B41" t="n">
-        <v>57272000</v>
+        <v>55576000</v>
       </c>
       <c r="C41" t="n">
-        <v>57479000</v>
+        <v>56567000</v>
       </c>
       <c r="D41" t="n">
-        <v>55555000</v>
+        <v>54701000</v>
       </c>
       <c r="E41" t="n">
-        <v>55800000</v>
+        <v>55900000</v>
       </c>
       <c r="F41" t="n">
-        <v>14613.33339131</v>
+        <v>7540.98052835</v>
       </c>
       <c r="G41" t="n">
-        <v>827526275068.3098</v>
+        <v>418872318710.8933</v>
       </c>
       <c r="H41" t="n">
-        <v>962000</v>
+        <v>933000</v>
       </c>
       <c r="I41" t="n">
-        <v>58022000</v>
+        <v>57624000</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>1.066088557756207</v>
+        <v>1.042802299926196</v>
       </c>
       <c r="L41" t="n">
-        <v>1.901551744729359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44439.375</v>
+        <v>44449.375</v>
       </c>
       <c r="B42" t="n">
-        <v>55800000</v>
+        <v>55879000</v>
       </c>
       <c r="C42" t="n">
-        <v>56333000</v>
+        <v>56850000</v>
       </c>
       <c r="D42" t="n">
-        <v>55022000</v>
+        <v>54701000</v>
       </c>
       <c r="E42" t="n">
-        <v>55230000</v>
+        <v>55031000</v>
       </c>
       <c r="F42" t="n">
-        <v>11075.54698274</v>
+        <v>10524.62607334</v>
       </c>
       <c r="G42" t="n">
-        <v>616516258003.1985</v>
+        <v>587118672586.7328</v>
       </c>
       <c r="H42" t="n">
-        <v>655500</v>
+        <v>1074500</v>
       </c>
       <c r="I42" t="n">
-        <v>56762000</v>
+        <v>56812000</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0.9686509892276279</v>
       </c>
       <c r="K42" t="n">
-        <v>1.066088557756207</v>
+        <v>1.010111479392355</v>
       </c>
       <c r="L42" t="n">
-        <v>1.901551744729359</v>
+        <v>3.134901077237214</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44440.375</v>
+        <v>44450.375</v>
       </c>
       <c r="B43" t="n">
-        <v>55228000</v>
+        <v>55031000</v>
       </c>
       <c r="C43" t="n">
-        <v>56900000</v>
+        <v>55400000</v>
       </c>
       <c r="D43" t="n">
-        <v>54538000</v>
+        <v>54316000</v>
       </c>
       <c r="E43" t="n">
-        <v>56455000</v>
+        <v>54800000</v>
       </c>
       <c r="F43" t="n">
-        <v>9099.48005828</v>
+        <v>4246.7897401</v>
       </c>
       <c r="G43" t="n">
-        <v>505247782246.0479</v>
+        <v>233572715191.5004</v>
       </c>
       <c r="H43" t="n">
-        <v>1181000</v>
+        <v>542000</v>
       </c>
       <c r="I43" t="n">
-        <v>55883500</v>
+        <v>56105500</v>
       </c>
       <c r="J43" t="n">
-        <v>1.010226632190181</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>1.07699105331854</v>
+        <v>1.010111479392355</v>
       </c>
       <c r="L43" t="n">
-        <v>0.8983349959951736</v>
+        <v>3.134901077237214</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44441.375</v>
+        <v>44451.375</v>
       </c>
       <c r="B44" t="n">
-        <v>56445000</v>
+        <v>54800000</v>
       </c>
       <c r="C44" t="n">
-        <v>58369000</v>
+        <v>55580000</v>
       </c>
       <c r="D44" t="n">
-        <v>56232000</v>
+        <v>54316000</v>
       </c>
       <c r="E44" t="n">
-        <v>57155000</v>
+        <v>55078000</v>
       </c>
       <c r="F44" t="n">
-        <v>8965.19366094</v>
+        <v>4456.24751341</v>
       </c>
       <c r="G44" t="n">
-        <v>515970812918.009</v>
+        <v>244803798485.1118</v>
       </c>
       <c r="H44" t="n">
-        <v>1068500</v>
+        <v>632000</v>
       </c>
       <c r="I44" t="n">
-        <v>57626000</v>
+        <v>55342000</v>
       </c>
       <c r="J44" t="n">
-        <v>0.991826606045882</v>
+        <v>0.995229662823895</v>
       </c>
       <c r="K44" t="n">
-        <v>1.068188381154707</v>
+        <v>1.0052929070502</v>
       </c>
       <c r="L44" t="n">
-        <v>1.708331945581941</v>
+        <v>3.596980259695546</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44442.375</v>
+        <v>44452.375</v>
       </c>
       <c r="B45" t="n">
-        <v>57155000</v>
+        <v>55078000</v>
       </c>
       <c r="C45" t="n">
-        <v>59110000</v>
+        <v>56663000</v>
       </c>
       <c r="D45" t="n">
-        <v>56500000</v>
+        <v>53600000</v>
       </c>
       <c r="E45" t="n">
-        <v>57783000</v>
+        <v>54274000</v>
       </c>
       <c r="F45" t="n">
-        <v>11527.48633542</v>
+        <v>7678.99872171</v>
       </c>
       <c r="G45" t="n">
-        <v>667571204414.9666</v>
+        <v>419768907821.3112</v>
       </c>
       <c r="H45" t="n">
-        <v>1305000</v>
+        <v>1531500</v>
       </c>
       <c r="I45" t="n">
-        <v>58223500</v>
+        <v>55710000</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9924343263458912</v>
+        <v>0.9742236582301202</v>
       </c>
       <c r="K45" t="n">
-        <v>1.06010681646178</v>
+        <v>0.9793801334992378</v>
       </c>
       <c r="L45" t="n">
-        <v>2.451974628999661</v>
+        <v>6.081897444170097</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44443.375</v>
+        <v>44453.375</v>
       </c>
       <c r="B46" t="n">
-        <v>57717000</v>
+        <v>54340000</v>
       </c>
       <c r="C46" t="n">
-        <v>58500000</v>
+        <v>56857000</v>
       </c>
       <c r="D46" t="n">
-        <v>57184000</v>
+        <v>54120000</v>
       </c>
       <c r="E46" t="n">
-        <v>57827000</v>
+        <v>56564000</v>
       </c>
       <c r="F46" t="n">
-        <v>7242.35579057</v>
+        <v>5994.88062518</v>
       </c>
       <c r="G46" t="n">
-        <v>419279027038.7803</v>
+        <v>333704711921.3414</v>
       </c>
       <c r="H46" t="n">
-        <v>658000</v>
+        <v>1368500</v>
       </c>
       <c r="I46" t="n">
-        <v>59022000</v>
+        <v>55871500</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>1.012394512407936</v>
       </c>
       <c r="K46" t="n">
-        <v>1.06010681646178</v>
+        <v>0.9915190727159802</v>
       </c>
       <c r="L46" t="n">
-        <v>2.451974628999661</v>
+        <v>4.917828356712053</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44444.375</v>
+        <v>44454.375</v>
       </c>
       <c r="B47" t="n">
-        <v>57836000</v>
+        <v>56564000</v>
       </c>
       <c r="C47" t="n">
-        <v>59650000</v>
+        <v>57600000</v>
       </c>
       <c r="D47" t="n">
-        <v>57217000</v>
+        <v>56011000</v>
       </c>
       <c r="E47" t="n">
-        <v>59212000</v>
+        <v>57207000</v>
       </c>
       <c r="F47" t="n">
-        <v>7573.37229192</v>
+        <v>5204.48354612</v>
       </c>
       <c r="G47" t="n">
-        <v>439317277734.582</v>
+        <v>295924748212.9268</v>
       </c>
       <c r="H47" t="n">
-        <v>1216500</v>
+        <v>794500</v>
       </c>
       <c r="I47" t="n">
-        <v>58494000</v>
+        <v>57932500</v>
       </c>
       <c r="J47" t="n">
-        <v>1.012274763223578</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>1.07311937662555</v>
+        <v>0.9915190727159802</v>
       </c>
       <c r="L47" t="n">
-        <v>1.254595714643013</v>
+        <v>4.917828356712053</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44445.375</v>
+        <v>44455.375</v>
       </c>
       <c r="B48" t="n">
-        <v>59212000</v>
+        <v>57178000</v>
       </c>
       <c r="C48" t="n">
-        <v>61056000</v>
+        <v>57500000</v>
       </c>
       <c r="D48" t="n">
-        <v>58810000</v>
+        <v>56446000</v>
       </c>
       <c r="E48" t="n">
-        <v>60839000</v>
+        <v>57277000</v>
       </c>
       <c r="F48" t="n">
-        <v>7151.92707503</v>
+        <v>5358.40400108</v>
       </c>
       <c r="G48" t="n">
-        <v>426546418425.8442</v>
+        <v>305839184427.866</v>
       </c>
       <c r="H48" t="n">
-        <v>1123000</v>
+        <v>527000</v>
       </c>
       <c r="I48" t="n">
-        <v>60428500</v>
+        <v>57972500</v>
       </c>
       <c r="J48" t="n">
-        <v>1.006793152237769</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>1.080409239920266</v>
+        <v>0.9915190727159802</v>
       </c>
       <c r="L48" t="n">
-        <v>0.5838031505525747</v>
+        <v>4.917828356712053</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44446.375</v>
+        <v>44456.375</v>
       </c>
       <c r="B49" t="n">
-        <v>60839000</v>
+        <v>57277000</v>
       </c>
       <c r="C49" t="n">
-        <v>61113000</v>
+        <v>57836000</v>
       </c>
       <c r="D49" t="n">
-        <v>55000000</v>
+        <v>56942000</v>
       </c>
       <c r="E49" t="n">
-        <v>56672000</v>
+        <v>57642000</v>
       </c>
       <c r="F49" t="n">
-        <v>19856.73841443</v>
+        <v>6908.81118369</v>
       </c>
       <c r="G49" t="n">
-        <v>1160638810012.454</v>
+        <v>397042475608.0333</v>
       </c>
       <c r="H49" t="n">
-        <v>3056500</v>
+        <v>447000</v>
       </c>
       <c r="I49" t="n">
-        <v>61962000</v>
+        <v>57804000</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0.9971974257836828</v>
       </c>
       <c r="K49" t="n">
-        <v>1.080409239920266</v>
+        <v>0.9887402669277996</v>
       </c>
       <c r="L49" t="n">
-        <v>0.5838031505525747</v>
+        <v>5.184303199390981</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44447.375</v>
+        <v>44457.375</v>
       </c>
       <c r="B50" t="n">
-        <v>56668000</v>
+        <v>57642000</v>
       </c>
       <c r="C50" t="n">
-        <v>57250000</v>
+        <v>58980000</v>
       </c>
       <c r="D50" t="n">
-        <v>53154000</v>
+        <v>57574000</v>
       </c>
       <c r="E50" t="n">
-        <v>55580000</v>
+        <v>58597000</v>
       </c>
       <c r="F50" t="n">
-        <v>12683.32987229</v>
+        <v>4935.40608571</v>
       </c>
       <c r="G50" t="n">
-        <v>701590969807.58</v>
+        <v>288291394889.2499</v>
       </c>
       <c r="H50" t="n">
-        <v>2048000</v>
+        <v>703000</v>
       </c>
       <c r="I50" t="n">
-        <v>59724500</v>
+        <v>58089000</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>1.008745201328995</v>
       </c>
       <c r="K50" t="n">
-        <v>1.080409239920266</v>
+        <v>0.9973869996241677</v>
       </c>
       <c r="L50" t="n">
-        <v>0.5838031505525747</v>
+        <v>4.355120841720688</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44448.375</v>
+        <v>44458.375</v>
       </c>
       <c r="B51" t="n">
-        <v>55576000</v>
+        <v>58597000</v>
       </c>
       <c r="C51" t="n">
-        <v>56567000</v>
+        <v>58805000</v>
       </c>
       <c r="D51" t="n">
-        <v>54701000</v>
+        <v>57466000</v>
       </c>
       <c r="E51" t="n">
-        <v>55900000</v>
+        <v>57976000</v>
       </c>
       <c r="F51" t="n">
-        <v>7540.98052835</v>
+        <v>4821.3843762</v>
       </c>
       <c r="G51" t="n">
-        <v>418872318710.8933</v>
+        <v>279811883170.7576</v>
       </c>
       <c r="H51" t="n">
-        <v>933000</v>
+        <v>669500</v>
       </c>
       <c r="I51" t="n">
-        <v>57624000</v>
+        <v>59300000</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>1.080409239920266</v>
+        <v>0.9973869996241677</v>
       </c>
       <c r="L51" t="n">
-        <v>0.5838031505525747</v>
+        <v>4.355120841720688</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44449.375</v>
+        <v>44459.375</v>
       </c>
       <c r="B52" t="n">
-        <v>55879000</v>
+        <v>58030000</v>
       </c>
       <c r="C52" t="n">
-        <v>56850000</v>
+        <v>58142000</v>
       </c>
       <c r="D52" t="n">
-        <v>54701000</v>
+        <v>53496000</v>
       </c>
       <c r="E52" t="n">
-        <v>55031000</v>
+        <v>53801000</v>
       </c>
       <c r="F52" t="n">
-        <v>10524.62607334</v>
+        <v>10951.54124671</v>
       </c>
       <c r="G52" t="n">
-        <v>587118672586.7328</v>
+        <v>608008065738.9528</v>
       </c>
       <c r="H52" t="n">
-        <v>1074500</v>
+        <v>2323000</v>
       </c>
       <c r="I52" t="n">
-        <v>56812000</v>
+        <v>58699500</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9686509892276279</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>1.046539479019436</v>
+        <v>0.9973869996241677</v>
       </c>
       <c r="L52" t="n">
-        <v>3.70040257653416</v>
+        <v>4.355120841720688</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44450.375</v>
+        <v>44460.375</v>
       </c>
       <c r="B53" t="n">
-        <v>55031000</v>
+        <v>53801000</v>
       </c>
       <c r="C53" t="n">
-        <v>55400000</v>
+        <v>54400000</v>
       </c>
       <c r="D53" t="n">
-        <v>54316000</v>
+        <v>50211000</v>
       </c>
       <c r="E53" t="n">
-        <v>54800000</v>
+        <v>50699000</v>
       </c>
       <c r="F53" t="n">
-        <v>4246.7897401</v>
+        <v>11491.19131035</v>
       </c>
       <c r="G53" t="n">
-        <v>233572715191.5004</v>
+        <v>602640099332.8099</v>
       </c>
       <c r="H53" t="n">
-        <v>542000</v>
+        <v>2094500</v>
       </c>
       <c r="I53" t="n">
-        <v>56105500</v>
+        <v>56124000</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>1.046539479019436</v>
+        <v>0.9973869996241677</v>
       </c>
       <c r="L53" t="n">
-        <v>3.70040257653416</v>
+        <v>4.355120841720688</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44451.375</v>
+        <v>44461.375</v>
       </c>
       <c r="B54" t="n">
-        <v>54800000</v>
+        <v>50699000</v>
       </c>
       <c r="C54" t="n">
-        <v>55580000</v>
+        <v>54153000</v>
       </c>
       <c r="D54" t="n">
-        <v>54316000</v>
+        <v>50059000</v>
       </c>
       <c r="E54" t="n">
-        <v>55078000</v>
+        <v>53856000</v>
       </c>
       <c r="F54" t="n">
-        <v>4456.24751341</v>
+        <v>8922.15765938</v>
       </c>
       <c r="G54" t="n">
-        <v>244803798485.1118</v>
+        <v>467187185035.5327</v>
       </c>
       <c r="H54" t="n">
-        <v>632000</v>
+        <v>2047000</v>
       </c>
       <c r="I54" t="n">
-        <v>55342000</v>
+        <v>52793500</v>
       </c>
       <c r="J54" t="n">
-        <v>0.995229662823895</v>
+        <v>1.020125583641926</v>
       </c>
       <c r="K54" t="n">
-        <v>1.041547132836408</v>
+        <v>1.017459995108473</v>
       </c>
       <c r="L54" t="n">
-        <v>4.159784126167259</v>
+        <v>2.430211826298871</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44452.375</v>
+        <v>44462.375</v>
       </c>
       <c r="B55" t="n">
-        <v>55078000</v>
+        <v>53853000</v>
       </c>
       <c r="C55" t="n">
-        <v>56663000</v>
+        <v>54656000</v>
       </c>
       <c r="D55" t="n">
-        <v>53600000</v>
+        <v>52571000</v>
       </c>
       <c r="E55" t="n">
-        <v>54274000</v>
+        <v>54410000</v>
       </c>
       <c r="F55" t="n">
-        <v>7678.99872171</v>
+        <v>7737.69933454</v>
       </c>
       <c r="G55" t="n">
-        <v>419768907821.3112</v>
+        <v>415384854012.3932</v>
       </c>
       <c r="H55" t="n">
-        <v>1531500</v>
+        <v>1042500</v>
       </c>
       <c r="I55" t="n">
-        <v>55710000</v>
+        <v>55900000</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9742236582301202</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>1.014699857970978</v>
+        <v>1.017459995108473</v>
       </c>
       <c r="L55" t="n">
-        <v>6.630194285830227</v>
+        <v>2.430211826298871</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44453.375</v>
+        <v>44463.375</v>
       </c>
       <c r="B56" t="n">
-        <v>54340000</v>
+        <v>54405000</v>
       </c>
       <c r="C56" t="n">
-        <v>56857000</v>
+        <v>54534000</v>
       </c>
       <c r="D56" t="n">
-        <v>54120000</v>
+        <v>50900000</v>
       </c>
       <c r="E56" t="n">
-        <v>56564000</v>
+        <v>52176000</v>
       </c>
       <c r="F56" t="n">
-        <v>5994.88062518</v>
+        <v>11468.26484925</v>
       </c>
       <c r="G56" t="n">
-        <v>333704711921.3414</v>
+        <v>602952735214.0181</v>
       </c>
       <c r="H56" t="n">
-        <v>1368500</v>
+        <v>1817000</v>
       </c>
       <c r="I56" t="n">
-        <v>55871500</v>
+        <v>55447500</v>
       </c>
       <c r="J56" t="n">
-        <v>1.012394512407936</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>1.027276567950931</v>
+        <v>1.017459995108473</v>
       </c>
       <c r="L56" t="n">
-        <v>5.472921070379364</v>
+        <v>2.430211826298871</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44454.375</v>
+        <v>44464.375</v>
       </c>
       <c r="B57" t="n">
-        <v>56564000</v>
+        <v>52176000</v>
       </c>
       <c r="C57" t="n">
-        <v>57600000</v>
+        <v>52452000</v>
       </c>
       <c r="D57" t="n">
-        <v>56011000</v>
+        <v>51056000</v>
       </c>
       <c r="E57" t="n">
-        <v>57207000</v>
+        <v>52326000</v>
       </c>
       <c r="F57" t="n">
-        <v>5204.48354612</v>
+        <v>4371.92985367</v>
       </c>
       <c r="G57" t="n">
-        <v>295924748212.9268</v>
+        <v>226758630503.6776</v>
       </c>
       <c r="H57" t="n">
-        <v>794500</v>
+        <v>698000</v>
       </c>
       <c r="I57" t="n">
-        <v>57932500</v>
+        <v>53993000</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>1.027276567950931</v>
+        <v>1.017459995108473</v>
       </c>
       <c r="L57" t="n">
-        <v>5.472921070379364</v>
+        <v>2.430211826298871</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44455.375</v>
+        <v>44465.375</v>
       </c>
       <c r="B58" t="n">
-        <v>57178000</v>
+        <v>52326000</v>
       </c>
       <c r="C58" t="n">
-        <v>57500000</v>
+        <v>53607000</v>
       </c>
       <c r="D58" t="n">
-        <v>56446000</v>
+        <v>50803000</v>
       </c>
       <c r="E58" t="n">
-        <v>57277000</v>
+        <v>52798000</v>
       </c>
       <c r="F58" t="n">
-        <v>5358.40400108</v>
+        <v>5945.40902076</v>
       </c>
       <c r="G58" t="n">
-        <v>305839184427.866</v>
+        <v>310948126899.3715</v>
       </c>
       <c r="H58" t="n">
-        <v>527000</v>
+        <v>1402000</v>
       </c>
       <c r="I58" t="n">
-        <v>57972500</v>
+        <v>53024000</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0.9957377791188896</v>
       </c>
       <c r="K58" t="n">
-        <v>1.027276567950931</v>
+        <v>1.013123355871627</v>
       </c>
       <c r="L58" t="n">
-        <v>5.472921070379364</v>
+        <v>2.846075814818336</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44456.375</v>
+        <v>44466.375</v>
       </c>
       <c r="B59" t="n">
-        <v>57277000</v>
+        <v>52798000</v>
       </c>
       <c r="C59" t="n">
-        <v>57836000</v>
+        <v>53800000</v>
       </c>
       <c r="D59" t="n">
-        <v>56942000</v>
+        <v>51747000</v>
       </c>
       <c r="E59" t="n">
-        <v>57642000</v>
+        <v>51834000</v>
       </c>
       <c r="F59" t="n">
-        <v>6908.81118369</v>
+        <v>4963.31808383</v>
       </c>
       <c r="G59" t="n">
-        <v>397042475608.0333</v>
+        <v>262697515793.7759</v>
       </c>
       <c r="H59" t="n">
-        <v>447000</v>
+        <v>1026500</v>
       </c>
       <c r="I59" t="n">
-        <v>57804000</v>
+        <v>54200000</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9971974257836828</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>1.024397549128564</v>
+        <v>1.013123355871627</v>
       </c>
       <c r="L59" t="n">
-        <v>5.737840224531308</v>
+        <v>2.846075814818336</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44457.375</v>
+        <v>44467.375</v>
       </c>
       <c r="B60" t="n">
-        <v>57642000</v>
+        <v>51831000</v>
       </c>
       <c r="C60" t="n">
-        <v>58980000</v>
+        <v>52103000</v>
       </c>
       <c r="D60" t="n">
-        <v>57574000</v>
+        <v>50222000</v>
       </c>
       <c r="E60" t="n">
-        <v>58597000</v>
+        <v>50309000</v>
       </c>
       <c r="F60" t="n">
-        <v>4935.40608571</v>
+        <v>6216.15486117</v>
       </c>
       <c r="G60" t="n">
-        <v>288291394889.2499</v>
+        <v>318673200792.9927</v>
       </c>
       <c r="H60" t="n">
-        <v>703000</v>
+        <v>940500</v>
       </c>
       <c r="I60" t="n">
-        <v>58089000</v>
+        <v>52857500</v>
       </c>
       <c r="J60" t="n">
-        <v>1.008745201328995</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>1.033356111936623</v>
+        <v>1.013123355871627</v>
       </c>
       <c r="L60" t="n">
-        <v>4.913498659588914</v>
+        <v>2.846075814818336</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44458.375</v>
+        <v>44468.375</v>
       </c>
       <c r="B61" t="n">
-        <v>58597000</v>
+        <v>50309000</v>
       </c>
       <c r="C61" t="n">
-        <v>58805000</v>
+        <v>51799000</v>
       </c>
       <c r="D61" t="n">
-        <v>57466000</v>
+        <v>49924000</v>
       </c>
       <c r="E61" t="n">
-        <v>57976000</v>
+        <v>50800000</v>
       </c>
       <c r="F61" t="n">
-        <v>4821.3843762</v>
+        <v>5199.8520123</v>
       </c>
       <c r="G61" t="n">
-        <v>279811883170.7576</v>
+        <v>265067157875.957</v>
       </c>
       <c r="H61" t="n">
-        <v>669500</v>
+        <v>937500</v>
       </c>
       <c r="I61" t="n">
-        <v>59300000</v>
+        <v>51249500</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0.9912291827237338</v>
       </c>
       <c r="K61" t="n">
-        <v>1.033356111936623</v>
+        <v>1.00423743603896</v>
       </c>
       <c r="L61" t="n">
-        <v>4.913498659588914</v>
+        <v>3.69819513151878</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44459.375</v>
+        <v>44469.375</v>
       </c>
       <c r="B62" t="n">
-        <v>58030000</v>
+        <v>50800000</v>
       </c>
       <c r="C62" t="n">
-        <v>58142000</v>
+        <v>53673000</v>
       </c>
       <c r="D62" t="n">
-        <v>53496000</v>
+        <v>50731000</v>
       </c>
       <c r="E62" t="n">
-        <v>53801000</v>
+        <v>53523000</v>
       </c>
       <c r="F62" t="n">
-        <v>10951.54124671</v>
+        <v>6716.78034563</v>
       </c>
       <c r="G62" t="n">
-        <v>608008065738.9528</v>
+        <v>353760846438.2255</v>
       </c>
       <c r="H62" t="n">
-        <v>2323000</v>
+        <v>1471000</v>
       </c>
       <c r="I62" t="n">
-        <v>58699500</v>
+        <v>51737500</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>1.034510751389224</v>
       </c>
       <c r="K62" t="n">
-        <v>1.033356111936623</v>
+        <v>1.038894424529852</v>
       </c>
       <c r="L62" t="n">
-        <v>4.913498659588914</v>
+        <v>0.3747474853690214</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44460.375</v>
+        <v>44470.375</v>
       </c>
       <c r="B63" t="n">
-        <v>53801000</v>
+        <v>53523000</v>
       </c>
       <c r="C63" t="n">
-        <v>54400000</v>
+        <v>58582000</v>
       </c>
       <c r="D63" t="n">
-        <v>50211000</v>
+        <v>53070000</v>
       </c>
       <c r="E63" t="n">
-        <v>50699000</v>
+        <v>58348000</v>
       </c>
       <c r="F63" t="n">
-        <v>11491.19131035</v>
+        <v>9344.90787537</v>
       </c>
       <c r="G63" t="n">
-        <v>602640099332.8099</v>
+        <v>526629015325.6079</v>
       </c>
       <c r="H63" t="n">
-        <v>2094500</v>
+        <v>2756000</v>
       </c>
       <c r="I63" t="n">
-        <v>56124000</v>
+        <v>54994000</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>1.060988471469615</v>
       </c>
       <c r="K63" t="n">
-        <v>1.033356111936623</v>
+        <v>1.102255007500233</v>
       </c>
       <c r="L63" t="n">
-        <v>4.913498659588914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44461.375</v>
+        <v>44471.375</v>
       </c>
       <c r="B64" t="n">
-        <v>50699000</v>
+        <v>58348000</v>
       </c>
       <c r="C64" t="n">
-        <v>54153000</v>
+        <v>58999000</v>
       </c>
       <c r="D64" t="n">
-        <v>50059000</v>
+        <v>57660000</v>
       </c>
       <c r="E64" t="n">
-        <v>53856000</v>
+        <v>58228000</v>
       </c>
       <c r="F64" t="n">
-        <v>8922.15765938</v>
+        <v>4852.96858036</v>
       </c>
       <c r="G64" t="n">
-        <v>467187185035.5327</v>
+        <v>283012282143.4559</v>
       </c>
       <c r="H64" t="n">
-        <v>2047000</v>
+        <v>669500</v>
       </c>
       <c r="I64" t="n">
-        <v>52793500</v>
+        <v>61104000</v>
       </c>
       <c r="J64" t="n">
-        <v>1.020125583641926</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>1.054153006799299</v>
+        <v>1.102255007500233</v>
       </c>
       <c r="L64" t="n">
-        <v>2.999827323644399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44462.375</v>
+        <v>44472.375</v>
       </c>
       <c r="B65" t="n">
-        <v>53853000</v>
+        <v>58238000</v>
       </c>
       <c r="C65" t="n">
-        <v>54656000</v>
+        <v>59390000</v>
       </c>
       <c r="D65" t="n">
-        <v>52571000</v>
+        <v>57250000</v>
       </c>
       <c r="E65" t="n">
-        <v>54410000</v>
+        <v>58567000</v>
       </c>
       <c r="F65" t="n">
-        <v>7737.69933454</v>
+        <v>4489.39578954</v>
       </c>
       <c r="G65" t="n">
-        <v>415384854012.3932</v>
+        <v>262002063227.5648</v>
       </c>
       <c r="H65" t="n">
-        <v>1042500</v>
+        <v>1070000</v>
       </c>
       <c r="I65" t="n">
-        <v>55900000</v>
+        <v>58907500</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0.9942197513050121</v>
       </c>
       <c r="K65" t="n">
-        <v>1.054153006799299</v>
+        <v>1.095883699431586</v>
       </c>
       <c r="L65" t="n">
-        <v>2.999827323644399</v>
+        <v>0.5780248694987956</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44463.375</v>
+        <v>44473.375</v>
       </c>
       <c r="B66" t="n">
-        <v>54405000</v>
+        <v>58466000</v>
       </c>
       <c r="C66" t="n">
-        <v>54534000</v>
+        <v>60331000</v>
       </c>
       <c r="D66" t="n">
-        <v>50900000</v>
+        <v>57346000</v>
       </c>
       <c r="E66" t="n">
-        <v>52176000</v>
+        <v>60020000</v>
       </c>
       <c r="F66" t="n">
-        <v>11468.26484925</v>
+        <v>6699.98876873</v>
       </c>
       <c r="G66" t="n">
-        <v>602952735214.0181</v>
+        <v>392304690362.0932</v>
       </c>
       <c r="H66" t="n">
-        <v>1817000</v>
+        <v>1492500</v>
       </c>
       <c r="I66" t="n">
-        <v>55447500</v>
+        <v>59536000</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>1.008129535071217</v>
       </c>
       <c r="K66" t="n">
-        <v>1.054153006799299</v>
+        <v>1.104792724400091</v>
       </c>
       <c r="L66" t="n">
-        <v>2.999827323644399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44464.375</v>
+        <v>44474.375</v>
       </c>
       <c r="B67" t="n">
-        <v>52176000</v>
+        <v>60020000</v>
       </c>
       <c r="C67" t="n">
-        <v>52452000</v>
+        <v>62500000</v>
       </c>
       <c r="D67" t="n">
-        <v>51056000</v>
+        <v>59547000</v>
       </c>
       <c r="E67" t="n">
-        <v>52326000</v>
+        <v>61666000</v>
       </c>
       <c r="F67" t="n">
-        <v>4371.92985367</v>
+        <v>9846.15636431</v>
       </c>
       <c r="G67" t="n">
-        <v>226758630503.6776</v>
+        <v>596248479174.788</v>
       </c>
       <c r="H67" t="n">
-        <v>698000</v>
+        <v>1476500</v>
       </c>
       <c r="I67" t="n">
-        <v>53993000</v>
+        <v>61512500</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>1.002495427758586</v>
       </c>
       <c r="K67" t="n">
-        <v>1.054153006799299</v>
+        <v>1.107549654832042</v>
       </c>
       <c r="L67" t="n">
-        <v>2.999827323644399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44465.375</v>
+        <v>44475.375</v>
       </c>
       <c r="B68" t="n">
-        <v>52326000</v>
+        <v>61666000</v>
       </c>
       <c r="C68" t="n">
-        <v>53607000</v>
+        <v>67636000</v>
       </c>
       <c r="D68" t="n">
-        <v>50803000</v>
+        <v>61113000</v>
       </c>
       <c r="E68" t="n">
-        <v>52798000</v>
+        <v>67000000</v>
       </c>
       <c r="F68" t="n">
-        <v>5945.40902076</v>
+        <v>13462.73768824</v>
       </c>
       <c r="G68" t="n">
-        <v>310948126899.3715</v>
+        <v>864584706843.0698</v>
       </c>
       <c r="H68" t="n">
-        <v>1402000</v>
+        <v>3261500</v>
       </c>
       <c r="I68" t="n">
-        <v>53024000</v>
+        <v>63142500</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9957377791188896</v>
+        <v>1.061091974502118</v>
       </c>
       <c r="K68" t="n">
-        <v>1.049659973841833</v>
+        <v>1.175212050104871</v>
       </c>
       <c r="L68" t="n">
-        <v>3.413263485096876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44466.375</v>
+        <v>44476.375</v>
       </c>
       <c r="B69" t="n">
-        <v>52798000</v>
+        <v>66998000</v>
       </c>
       <c r="C69" t="n">
-        <v>53800000</v>
+        <v>67290000</v>
       </c>
       <c r="D69" t="n">
-        <v>51747000</v>
+        <v>65265000</v>
       </c>
       <c r="E69" t="n">
-        <v>51834000</v>
+        <v>65500000</v>
       </c>
       <c r="F69" t="n">
-        <v>4963.31808383</v>
+        <v>8828.33453547</v>
       </c>
       <c r="G69" t="n">
-        <v>262697515793.7759</v>
+        <v>584191782622.2512</v>
       </c>
       <c r="H69" t="n">
-        <v>1026500</v>
+        <v>1012500</v>
       </c>
       <c r="I69" t="n">
-        <v>54200000</v>
+        <v>70259500</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>1.049659973841833</v>
+        <v>1.175212050104871</v>
       </c>
       <c r="L69" t="n">
-        <v>3.413263485096876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44467.375</v>
+        <v>44477.375</v>
       </c>
       <c r="B70" t="n">
-        <v>51831000</v>
+        <v>65501000</v>
       </c>
       <c r="C70" t="n">
-        <v>52103000</v>
+        <v>68200000</v>
       </c>
       <c r="D70" t="n">
-        <v>50222000</v>
+        <v>65151000</v>
       </c>
       <c r="E70" t="n">
-        <v>50309000</v>
+        <v>65951000</v>
       </c>
       <c r="F70" t="n">
-        <v>6216.15486117</v>
+        <v>8405.272394</v>
       </c>
       <c r="G70" t="n">
-        <v>318673200792.9927</v>
+        <v>559268632990.6614</v>
       </c>
       <c r="H70" t="n">
-        <v>940500</v>
+        <v>1524500</v>
       </c>
       <c r="I70" t="n">
-        <v>52857500</v>
+        <v>66513500</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>0.9915430702037932</v>
       </c>
       <c r="K70" t="n">
-        <v>1.049659973841833</v>
+        <v>1.165273364301478</v>
       </c>
       <c r="L70" t="n">
-        <v>3.413263485096876</v>
+        <v>0.8456929796206822</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44468.375</v>
+        <v>44478.375</v>
       </c>
       <c r="B71" t="n">
-        <v>50309000</v>
+        <v>65951000</v>
       </c>
       <c r="C71" t="n">
-        <v>51799000</v>
+        <v>67731000</v>
       </c>
       <c r="D71" t="n">
-        <v>49924000</v>
+        <v>65659000</v>
       </c>
       <c r="E71" t="n">
-        <v>50800000</v>
+        <v>67057000</v>
       </c>
       <c r="F71" t="n">
-        <v>5199.8520123</v>
+        <v>5042.25221793</v>
       </c>
       <c r="G71" t="n">
-        <v>265067157875.957</v>
+        <v>337726926141.7395</v>
       </c>
       <c r="H71" t="n">
-        <v>937500</v>
+        <v>1036000</v>
       </c>
       <c r="I71" t="n">
-        <v>51249500</v>
+        <v>67475500</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9912291827237338</v>
+        <v>0.9937977488125319</v>
       </c>
       <c r="K71" t="n">
-        <v>1.040453598009056</v>
+        <v>1.158046046194014</v>
       </c>
       <c r="L71" t="n">
-        <v>4.260408102379948</v>
+        <v>1.460672898080407</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44469.375</v>
+        <v>44479.375</v>
       </c>
       <c r="B72" t="n">
-        <v>50800000</v>
+        <v>67057000</v>
       </c>
       <c r="C72" t="n">
-        <v>53673000</v>
+        <v>69023000</v>
       </c>
       <c r="D72" t="n">
-        <v>50731000</v>
+        <v>66350000</v>
       </c>
       <c r="E72" t="n">
-        <v>53523000</v>
+        <v>67801000</v>
       </c>
       <c r="F72" t="n">
-        <v>6716.78034563</v>
+        <v>5559.81442292</v>
       </c>
       <c r="G72" t="n">
-        <v>353760846438.2255</v>
+        <v>375920524221.4952</v>
       </c>
       <c r="H72" t="n">
-        <v>1471000</v>
+        <v>1336500</v>
       </c>
       <c r="I72" t="n">
-        <v>51737500</v>
+        <v>68093000</v>
       </c>
       <c r="J72" t="n">
-        <v>1.034510751389224</v>
+        <v>0.9957117471693125</v>
       </c>
       <c r="K72" t="n">
-        <v>1.076360433461971</v>
+        <v>1.153080051958356</v>
       </c>
       <c r="L72" t="n">
-        <v>0.9563628482953742</v>
+        <v>1.883234446459253</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44470.375</v>
+        <v>44480.375</v>
       </c>
       <c r="B73" t="n">
-        <v>53523000</v>
+        <v>67801000</v>
       </c>
       <c r="C73" t="n">
-        <v>58582000</v>
+        <v>71600000</v>
       </c>
       <c r="D73" t="n">
-        <v>53070000</v>
+        <v>67547000</v>
       </c>
       <c r="E73" t="n">
-        <v>58348000</v>
+        <v>70921000</v>
       </c>
       <c r="F73" t="n">
-        <v>9344.90787537</v>
+        <v>9404.74824492</v>
       </c>
       <c r="G73" t="n">
-        <v>526629015325.6079</v>
+        <v>657471668000.4491</v>
       </c>
       <c r="H73" t="n">
-        <v>2756000</v>
+        <v>2026500</v>
       </c>
       <c r="I73" t="n">
-        <v>54994000</v>
+        <v>69137500</v>
       </c>
       <c r="J73" t="n">
-        <v>1.060988471469615</v>
+        <v>1.025796420177183</v>
       </c>
       <c r="K73" t="n">
-        <v>1.142006011049189</v>
+        <v>1.182825389476602</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -3232,37 +3232,37 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44471.375</v>
+        <v>44481.375</v>
       </c>
       <c r="B74" t="n">
-        <v>58348000</v>
+        <v>70954000</v>
       </c>
       <c r="C74" t="n">
-        <v>58999000</v>
+        <v>71368000</v>
       </c>
       <c r="D74" t="n">
-        <v>57660000</v>
+        <v>67558000</v>
       </c>
       <c r="E74" t="n">
-        <v>58228000</v>
+        <v>69164000</v>
       </c>
       <c r="F74" t="n">
-        <v>4852.96858036</v>
+        <v>8980.821520470001</v>
       </c>
       <c r="G74" t="n">
-        <v>283012282143.4559</v>
+        <v>628672206653.5323</v>
       </c>
       <c r="H74" t="n">
-        <v>669500</v>
+        <v>1905000</v>
       </c>
       <c r="I74" t="n">
-        <v>61104000</v>
+        <v>72980500</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>1.142006011049189</v>
+        <v>1.182825389476602</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -3270,75 +3270,75 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44472.375</v>
+        <v>44482.375</v>
       </c>
       <c r="B75" t="n">
-        <v>58238000</v>
+        <v>69188000</v>
       </c>
       <c r="C75" t="n">
-        <v>59390000</v>
+        <v>70700000</v>
       </c>
       <c r="D75" t="n">
-        <v>57250000</v>
+        <v>66865000</v>
       </c>
       <c r="E75" t="n">
-        <v>58567000</v>
+        <v>69857000</v>
       </c>
       <c r="F75" t="n">
-        <v>4489.39578954</v>
+        <v>8568.727016569999</v>
       </c>
       <c r="G75" t="n">
-        <v>262002063227.5648</v>
+        <v>587847809013.9847</v>
       </c>
       <c r="H75" t="n">
-        <v>1070000</v>
+        <v>1917500</v>
       </c>
       <c r="I75" t="n">
-        <v>58907500</v>
+        <v>71093000</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9942197513050121</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>1.135404932294153</v>
+        <v>1.182825389476602</v>
       </c>
       <c r="L75" t="n">
-        <v>0.5780248694987944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44473.375</v>
+        <v>44483.375</v>
       </c>
       <c r="B76" t="n">
-        <v>58466000</v>
+        <v>69857000</v>
       </c>
       <c r="C76" t="n">
-        <v>60331000</v>
+        <v>71470000</v>
       </c>
       <c r="D76" t="n">
-        <v>57346000</v>
+        <v>69400000</v>
       </c>
       <c r="E76" t="n">
-        <v>60020000</v>
+        <v>69783000</v>
       </c>
       <c r="F76" t="n">
-        <v>6699.98876873</v>
+        <v>6362.57109584</v>
       </c>
       <c r="G76" t="n">
-        <v>392304690362.0932</v>
+        <v>447309084626.5939</v>
       </c>
       <c r="H76" t="n">
-        <v>1492500</v>
+        <v>1035000</v>
       </c>
       <c r="I76" t="n">
-        <v>59536000</v>
+        <v>71774500</v>
       </c>
       <c r="J76" t="n">
-        <v>1.008129535071217</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>1.144635246511272</v>
+        <v>1.182825389476602</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -3346,37 +3346,37 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44474.375</v>
+        <v>44484.375</v>
       </c>
       <c r="B77" t="n">
-        <v>60020000</v>
+        <v>69784000</v>
       </c>
       <c r="C77" t="n">
-        <v>62500000</v>
+        <v>76721000</v>
       </c>
       <c r="D77" t="n">
-        <v>59547000</v>
+        <v>69420000</v>
       </c>
       <c r="E77" t="n">
-        <v>61666000</v>
+        <v>75688000</v>
       </c>
       <c r="F77" t="n">
-        <v>9846.15636431</v>
+        <v>15661.24926397</v>
       </c>
       <c r="G77" t="n">
-        <v>596248479174.788</v>
+        <v>1145452749698.308</v>
       </c>
       <c r="H77" t="n">
-        <v>1476500</v>
+        <v>3650500</v>
       </c>
       <c r="I77" t="n">
-        <v>61512500</v>
+        <v>70819000</v>
       </c>
       <c r="J77" t="n">
-        <v>1.002495427758586</v>
+        <v>1.068752735847724</v>
       </c>
       <c r="K77" t="n">
-        <v>1.147491601078872</v>
+        <v>1.264147871033269</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -3384,37 +3384,37 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44475.375</v>
+        <v>44485.375</v>
       </c>
       <c r="B78" t="n">
-        <v>61666000</v>
+        <v>75688000</v>
       </c>
       <c r="C78" t="n">
-        <v>67636000</v>
+        <v>76370000</v>
       </c>
       <c r="D78" t="n">
-        <v>61113000</v>
+        <v>73950000</v>
       </c>
       <c r="E78" t="n">
-        <v>67000000</v>
+        <v>74806000</v>
       </c>
       <c r="F78" t="n">
-        <v>13462.73768824</v>
+        <v>7825.0005115</v>
       </c>
       <c r="G78" t="n">
-        <v>864584706843.0698</v>
+        <v>589288907263.0604</v>
       </c>
       <c r="H78" t="n">
-        <v>3261500</v>
+        <v>1210000</v>
       </c>
       <c r="I78" t="n">
-        <v>63142500</v>
+        <v>79338500</v>
       </c>
       <c r="J78" t="n">
-        <v>1.061091974502118</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>1.217594128713377</v>
+        <v>1.264147871033269</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -3422,341 +3422,341 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44476.375</v>
+        <v>44486.375</v>
       </c>
       <c r="B79" t="n">
-        <v>66998000</v>
+        <v>74806000</v>
       </c>
       <c r="C79" t="n">
-        <v>67290000</v>
+        <v>76200000</v>
       </c>
       <c r="D79" t="n">
-        <v>65265000</v>
+        <v>74008000</v>
       </c>
       <c r="E79" t="n">
-        <v>65500000</v>
+        <v>75933000</v>
       </c>
       <c r="F79" t="n">
-        <v>8828.33453547</v>
+        <v>5403.94853669</v>
       </c>
       <c r="G79" t="n">
-        <v>584191782622.2512</v>
+        <v>404990697637.6364</v>
       </c>
       <c r="H79" t="n">
-        <v>1012500</v>
+        <v>1096000</v>
       </c>
       <c r="I79" t="n">
-        <v>70259500</v>
+        <v>76016000</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0.9989081246053463</v>
       </c>
       <c r="K79" t="n">
-        <v>1.217594128713377</v>
+        <v>1.262767579077683</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>0.1091875394653791</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44477.375</v>
+        <v>44487.375</v>
       </c>
       <c r="B80" t="n">
-        <v>65501000</v>
+        <v>75933000</v>
       </c>
       <c r="C80" t="n">
-        <v>68200000</v>
+        <v>77276000</v>
       </c>
       <c r="D80" t="n">
-        <v>65151000</v>
+        <v>74193000</v>
       </c>
       <c r="E80" t="n">
-        <v>65951000</v>
+        <v>76546000</v>
       </c>
       <c r="F80" t="n">
-        <v>8405.272394</v>
+        <v>8312.737818789999</v>
       </c>
       <c r="G80" t="n">
-        <v>559268632990.6614</v>
+        <v>632688540533.9479</v>
       </c>
       <c r="H80" t="n">
-        <v>1524500</v>
+        <v>1541500</v>
       </c>
       <c r="I80" t="n">
-        <v>66513500</v>
+        <v>77029000</v>
       </c>
       <c r="J80" t="n">
-        <v>0.9915430702037932</v>
+        <v>0.9937296342935777</v>
       </c>
       <c r="K80" t="n">
-        <v>1.207297020646574</v>
+        <v>1.254849564554653</v>
       </c>
       <c r="L80" t="n">
-        <v>0.8456929796206804</v>
+        <v>0.7355394643045793</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44478.375</v>
+        <v>44488.375</v>
       </c>
       <c r="B81" t="n">
-        <v>65951000</v>
+        <v>76541000</v>
       </c>
       <c r="C81" t="n">
-        <v>67731000</v>
+        <v>79285000</v>
       </c>
       <c r="D81" t="n">
-        <v>65659000</v>
+        <v>75925000</v>
       </c>
       <c r="E81" t="n">
-        <v>67057000</v>
+        <v>78776000</v>
       </c>
       <c r="F81" t="n">
-        <v>5042.25221793</v>
+        <v>9018.170950870001</v>
       </c>
       <c r="G81" t="n">
-        <v>337726926141.7395</v>
+        <v>696401614018.545</v>
       </c>
       <c r="H81" t="n">
-        <v>1036000</v>
+        <v>1680000</v>
       </c>
       <c r="I81" t="n">
-        <v>67475500</v>
+        <v>78082500</v>
       </c>
       <c r="J81" t="n">
-        <v>0.9937977488125319</v>
+        <v>1.008881631607595</v>
       </c>
       <c r="K81" t="n">
-        <v>1.199809061266642</v>
+        <v>1.265994676109978</v>
       </c>
       <c r="L81" t="n">
-        <v>1.460672898080409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44479.375</v>
+        <v>44489.375</v>
       </c>
       <c r="B82" t="n">
-        <v>67057000</v>
+        <v>78776000</v>
       </c>
       <c r="C82" t="n">
-        <v>69023000</v>
+        <v>81750000</v>
       </c>
       <c r="D82" t="n">
-        <v>66350000</v>
+        <v>78001000</v>
       </c>
       <c r="E82" t="n">
-        <v>67801000</v>
+        <v>79917000</v>
       </c>
       <c r="F82" t="n">
-        <v>5559.81442292</v>
+        <v>14472.09742285</v>
       </c>
       <c r="G82" t="n">
-        <v>375920524221.4952</v>
+        <v>1152411111515.187</v>
       </c>
       <c r="H82" t="n">
-        <v>1336500</v>
+        <v>1874500</v>
       </c>
       <c r="I82" t="n">
-        <v>68093000</v>
+        <v>80456000</v>
       </c>
       <c r="J82" t="n">
-        <v>0.9957117471693125</v>
+        <v>0.993300686089291</v>
       </c>
       <c r="K82" t="n">
-        <v>1.194663976663381</v>
+        <v>1.257513380365431</v>
       </c>
       <c r="L82" t="n">
-        <v>1.883234446459261</v>
+        <v>0.6699313910708943</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44480.375</v>
+        <v>44490.375</v>
       </c>
       <c r="B83" t="n">
-        <v>67801000</v>
+        <v>79919000</v>
       </c>
       <c r="C83" t="n">
-        <v>71600000</v>
+        <v>80811000</v>
       </c>
       <c r="D83" t="n">
-        <v>67547000</v>
+        <v>76324000</v>
       </c>
       <c r="E83" t="n">
-        <v>70921000</v>
+        <v>76396000</v>
       </c>
       <c r="F83" t="n">
-        <v>9404.74824492</v>
+        <v>15551.93334613</v>
       </c>
       <c r="G83" t="n">
-        <v>657471668000.4491</v>
+        <v>1225371802278.793</v>
       </c>
       <c r="H83" t="n">
-        <v>2026500</v>
+        <v>2243500</v>
       </c>
       <c r="I83" t="n">
-        <v>69137500</v>
+        <v>81793500</v>
       </c>
       <c r="J83" t="n">
-        <v>1.025796420177183</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>1.225482030575934</v>
+        <v>1.257513380365431</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>0.6699313910708943</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44481.375</v>
+        <v>44491.375</v>
       </c>
       <c r="B84" t="n">
-        <v>70954000</v>
+        <v>76396000</v>
       </c>
       <c r="C84" t="n">
-        <v>71368000</v>
+        <v>77640000</v>
       </c>
       <c r="D84" t="n">
-        <v>67558000</v>
+        <v>74123000</v>
       </c>
       <c r="E84" t="n">
-        <v>69164000</v>
+        <v>74364000</v>
       </c>
       <c r="F84" t="n">
-        <v>8980.821520470001</v>
+        <v>11856.84444258</v>
       </c>
       <c r="G84" t="n">
-        <v>628672206653.5323</v>
+        <v>903371302135.1926</v>
       </c>
       <c r="H84" t="n">
-        <v>1905000</v>
+        <v>1758500</v>
       </c>
       <c r="I84" t="n">
-        <v>72980500</v>
+        <v>78639500</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>1.225482030575934</v>
+        <v>1.257513380365431</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>0.6699313910708943</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44482.375</v>
+        <v>44492.375</v>
       </c>
       <c r="B85" t="n">
-        <v>69188000</v>
+        <v>74350000</v>
       </c>
       <c r="C85" t="n">
-        <v>70700000</v>
+        <v>75580000</v>
       </c>
       <c r="D85" t="n">
-        <v>66865000</v>
+        <v>73247000</v>
       </c>
       <c r="E85" t="n">
-        <v>69857000</v>
+        <v>74830000</v>
       </c>
       <c r="F85" t="n">
-        <v>8568.727016569999</v>
+        <v>7080.04234866</v>
       </c>
       <c r="G85" t="n">
-        <v>587847809013.9847</v>
+        <v>529341477417.0786</v>
       </c>
       <c r="H85" t="n">
-        <v>1917500</v>
+        <v>1166500</v>
       </c>
       <c r="I85" t="n">
-        <v>71093000</v>
+        <v>76108500</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>1.225482030575934</v>
+        <v>1.257513380365431</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>0.6699313910708943</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44483.375</v>
+        <v>44493.375</v>
       </c>
       <c r="B86" t="n">
-        <v>69857000</v>
+        <v>74830000</v>
       </c>
       <c r="C86" t="n">
-        <v>71470000</v>
+        <v>75530000</v>
       </c>
       <c r="D86" t="n">
-        <v>69400000</v>
+        <v>73635000</v>
       </c>
       <c r="E86" t="n">
-        <v>69783000</v>
+        <v>74501000</v>
       </c>
       <c r="F86" t="n">
-        <v>6362.57109584</v>
+        <v>6110.3785988</v>
       </c>
       <c r="G86" t="n">
-        <v>447309084626.5939</v>
+        <v>454814496440.7718</v>
       </c>
       <c r="H86" t="n">
-        <v>1035000</v>
+        <v>947500</v>
       </c>
       <c r="I86" t="n">
-        <v>71774500</v>
+        <v>75996500</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>1.225482030575934</v>
+        <v>1.257513380365431</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>0.6699313910708943</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44484.375</v>
+        <v>44494.375</v>
       </c>
       <c r="B87" t="n">
-        <v>69784000</v>
+        <v>74501000</v>
       </c>
       <c r="C87" t="n">
-        <v>76721000</v>
+        <v>77024000</v>
       </c>
       <c r="D87" t="n">
-        <v>69420000</v>
+        <v>74210000</v>
       </c>
       <c r="E87" t="n">
-        <v>75688000</v>
+        <v>76200000</v>
       </c>
       <c r="F87" t="n">
-        <v>15661.24926397</v>
+        <v>6856.57775992</v>
       </c>
       <c r="G87" t="n">
-        <v>1145452749698.308</v>
+        <v>521225048265.0583</v>
       </c>
       <c r="H87" t="n">
-        <v>3650500</v>
+        <v>1407000</v>
       </c>
       <c r="I87" t="n">
-        <v>70819000</v>
+        <v>75448500</v>
       </c>
       <c r="J87" t="n">
-        <v>1.068752735847724</v>
+        <v>1.009960436589197</v>
       </c>
       <c r="K87" t="n">
-        <v>1.309737272910254</v>
+        <v>1.270038762650627</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -3764,37 +3764,37 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44485.375</v>
+        <v>44495.375</v>
       </c>
       <c r="B88" t="n">
-        <v>75688000</v>
+        <v>76250000</v>
       </c>
       <c r="C88" t="n">
-        <v>76370000</v>
+        <v>76480000</v>
       </c>
       <c r="D88" t="n">
-        <v>73950000</v>
+        <v>73002000</v>
       </c>
       <c r="E88" t="n">
-        <v>74806000</v>
+        <v>73293000</v>
       </c>
       <c r="F88" t="n">
-        <v>7825.0005115</v>
+        <v>8258.18143151</v>
       </c>
       <c r="G88" t="n">
-        <v>589288907263.0604</v>
+        <v>619824450361.118</v>
       </c>
       <c r="H88" t="n">
-        <v>1210000</v>
+        <v>1739000</v>
       </c>
       <c r="I88" t="n">
-        <v>79338500</v>
+        <v>77657000</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>1.309737272910254</v>
+        <v>1.270038762650627</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -3802,4296 +3802,4296 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44486.375</v>
+        <v>44496.375</v>
       </c>
       <c r="B89" t="n">
-        <v>74806000</v>
+        <v>73293000</v>
       </c>
       <c r="C89" t="n">
-        <v>76200000</v>
+        <v>74200000</v>
       </c>
       <c r="D89" t="n">
-        <v>74008000</v>
+        <v>70180000</v>
       </c>
       <c r="E89" t="n">
-        <v>75933000</v>
+        <v>71845000</v>
       </c>
       <c r="F89" t="n">
-        <v>5403.94853669</v>
+        <v>14503.8250321</v>
       </c>
       <c r="G89" t="n">
-        <v>404990697637.6364</v>
+        <v>1053620820854.757</v>
       </c>
       <c r="H89" t="n">
-        <v>1096000</v>
+        <v>2010000</v>
       </c>
       <c r="I89" t="n">
-        <v>76016000</v>
+        <v>75032000</v>
       </c>
       <c r="J89" t="n">
-        <v>0.9989081246053463</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>1.308307203008503</v>
+        <v>1.270038762650627</v>
       </c>
       <c r="L89" t="n">
-        <v>0.1091875394653697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44487.375</v>
+        <v>44497.375</v>
       </c>
       <c r="B90" t="n">
-        <v>75933000</v>
+        <v>71833000</v>
       </c>
       <c r="C90" t="n">
-        <v>77276000</v>
+        <v>74707000</v>
       </c>
       <c r="D90" t="n">
-        <v>74193000</v>
+        <v>71028000</v>
       </c>
       <c r="E90" t="n">
-        <v>76546000</v>
+        <v>73122000</v>
       </c>
       <c r="F90" t="n">
-        <v>8312.737818789999</v>
+        <v>8654.62147862</v>
       </c>
       <c r="G90" t="n">
-        <v>632688540533.9479</v>
+        <v>630325919861.4268</v>
       </c>
       <c r="H90" t="n">
-        <v>1541500</v>
+        <v>1839500</v>
       </c>
       <c r="I90" t="n">
-        <v>77029000</v>
+        <v>73843000</v>
       </c>
       <c r="J90" t="n">
-        <v>0.9937296342935777</v>
+        <v>0.9902360413309318</v>
       </c>
       <c r="K90" t="n">
-        <v>1.300103638389293</v>
+        <v>1.257638156663991</v>
       </c>
       <c r="L90" t="n">
-        <v>0.7355394643045673</v>
+        <v>0.9763958669068237</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44488.375</v>
+        <v>44498.375</v>
       </c>
       <c r="B91" t="n">
-        <v>76541000</v>
+        <v>73028000</v>
       </c>
       <c r="C91" t="n">
-        <v>79285000</v>
+        <v>75405000</v>
       </c>
       <c r="D91" t="n">
-        <v>75925000</v>
+        <v>72676000</v>
       </c>
       <c r="E91" t="n">
-        <v>78776000</v>
+        <v>74568000</v>
       </c>
       <c r="F91" t="n">
-        <v>9018.170950870001</v>
+        <v>7156.5495444</v>
       </c>
       <c r="G91" t="n">
-        <v>696401614018.545</v>
+        <v>529148496573.0781</v>
       </c>
       <c r="H91" t="n">
-        <v>1680000</v>
+        <v>1364500</v>
       </c>
       <c r="I91" t="n">
-        <v>78082500</v>
+        <v>74867500</v>
       </c>
       <c r="J91" t="n">
-        <v>1.008881631607595</v>
+        <v>0.9959995992920827</v>
       </c>
       <c r="K91" t="n">
-        <v>1.31165067995716</v>
+        <v>1.252607100091769</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1.372529962981375</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44489.375</v>
+        <v>44499.375</v>
       </c>
       <c r="B92" t="n">
-        <v>78776000</v>
+        <v>74568000</v>
       </c>
       <c r="C92" t="n">
-        <v>81750000</v>
+        <v>74748000</v>
       </c>
       <c r="D92" t="n">
-        <v>78001000</v>
+        <v>72910000</v>
       </c>
       <c r="E92" t="n">
-        <v>79917000</v>
+        <v>73413000</v>
       </c>
       <c r="F92" t="n">
-        <v>14472.09742285</v>
+        <v>6019.3726361</v>
       </c>
       <c r="G92" t="n">
-        <v>1152411111515.187</v>
+        <v>443974248919.1151</v>
       </c>
       <c r="H92" t="n">
-        <v>1874500</v>
+        <v>919000</v>
       </c>
       <c r="I92" t="n">
-        <v>80456000</v>
+        <v>75932500</v>
       </c>
       <c r="J92" t="n">
-        <v>0.993300686089291</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>1.302863520310932</v>
+        <v>1.252607100091769</v>
       </c>
       <c r="L92" t="n">
-        <v>0.6699313910708979</v>
+        <v>1.372529962981375</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44490.375</v>
+        <v>44500.375</v>
       </c>
       <c r="B93" t="n">
-        <v>79919000</v>
+        <v>73428000</v>
       </c>
       <c r="C93" t="n">
-        <v>80811000</v>
+        <v>74502000</v>
       </c>
       <c r="D93" t="n">
-        <v>76324000</v>
+        <v>71551000</v>
       </c>
       <c r="E93" t="n">
-        <v>76396000</v>
+        <v>72391000</v>
       </c>
       <c r="F93" t="n">
-        <v>15551.93334613</v>
+        <v>7515.24771978</v>
       </c>
       <c r="G93" t="n">
-        <v>1225371802278.793</v>
+        <v>547624687479.1433</v>
       </c>
       <c r="H93" t="n">
-        <v>2243500</v>
+        <v>1475500</v>
       </c>
       <c r="I93" t="n">
-        <v>81793500</v>
+        <v>74347000</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0.9736909357472393</v>
       </c>
       <c r="K93" t="n">
-        <v>1.302863520310932</v>
+        <v>1.21965217941199</v>
       </c>
       <c r="L93" t="n">
-        <v>0.6699313910708979</v>
+        <v>3.967326409272525</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44491.375</v>
+        <v>44501.375</v>
       </c>
       <c r="B94" t="n">
-        <v>76396000</v>
+        <v>72325000</v>
       </c>
       <c r="C94" t="n">
-        <v>77640000</v>
+        <v>73928000</v>
       </c>
       <c r="D94" t="n">
-        <v>74123000</v>
+        <v>71003000</v>
       </c>
       <c r="E94" t="n">
-        <v>74364000</v>
+        <v>72401000</v>
       </c>
       <c r="F94" t="n">
-        <v>11856.84444258</v>
+        <v>6319.81024636</v>
       </c>
       <c r="G94" t="n">
-        <v>903371302135.1926</v>
+        <v>459799779805.7788</v>
       </c>
       <c r="H94" t="n">
-        <v>1758500</v>
+        <v>1462500</v>
       </c>
       <c r="I94" t="n">
-        <v>78639500</v>
+        <v>73800500</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0.9810367138434022</v>
       </c>
       <c r="K94" t="n">
-        <v>1.302863520310932</v>
+        <v>1.196523566122283</v>
       </c>
       <c r="L94" t="n">
-        <v>0.6699313910708979</v>
+        <v>5.788421478956642</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44492.375</v>
+        <v>44502.375</v>
       </c>
       <c r="B95" t="n">
-        <v>74350000</v>
+        <v>72402000</v>
       </c>
       <c r="C95" t="n">
-        <v>75580000</v>
+        <v>75590000</v>
       </c>
       <c r="D95" t="n">
-        <v>73247000</v>
+        <v>72031000</v>
       </c>
       <c r="E95" t="n">
-        <v>74830000</v>
+        <v>74150000</v>
       </c>
       <c r="F95" t="n">
-        <v>7080.04234866</v>
+        <v>7684.60605039</v>
       </c>
       <c r="G95" t="n">
-        <v>529341477417.0786</v>
+        <v>567138389401.7821</v>
       </c>
       <c r="H95" t="n">
-        <v>1166500</v>
+        <v>1779500</v>
       </c>
       <c r="I95" t="n">
-        <v>76108500</v>
+        <v>73864500</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>1.003865185576292</v>
       </c>
       <c r="K95" t="n">
-        <v>1.302863520310932</v>
+        <v>1.201148351751752</v>
       </c>
       <c r="L95" t="n">
-        <v>0.6699313910708979</v>
+        <v>5.424276244537429</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44493.375</v>
+        <v>44503.375</v>
       </c>
       <c r="B96" t="n">
-        <v>74830000</v>
+        <v>74106000</v>
       </c>
       <c r="C96" t="n">
-        <v>75530000</v>
+        <v>75141000</v>
       </c>
       <c r="D96" t="n">
-        <v>73635000</v>
+        <v>72500000</v>
       </c>
       <c r="E96" t="n">
-        <v>74501000</v>
+        <v>74600000</v>
       </c>
       <c r="F96" t="n">
-        <v>6110.3785988</v>
+        <v>7931.12310979</v>
       </c>
       <c r="G96" t="n">
-        <v>454814496440.7718</v>
+        <v>586147364013.1627</v>
       </c>
       <c r="H96" t="n">
-        <v>947500</v>
+        <v>1320500</v>
       </c>
       <c r="I96" t="n">
-        <v>75996500</v>
+        <v>75885500</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>1.302863520310932</v>
+        <v>1.201148351751752</v>
       </c>
       <c r="L96" t="n">
-        <v>0.6699313910708979</v>
+        <v>5.424276244537429</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44494.375</v>
+        <v>44504.375</v>
       </c>
       <c r="B97" t="n">
-        <v>74501000</v>
+        <v>74607000</v>
       </c>
       <c r="C97" t="n">
-        <v>77024000</v>
+        <v>74880000</v>
       </c>
       <c r="D97" t="n">
-        <v>74210000</v>
+        <v>73480000</v>
       </c>
       <c r="E97" t="n">
-        <v>76200000</v>
+        <v>73807000</v>
       </c>
       <c r="F97" t="n">
-        <v>6856.57775992</v>
+        <v>5757.70198775</v>
       </c>
       <c r="G97" t="n">
-        <v>521225048265.0583</v>
+        <v>426469535512.6226</v>
       </c>
       <c r="H97" t="n">
-        <v>1407000</v>
+        <v>700000</v>
       </c>
       <c r="I97" t="n">
-        <v>75448500</v>
+        <v>75927500</v>
       </c>
       <c r="J97" t="n">
-        <v>1.009960436589197</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>1.315840609789366</v>
+        <v>1.201148351751752</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>5.424276244537429</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44495.375</v>
+        <v>44505.375</v>
       </c>
       <c r="B98" t="n">
-        <v>76250000</v>
+        <v>73807000</v>
       </c>
       <c r="C98" t="n">
-        <v>76480000</v>
+        <v>75000000</v>
       </c>
       <c r="D98" t="n">
-        <v>73002000</v>
+        <v>73490000</v>
       </c>
       <c r="E98" t="n">
-        <v>73293000</v>
+        <v>74121000</v>
       </c>
       <c r="F98" t="n">
-        <v>8258.18143151</v>
+        <v>5520.4236536</v>
       </c>
       <c r="G98" t="n">
-        <v>619824450361.118</v>
+        <v>410709736765.9962</v>
       </c>
       <c r="H98" t="n">
-        <v>1739000</v>
+        <v>755000</v>
       </c>
       <c r="I98" t="n">
-        <v>77657000</v>
+        <v>74507000</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>0.9948192787254889</v>
       </c>
       <c r="K98" t="n">
-        <v>1.315840609789366</v>
+        <v>1.194925536931987</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>5.914246708649642</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44496.375</v>
+        <v>44506.375</v>
       </c>
       <c r="B99" t="n">
-        <v>73293000</v>
+        <v>74092000</v>
       </c>
       <c r="C99" t="n">
-        <v>74200000</v>
+        <v>74649000</v>
       </c>
       <c r="D99" t="n">
-        <v>70180000</v>
+        <v>73800000</v>
       </c>
       <c r="E99" t="n">
-        <v>71845000</v>
+        <v>74575000</v>
       </c>
       <c r="F99" t="n">
-        <v>14503.8250321</v>
+        <v>3742.0767138</v>
       </c>
       <c r="G99" t="n">
-        <v>1053620820854.757</v>
+        <v>277629666879.828</v>
       </c>
       <c r="H99" t="n">
-        <v>2010000</v>
+        <v>424500</v>
       </c>
       <c r="I99" t="n">
-        <v>75032000</v>
+        <v>74847000</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>1.315840609789366</v>
+        <v>1.194925536931987</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>5.914246708649642</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44497.375</v>
+        <v>44507.375</v>
       </c>
       <c r="B100" t="n">
-        <v>71833000</v>
+        <v>74576000</v>
       </c>
       <c r="C100" t="n">
-        <v>74707000</v>
+        <v>76700000</v>
       </c>
       <c r="D100" t="n">
-        <v>71028000</v>
+        <v>74481000</v>
       </c>
       <c r="E100" t="n">
-        <v>73122000</v>
+        <v>76536000</v>
       </c>
       <c r="F100" t="n">
-        <v>8654.62147862</v>
+        <v>4447.00986585</v>
       </c>
       <c r="G100" t="n">
-        <v>630325919861.4268</v>
+        <v>335634172962.1655</v>
       </c>
       <c r="H100" t="n">
-        <v>1839500</v>
+        <v>1109500</v>
       </c>
       <c r="I100" t="n">
-        <v>73843000</v>
+        <v>75000500</v>
       </c>
       <c r="J100" t="n">
-        <v>0.9902360413309318</v>
+        <v>1.020473196845354</v>
       </c>
       <c r="K100" t="n">
-        <v>1.302992796460302</v>
+        <v>1.219389482665137</v>
       </c>
       <c r="L100" t="n">
-        <v>0.9763958669068158</v>
+        <v>3.988010561172368</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44498.375</v>
+        <v>44508.375</v>
       </c>
       <c r="B101" t="n">
-        <v>73028000</v>
+        <v>76649000</v>
       </c>
       <c r="C101" t="n">
-        <v>75405000</v>
+        <v>81586000</v>
       </c>
       <c r="D101" t="n">
-        <v>72676000</v>
+        <v>76534000</v>
       </c>
       <c r="E101" t="n">
-        <v>74568000</v>
+        <v>81403000</v>
       </c>
       <c r="F101" t="n">
-        <v>7156.5495444</v>
+        <v>9132.13666783</v>
       </c>
       <c r="G101" t="n">
-        <v>529148496573.0781</v>
+        <v>726433660922.1797</v>
       </c>
       <c r="H101" t="n">
-        <v>1364500</v>
+        <v>2526000</v>
       </c>
       <c r="I101" t="n">
-        <v>74867500</v>
+        <v>77758500</v>
       </c>
       <c r="J101" t="n">
-        <v>0.9959995992920827</v>
+        <v>1.046869474076789</v>
       </c>
       <c r="K101" t="n">
-        <v>1.297780303154931</v>
+        <v>1.27654162641242</v>
       </c>
       <c r="L101" t="n">
-        <v>1.372529962981369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44499.375</v>
+        <v>44509.375</v>
       </c>
       <c r="B102" t="n">
-        <v>74568000</v>
+        <v>81402000</v>
       </c>
       <c r="C102" t="n">
-        <v>74748000</v>
+        <v>82700000</v>
       </c>
       <c r="D102" t="n">
-        <v>72910000</v>
+        <v>79987000</v>
       </c>
       <c r="E102" t="n">
-        <v>73413000</v>
+        <v>80857000</v>
       </c>
       <c r="F102" t="n">
-        <v>6019.3726361</v>
+        <v>9216.26072135</v>
       </c>
       <c r="G102" t="n">
-        <v>443974248919.1151</v>
+        <v>749642408219.2787</v>
       </c>
       <c r="H102" t="n">
-        <v>919000</v>
+        <v>1356500</v>
       </c>
       <c r="I102" t="n">
-        <v>75932500</v>
+        <v>83928000</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>1.297780303154931</v>
+        <v>1.27654162641242</v>
       </c>
       <c r="L102" t="n">
-        <v>1.372529962981369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44500.375</v>
+        <v>44510.375</v>
       </c>
       <c r="B103" t="n">
-        <v>73428000</v>
+        <v>80813000</v>
       </c>
       <c r="C103" t="n">
-        <v>74502000</v>
+        <v>82520000</v>
       </c>
       <c r="D103" t="n">
-        <v>71551000</v>
+        <v>78510000</v>
       </c>
       <c r="E103" t="n">
-        <v>72391000</v>
+        <v>79660000</v>
       </c>
       <c r="F103" t="n">
-        <v>7515.24771978</v>
+        <v>13173.31625594</v>
       </c>
       <c r="G103" t="n">
-        <v>547624687479.1433</v>
+        <v>1059561087264.041</v>
       </c>
       <c r="H103" t="n">
-        <v>1475500</v>
+        <v>2005000</v>
       </c>
       <c r="I103" t="n">
-        <v>74347000</v>
+        <v>82169500</v>
       </c>
       <c r="J103" t="n">
-        <v>0.9736909357472393</v>
+        <v>0.9694594709715892</v>
       </c>
       <c r="K103" t="n">
-        <v>1.26363691777326</v>
+        <v>1.237555369814996</v>
       </c>
       <c r="L103" t="n">
-        <v>3.967326409272527</v>
+        <v>3.054052902841083</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44501.375</v>
+        <v>44511.375</v>
       </c>
       <c r="B104" t="n">
-        <v>72325000</v>
+        <v>79663000</v>
       </c>
       <c r="C104" t="n">
-        <v>73928000</v>
+        <v>79732000</v>
       </c>
       <c r="D104" t="n">
-        <v>71003000</v>
+        <v>78543000</v>
       </c>
       <c r="E104" t="n">
-        <v>72401000</v>
+        <v>78917000</v>
       </c>
       <c r="F104" t="n">
-        <v>6319.81024636</v>
+        <v>7167.44682984</v>
       </c>
       <c r="G104" t="n">
-        <v>459799779805.7788</v>
+        <v>566786888469.356</v>
       </c>
       <c r="H104" t="n">
-        <v>1462500</v>
+        <v>594500</v>
       </c>
       <c r="I104" t="n">
-        <v>73800500</v>
+        <v>81668000</v>
       </c>
       <c r="J104" t="n">
-        <v>0.9810367138434022</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>1.239674209303485</v>
+        <v>1.237555369814996</v>
       </c>
       <c r="L104" t="n">
-        <v>5.788421478956642</v>
+        <v>3.054052902841083</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44502.375</v>
+        <v>44512.375</v>
       </c>
       <c r="B105" t="n">
-        <v>72402000</v>
+        <v>78938000</v>
       </c>
       <c r="C105" t="n">
-        <v>75590000</v>
+        <v>79100000</v>
       </c>
       <c r="D105" t="n">
-        <v>72031000</v>
+        <v>76712000</v>
       </c>
       <c r="E105" t="n">
-        <v>74150000</v>
+        <v>78165000</v>
       </c>
       <c r="F105" t="n">
-        <v>7684.60605039</v>
+        <v>7117.16534788</v>
       </c>
       <c r="G105" t="n">
-        <v>567138389401.7821</v>
+        <v>555556239586.2133</v>
       </c>
       <c r="H105" t="n">
-        <v>1779500</v>
+        <v>1194000</v>
       </c>
       <c r="I105" t="n">
-        <v>73864500</v>
+        <v>79532500</v>
       </c>
       <c r="J105" t="n">
-        <v>1.003865185576292</v>
+        <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>1.244465780176585</v>
+        <v>1.237555369814996</v>
       </c>
       <c r="L105" t="n">
-        <v>5.424276244537439</v>
+        <v>3.054052902841083</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44503.375</v>
+        <v>44513.375</v>
       </c>
       <c r="B106" t="n">
-        <v>74106000</v>
+        <v>78165000</v>
       </c>
       <c r="C106" t="n">
-        <v>75141000</v>
+        <v>78770000</v>
       </c>
       <c r="D106" t="n">
-        <v>72500000</v>
+        <v>77120000</v>
       </c>
       <c r="E106" t="n">
-        <v>74600000</v>
+        <v>77867000</v>
       </c>
       <c r="F106" t="n">
-        <v>7931.12310979</v>
+        <v>4350.10453278</v>
       </c>
       <c r="G106" t="n">
-        <v>586147364013.1627</v>
+        <v>338562919987.8282</v>
       </c>
       <c r="H106" t="n">
-        <v>1320500</v>
+        <v>825000</v>
       </c>
       <c r="I106" t="n">
-        <v>75885500</v>
+        <v>79359000</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>1.244465780176585</v>
+        <v>1.237555369814996</v>
       </c>
       <c r="L106" t="n">
-        <v>5.424276244537439</v>
+        <v>3.054052902841083</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44504.375</v>
+        <v>44514.375</v>
       </c>
       <c r="B107" t="n">
-        <v>74607000</v>
+        <v>77867000</v>
       </c>
       <c r="C107" t="n">
-        <v>74880000</v>
+        <v>79350000</v>
       </c>
       <c r="D107" t="n">
-        <v>73480000</v>
+        <v>77579000</v>
       </c>
       <c r="E107" t="n">
-        <v>73807000</v>
+        <v>79310000</v>
       </c>
       <c r="F107" t="n">
-        <v>5757.70198775</v>
+        <v>3826.41658753</v>
       </c>
       <c r="G107" t="n">
-        <v>426469535512.6226</v>
+        <v>300107299012.1013</v>
       </c>
       <c r="H107" t="n">
-        <v>700000</v>
+        <v>885500</v>
       </c>
       <c r="I107" t="n">
-        <v>75927500</v>
+        <v>78692000</v>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>1.007853403141361</v>
       </c>
       <c r="K107" t="n">
-        <v>1.244465780176585</v>
+        <v>1.24727439104391</v>
       </c>
       <c r="L107" t="n">
-        <v>5.424276244537439</v>
+        <v>2.292697297366016</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44505.375</v>
+        <v>44515.375</v>
       </c>
       <c r="B108" t="n">
-        <v>73807000</v>
+        <v>79323000</v>
       </c>
       <c r="C108" t="n">
-        <v>75000000</v>
+        <v>80250000</v>
       </c>
       <c r="D108" t="n">
-        <v>73490000</v>
+        <v>77330000</v>
       </c>
       <c r="E108" t="n">
-        <v>74121000</v>
+        <v>77602000</v>
       </c>
       <c r="F108" t="n">
-        <v>5520.4236536</v>
+        <v>6972.54522621</v>
       </c>
       <c r="G108" t="n">
-        <v>410709736765.9962</v>
+        <v>550661898860.9288</v>
       </c>
       <c r="H108" t="n">
-        <v>755000</v>
+        <v>1460000</v>
       </c>
       <c r="I108" t="n">
-        <v>74507000</v>
+        <v>80208500</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9948192787254889</v>
+        <v>0.9675034441486875</v>
       </c>
       <c r="K108" t="n">
-        <v>1.238018549833823</v>
+        <v>1.20674226913344</v>
       </c>
       <c r="L108" t="n">
-        <v>5.914246708649645</v>
+        <v>5.467848116723255</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44506.375</v>
+        <v>44516.375</v>
       </c>
       <c r="B109" t="n">
-        <v>74092000</v>
+        <v>77600000</v>
       </c>
       <c r="C109" t="n">
-        <v>74649000</v>
+        <v>77602000</v>
       </c>
       <c r="D109" t="n">
-        <v>73800000</v>
+        <v>73325000</v>
       </c>
       <c r="E109" t="n">
-        <v>74575000</v>
+        <v>73897000</v>
       </c>
       <c r="F109" t="n">
-        <v>3742.0767138</v>
+        <v>12978.65608121</v>
       </c>
       <c r="G109" t="n">
-        <v>277629666879.828</v>
+        <v>972845801082.5905</v>
       </c>
       <c r="H109" t="n">
-        <v>424500</v>
+        <v>2138500</v>
       </c>
       <c r="I109" t="n">
-        <v>74847000</v>
+        <v>79060000</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>1.238018549833823</v>
+        <v>1.20674226913344</v>
       </c>
       <c r="L109" t="n">
-        <v>5.914246708649645</v>
+        <v>5.467848116723255</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44507.375</v>
+        <v>44517.375</v>
       </c>
       <c r="B110" t="n">
-        <v>74576000</v>
+        <v>73897000</v>
       </c>
       <c r="C110" t="n">
-        <v>76700000</v>
+        <v>74712000</v>
       </c>
       <c r="D110" t="n">
-        <v>74481000</v>
+        <v>72000000</v>
       </c>
       <c r="E110" t="n">
-        <v>76536000</v>
+        <v>73935000</v>
       </c>
       <c r="F110" t="n">
-        <v>4447.00986585</v>
+        <v>9918.31995415</v>
       </c>
       <c r="G110" t="n">
-        <v>335634172962.1655</v>
+        <v>727534439444.1946</v>
       </c>
       <c r="H110" t="n">
-        <v>1109500</v>
+        <v>1356000</v>
       </c>
       <c r="I110" t="n">
-        <v>75000500</v>
+        <v>76035500</v>
       </c>
       <c r="J110" t="n">
-        <v>1.020473196845354</v>
+        <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>1.263364747302772</v>
+        <v>1.20674226913344</v>
       </c>
       <c r="L110" t="n">
-        <v>3.98801056117237</v>
+        <v>5.467848116723255</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44508.375</v>
+        <v>44518.375</v>
       </c>
       <c r="B111" t="n">
-        <v>76649000</v>
+        <v>73941000</v>
       </c>
       <c r="C111" t="n">
-        <v>81586000</v>
+        <v>74494000</v>
       </c>
       <c r="D111" t="n">
-        <v>76534000</v>
+        <v>70000000</v>
       </c>
       <c r="E111" t="n">
-        <v>81403000</v>
+        <v>70611000</v>
       </c>
       <c r="F111" t="n">
-        <v>9132.13666783</v>
+        <v>15304.60880992</v>
       </c>
       <c r="G111" t="n">
-        <v>726433660922.1797</v>
+        <v>1116607005545.374</v>
       </c>
       <c r="H111" t="n">
-        <v>2526000</v>
+        <v>2247000</v>
       </c>
       <c r="I111" t="n">
-        <v>77758500</v>
+        <v>75297000</v>
       </c>
       <c r="J111" t="n">
-        <v>1.046869474076789</v>
+        <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>1.322577988576008</v>
+        <v>1.20674226913344</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>5.467848116723255</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44509.375</v>
+        <v>44519.375</v>
       </c>
       <c r="B112" t="n">
-        <v>81402000</v>
+        <v>70602000</v>
       </c>
       <c r="C112" t="n">
-        <v>82700000</v>
+        <v>72376000</v>
       </c>
       <c r="D112" t="n">
-        <v>79987000</v>
+        <v>69150000</v>
       </c>
       <c r="E112" t="n">
-        <v>80857000</v>
+        <v>71813000</v>
       </c>
       <c r="F112" t="n">
-        <v>9216.26072135</v>
+        <v>9106.098541290001</v>
       </c>
       <c r="G112" t="n">
-        <v>749642408219.2787</v>
+        <v>644660277293.9285</v>
       </c>
       <c r="H112" t="n">
-        <v>1356500</v>
+        <v>1613000</v>
       </c>
       <c r="I112" t="n">
-        <v>83928000</v>
+        <v>72849000</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>1.322577988576008</v>
+        <v>1.20674226913344</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>5.467848116723255</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44510.375</v>
+        <v>44520.375</v>
       </c>
       <c r="B113" t="n">
-        <v>80813000</v>
+        <v>71813000</v>
       </c>
       <c r="C113" t="n">
-        <v>82520000</v>
+        <v>74090000</v>
       </c>
       <c r="D113" t="n">
-        <v>78510000</v>
+        <v>71500000</v>
       </c>
       <c r="E113" t="n">
-        <v>79660000</v>
+        <v>73669000</v>
       </c>
       <c r="F113" t="n">
-        <v>13173.31625594</v>
+        <v>5649.73412587</v>
       </c>
       <c r="G113" t="n">
-        <v>1059561087264.041</v>
+        <v>410541726042.7906</v>
       </c>
       <c r="H113" t="n">
-        <v>2005000</v>
+        <v>1295000</v>
       </c>
       <c r="I113" t="n">
-        <v>82169500</v>
+        <v>73426000</v>
       </c>
       <c r="J113" t="n">
-        <v>0.9694594709715892</v>
+        <v>1.003309454416692</v>
       </c>
       <c r="K113" t="n">
-        <v>1.282185757123565</v>
+        <v>1.210735927665832</v>
       </c>
       <c r="L113" t="n">
-        <v>3.054052902841081</v>
+        <v>5.154998269153785</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44511.375</v>
+        <v>44521.375</v>
       </c>
       <c r="B114" t="n">
-        <v>79663000</v>
+        <v>73669000</v>
       </c>
       <c r="C114" t="n">
-        <v>79732000</v>
+        <v>74200000</v>
       </c>
       <c r="D114" t="n">
-        <v>78543000</v>
+        <v>72695000</v>
       </c>
       <c r="E114" t="n">
-        <v>78917000</v>
+        <v>73047000</v>
       </c>
       <c r="F114" t="n">
-        <v>7167.44682984</v>
+        <v>4787.87666179</v>
       </c>
       <c r="G114" t="n">
-        <v>566786888469.356</v>
+        <v>350690458560.5229</v>
       </c>
       <c r="H114" t="n">
-        <v>594500</v>
+        <v>752500</v>
       </c>
       <c r="I114" t="n">
-        <v>81668000</v>
+        <v>74964000</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
       </c>
       <c r="K114" t="n">
-        <v>1.282185757123565</v>
+        <v>1.210735927665832</v>
       </c>
       <c r="L114" t="n">
-        <v>3.054052902841081</v>
+        <v>5.154998269153785</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44512.375</v>
+        <v>44522.375</v>
       </c>
       <c r="B115" t="n">
-        <v>78938000</v>
+        <v>73096000</v>
       </c>
       <c r="C115" t="n">
-        <v>79100000</v>
+        <v>73498000</v>
       </c>
       <c r="D115" t="n">
-        <v>76712000</v>
+        <v>70285000</v>
       </c>
       <c r="E115" t="n">
-        <v>78165000</v>
+        <v>70589000</v>
       </c>
       <c r="F115" t="n">
-        <v>7117.16534788</v>
+        <v>7714.84906712</v>
       </c>
       <c r="G115" t="n">
-        <v>555556239586.2133</v>
+        <v>553218859712.912</v>
       </c>
       <c r="H115" t="n">
-        <v>1194000</v>
+        <v>1606500</v>
       </c>
       <c r="I115" t="n">
-        <v>79532500</v>
+        <v>73848500</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>1.282185757123565</v>
+        <v>1.210735927665832</v>
       </c>
       <c r="L115" t="n">
-        <v>3.054052902841081</v>
+        <v>5.154998269153785</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44513.375</v>
+        <v>44523.375</v>
       </c>
       <c r="B116" t="n">
-        <v>78165000</v>
+        <v>70589000</v>
       </c>
       <c r="C116" t="n">
-        <v>78770000</v>
+        <v>72200000</v>
       </c>
       <c r="D116" t="n">
-        <v>77120000</v>
+        <v>69556000</v>
       </c>
       <c r="E116" t="n">
-        <v>77867000</v>
+        <v>71802000</v>
       </c>
       <c r="F116" t="n">
-        <v>4350.10453278</v>
+        <v>8493.899797350001</v>
       </c>
       <c r="G116" t="n">
-        <v>338562919987.8282</v>
+        <v>602133383999.3546</v>
       </c>
       <c r="H116" t="n">
-        <v>825000</v>
+        <v>1322000</v>
       </c>
       <c r="I116" t="n">
-        <v>79359000</v>
+        <v>72195500</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>0.9945495217845988</v>
       </c>
       <c r="K116" t="n">
-        <v>1.282185757123565</v>
+        <v>1.204136837867486</v>
       </c>
       <c r="L116" t="n">
-        <v>3.054052902841081</v>
+        <v>5.671948884927447</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44514.375</v>
+        <v>44524.375</v>
       </c>
       <c r="B117" t="n">
-        <v>77867000</v>
+        <v>71726000</v>
       </c>
       <c r="C117" t="n">
-        <v>79350000</v>
+        <v>72300000</v>
       </c>
       <c r="D117" t="n">
-        <v>77579000</v>
+        <v>70265000</v>
       </c>
       <c r="E117" t="n">
-        <v>79310000</v>
+        <v>71680000</v>
       </c>
       <c r="F117" t="n">
-        <v>3826.41658753</v>
+        <v>6609.91155089</v>
       </c>
       <c r="G117" t="n">
-        <v>300107299012.1013</v>
+        <v>468511820298.0944</v>
       </c>
       <c r="H117" t="n">
-        <v>885500</v>
+        <v>1017500</v>
       </c>
       <c r="I117" t="n">
-        <v>78692000</v>
+        <v>73048000</v>
       </c>
       <c r="J117" t="n">
-        <v>1.007853403141361</v>
+        <v>1</v>
       </c>
       <c r="K117" t="n">
-        <v>1.292255278776368</v>
+        <v>1.204136837867486</v>
       </c>
       <c r="L117" t="n">
-        <v>2.292697297366014</v>
+        <v>5.671948884927447</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44515.375</v>
+        <v>44525.375</v>
       </c>
       <c r="B118" t="n">
-        <v>79323000</v>
+        <v>71689000</v>
       </c>
       <c r="C118" t="n">
-        <v>80250000</v>
+        <v>74136000</v>
       </c>
       <c r="D118" t="n">
-        <v>77330000</v>
+        <v>71220000</v>
       </c>
       <c r="E118" t="n">
-        <v>77602000</v>
+        <v>73171000</v>
       </c>
       <c r="F118" t="n">
-        <v>6972.54522621</v>
+        <v>9049.17474463</v>
       </c>
       <c r="G118" t="n">
-        <v>550661898860.9288</v>
+        <v>658196555146.7008</v>
       </c>
       <c r="H118" t="n">
-        <v>1460000</v>
+        <v>1458000</v>
       </c>
       <c r="I118" t="n">
-        <v>80208500</v>
+        <v>72706500</v>
       </c>
       <c r="J118" t="n">
-        <v>0.9675034441486875</v>
+        <v>1.006388699772373</v>
       </c>
       <c r="K118" t="n">
-        <v>1.250261432935458</v>
+        <v>1.211829706609475</v>
       </c>
       <c r="L118" t="n">
-        <v>5.46784811672326</v>
+        <v>5.06931528624023</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44516.375</v>
+        <v>44526.375</v>
       </c>
       <c r="B119" t="n">
-        <v>77600000</v>
+        <v>73160000</v>
       </c>
       <c r="C119" t="n">
-        <v>77602000</v>
+        <v>73567000</v>
       </c>
       <c r="D119" t="n">
-        <v>73325000</v>
+        <v>68089000</v>
       </c>
       <c r="E119" t="n">
-        <v>73897000</v>
+        <v>68549000</v>
       </c>
       <c r="F119" t="n">
-        <v>12978.65608121</v>
+        <v>12468.28912157</v>
       </c>
       <c r="G119" t="n">
-        <v>972845801082.5905</v>
+        <v>883496099720.3064</v>
       </c>
       <c r="H119" t="n">
-        <v>2138500</v>
+        <v>2739000</v>
       </c>
       <c r="I119" t="n">
-        <v>79060000</v>
+        <v>74618000</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
       </c>
       <c r="K119" t="n">
-        <v>1.250261432935458</v>
+        <v>1.211829706609475</v>
       </c>
       <c r="L119" t="n">
-        <v>5.46784811672326</v>
+        <v>5.06931528624023</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44517.375</v>
+        <v>44527.375</v>
       </c>
       <c r="B120" t="n">
-        <v>73897000</v>
+        <v>68550000</v>
       </c>
       <c r="C120" t="n">
-        <v>74712000</v>
+        <v>70276000</v>
       </c>
       <c r="D120" t="n">
-        <v>72000000</v>
+        <v>68140000</v>
       </c>
       <c r="E120" t="n">
-        <v>73935000</v>
+        <v>70039000</v>
       </c>
       <c r="F120" t="n">
-        <v>9918.31995415</v>
+        <v>4865.73785339</v>
       </c>
       <c r="G120" t="n">
-        <v>727534439444.1946</v>
+        <v>338381741544.1163</v>
       </c>
       <c r="H120" t="n">
-        <v>1356000</v>
+        <v>1068000</v>
       </c>
       <c r="I120" t="n">
-        <v>76035500</v>
+        <v>71289000</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>1.250261432935458</v>
+        <v>1.211829706609475</v>
       </c>
       <c r="L120" t="n">
-        <v>5.46784811672326</v>
+        <v>5.06931528624023</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44518.375</v>
+        <v>44528.375</v>
       </c>
       <c r="B121" t="n">
-        <v>73941000</v>
+        <v>70039000</v>
       </c>
       <c r="C121" t="n">
-        <v>74494000</v>
+        <v>72691000</v>
       </c>
       <c r="D121" t="n">
-        <v>70000000</v>
+        <v>68607000</v>
       </c>
       <c r="E121" t="n">
-        <v>70611000</v>
+        <v>72303000</v>
       </c>
       <c r="F121" t="n">
-        <v>15304.60880992</v>
+        <v>5439.53030356</v>
       </c>
       <c r="G121" t="n">
-        <v>1116607005545.374</v>
+        <v>380943799247.1356</v>
       </c>
       <c r="H121" t="n">
-        <v>2247000</v>
+        <v>2042000</v>
       </c>
       <c r="I121" t="n">
-        <v>75297000</v>
+        <v>71107000</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>1.016819722390201</v>
       </c>
       <c r="K121" t="n">
-        <v>1.250261432935458</v>
+        <v>1.232212345858845</v>
       </c>
       <c r="L121" t="n">
-        <v>5.46784811672326</v>
+        <v>3.472607523043118</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44519.375</v>
+        <v>44529.375</v>
       </c>
       <c r="B122" t="n">
-        <v>70602000</v>
+        <v>72255000</v>
       </c>
       <c r="C122" t="n">
-        <v>72376000</v>
+        <v>73166000</v>
       </c>
       <c r="D122" t="n">
-        <v>69150000</v>
+        <v>71298000</v>
       </c>
       <c r="E122" t="n">
-        <v>71813000</v>
+        <v>72240000</v>
       </c>
       <c r="F122" t="n">
-        <v>9106.098541290001</v>
+        <v>5965.74542692</v>
       </c>
       <c r="G122" t="n">
-        <v>644660277293.9285</v>
+        <v>431249801809.792</v>
       </c>
       <c r="H122" t="n">
-        <v>1613000</v>
+        <v>934000</v>
       </c>
       <c r="I122" t="n">
-        <v>72849000</v>
+        <v>74297000</v>
       </c>
       <c r="J122" t="n">
         <v>1</v>
       </c>
       <c r="K122" t="n">
-        <v>1.250261432935458</v>
+        <v>1.232212345858845</v>
       </c>
       <c r="L122" t="n">
-        <v>5.46784811672326</v>
+        <v>3.472607523043118</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44520.375</v>
+        <v>44530.375</v>
       </c>
       <c r="B123" t="n">
-        <v>71813000</v>
+        <v>72241000</v>
       </c>
       <c r="C123" t="n">
-        <v>74090000</v>
+        <v>73300000</v>
       </c>
       <c r="D123" t="n">
-        <v>71500000</v>
+        <v>70000000</v>
       </c>
       <c r="E123" t="n">
-        <v>73669000</v>
+        <v>70702000</v>
       </c>
       <c r="F123" t="n">
-        <v>5649.73412587</v>
+        <v>8717.7658615</v>
       </c>
       <c r="G123" t="n">
-        <v>410541726042.7906</v>
+        <v>623384585488.2554</v>
       </c>
       <c r="H123" t="n">
-        <v>1295000</v>
+        <v>1650000</v>
       </c>
       <c r="I123" t="n">
-        <v>73426000</v>
+        <v>73175000</v>
       </c>
       <c r="J123" t="n">
-        <v>1.003309454416692</v>
+        <v>0.9662043047488896</v>
       </c>
       <c r="K123" t="n">
-        <v>1.254399116156706</v>
+        <v>1.190568872933544</v>
       </c>
       <c r="L123" t="n">
-        <v>5.154998269153789</v>
+        <v>6.734817862578669</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44521.375</v>
+        <v>44531.375</v>
       </c>
       <c r="B124" t="n">
-        <v>73669000</v>
+        <v>70771000</v>
       </c>
       <c r="C124" t="n">
-        <v>74200000</v>
+        <v>72850000</v>
       </c>
       <c r="D124" t="n">
-        <v>72695000</v>
+        <v>70500000</v>
       </c>
       <c r="E124" t="n">
-        <v>73047000</v>
+        <v>70936000</v>
       </c>
       <c r="F124" t="n">
-        <v>4787.87666179</v>
+        <v>7443.52963772</v>
       </c>
       <c r="G124" t="n">
-        <v>350690458560.5229</v>
+        <v>529661740005.6198</v>
       </c>
       <c r="H124" t="n">
-        <v>752500</v>
+        <v>1175000</v>
       </c>
       <c r="I124" t="n">
-        <v>74964000</v>
+        <v>72421000</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>0.9794948978887339</v>
       </c>
       <c r="K124" t="n">
-        <v>1.254399116156706</v>
+        <v>1.166156136623546</v>
       </c>
       <c r="L124" t="n">
-        <v>5.154998269153789</v>
+        <v>8.647229945732324</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44522.375</v>
+        <v>44532.375</v>
       </c>
       <c r="B125" t="n">
-        <v>73096000</v>
+        <v>70936000</v>
       </c>
       <c r="C125" t="n">
-        <v>73498000</v>
+        <v>71500000</v>
       </c>
       <c r="D125" t="n">
-        <v>70285000</v>
+        <v>69958000</v>
       </c>
       <c r="E125" t="n">
-        <v>70589000</v>
+        <v>70539000</v>
       </c>
       <c r="F125" t="n">
-        <v>7714.84906712</v>
+        <v>10208.00313323</v>
       </c>
       <c r="G125" t="n">
-        <v>553218859712.912</v>
+        <v>719755308272.1974</v>
       </c>
       <c r="H125" t="n">
-        <v>1606500</v>
+        <v>771000</v>
       </c>
       <c r="I125" t="n">
-        <v>73848500</v>
+        <v>72111000</v>
       </c>
       <c r="J125" t="n">
         <v>1</v>
       </c>
       <c r="K125" t="n">
-        <v>1.254399116156706</v>
+        <v>1.166156136623546</v>
       </c>
       <c r="L125" t="n">
-        <v>5.154998269153789</v>
+        <v>8.647229945732324</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44523.375</v>
+        <v>44533.375</v>
       </c>
       <c r="B126" t="n">
-        <v>70589000</v>
+        <v>70563000</v>
       </c>
       <c r="C126" t="n">
-        <v>72200000</v>
+        <v>71189000</v>
       </c>
       <c r="D126" t="n">
-        <v>69556000</v>
+        <v>67034000</v>
       </c>
       <c r="E126" t="n">
-        <v>71802000</v>
+        <v>68053000</v>
       </c>
       <c r="F126" t="n">
-        <v>8493.899797350001</v>
+        <v>15061.77754449</v>
       </c>
       <c r="G126" t="n">
-        <v>602133383999.3546</v>
+        <v>1053599225982.528</v>
       </c>
       <c r="H126" t="n">
-        <v>1322000</v>
+        <v>2077500</v>
       </c>
       <c r="I126" t="n">
-        <v>72195500</v>
+        <v>71334000</v>
       </c>
       <c r="J126" t="n">
-        <v>0.9945495217845988</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>1.247562041100675</v>
+        <v>1.166156136623546</v>
       </c>
       <c r="L126" t="n">
-        <v>5.671948884927461</v>
+        <v>8.647229945732324</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44524.375</v>
+        <v>44534.375</v>
       </c>
       <c r="B127" t="n">
-        <v>71726000</v>
+        <v>68068000</v>
       </c>
       <c r="C127" t="n">
-        <v>72300000</v>
+        <v>68191000</v>
       </c>
       <c r="D127" t="n">
-        <v>70265000</v>
+        <v>56000000</v>
       </c>
       <c r="E127" t="n">
-        <v>71680000</v>
+        <v>62206000</v>
       </c>
       <c r="F127" t="n">
-        <v>6609.91155089</v>
+        <v>28348.95914312</v>
       </c>
       <c r="G127" t="n">
-        <v>468511820298.0944</v>
+        <v>1757512901445.48</v>
       </c>
       <c r="H127" t="n">
-        <v>1017500</v>
+        <v>6095500</v>
       </c>
       <c r="I127" t="n">
-        <v>73048000</v>
+        <v>70145500</v>
       </c>
       <c r="J127" t="n">
         <v>1</v>
       </c>
       <c r="K127" t="n">
-        <v>1.247562041100675</v>
+        <v>1.166156136623546</v>
       </c>
       <c r="L127" t="n">
-        <v>5.671948884927461</v>
+        <v>8.647229945732324</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44525.375</v>
+        <v>44535.375</v>
       </c>
       <c r="B128" t="n">
-        <v>71689000</v>
+        <v>62178000</v>
       </c>
       <c r="C128" t="n">
-        <v>74136000</v>
+        <v>63297000</v>
       </c>
       <c r="D128" t="n">
-        <v>71220000</v>
+        <v>59685000</v>
       </c>
       <c r="E128" t="n">
-        <v>73171000</v>
+        <v>61877000</v>
       </c>
       <c r="F128" t="n">
-        <v>9049.17474463</v>
+        <v>12124.69394126</v>
       </c>
       <c r="G128" t="n">
-        <v>658196555146.7008</v>
+        <v>749188784836.934</v>
       </c>
       <c r="H128" t="n">
-        <v>1458000</v>
+        <v>1806000</v>
       </c>
       <c r="I128" t="n">
-        <v>72706500</v>
+        <v>68273500</v>
       </c>
       <c r="J128" t="n">
-        <v>1.006388699772373</v>
+        <v>1</v>
       </c>
       <c r="K128" t="n">
-        <v>1.255532340428675</v>
+        <v>1.166156136623546</v>
       </c>
       <c r="L128" t="n">
-        <v>5.069315286240258</v>
+        <v>8.647229945732324</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44526.375</v>
+        <v>44536.375</v>
       </c>
       <c r="B129" t="n">
-        <v>73160000</v>
+        <v>61877000</v>
       </c>
       <c r="C129" t="n">
-        <v>73567000</v>
+        <v>63103000</v>
       </c>
       <c r="D129" t="n">
-        <v>68089000</v>
+        <v>59016000</v>
       </c>
       <c r="E129" t="n">
-        <v>68549000</v>
+        <v>62626000</v>
       </c>
       <c r="F129" t="n">
-        <v>12468.28912157</v>
+        <v>11591.24846455</v>
       </c>
       <c r="G129" t="n">
-        <v>883496099720.3064</v>
+        <v>703577992750.9301</v>
       </c>
       <c r="H129" t="n">
-        <v>2739000</v>
+        <v>2043500</v>
       </c>
       <c r="I129" t="n">
-        <v>74618000</v>
+        <v>63683000</v>
       </c>
       <c r="J129" t="n">
         <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>1.255532340428675</v>
+        <v>1.166156136623546</v>
       </c>
       <c r="L129" t="n">
-        <v>5.069315286240258</v>
+        <v>8.647229945732324</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44527.375</v>
+        <v>44537.375</v>
       </c>
       <c r="B130" t="n">
-        <v>68550000</v>
+        <v>62632000</v>
       </c>
       <c r="C130" t="n">
-        <v>70276000</v>
+        <v>64120000</v>
       </c>
       <c r="D130" t="n">
-        <v>68140000</v>
+        <v>62316000</v>
       </c>
       <c r="E130" t="n">
-        <v>70039000</v>
+        <v>63204000</v>
       </c>
       <c r="F130" t="n">
-        <v>4865.73785339</v>
+        <v>8054.47784621</v>
       </c>
       <c r="G130" t="n">
-        <v>338381741544.1163</v>
+        <v>509439926577.6897</v>
       </c>
       <c r="H130" t="n">
-        <v>1068000</v>
+        <v>902000</v>
       </c>
       <c r="I130" t="n">
-        <v>71289000</v>
+        <v>64675500</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>1.255532340428675</v>
+        <v>1.166156136623546</v>
       </c>
       <c r="L130" t="n">
-        <v>5.069315286240258</v>
+        <v>8.647229945732324</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44528.375</v>
+        <v>44538.375</v>
       </c>
       <c r="B131" t="n">
-        <v>70039000</v>
+        <v>63205000</v>
       </c>
       <c r="C131" t="n">
-        <v>72691000</v>
+        <v>63450000</v>
       </c>
       <c r="D131" t="n">
-        <v>68607000</v>
+        <v>60500000</v>
       </c>
       <c r="E131" t="n">
-        <v>72303000</v>
+        <v>62217000</v>
       </c>
       <c r="F131" t="n">
-        <v>5439.53030356</v>
+        <v>7423.34923321</v>
       </c>
       <c r="G131" t="n">
-        <v>380943799247.1356</v>
+        <v>462084243427.4263</v>
       </c>
       <c r="H131" t="n">
-        <v>2042000</v>
+        <v>1475000</v>
       </c>
       <c r="I131" t="n">
-        <v>71107000</v>
+        <v>64107000</v>
       </c>
       <c r="J131" t="n">
-        <v>1.016819722390201</v>
+        <v>1</v>
       </c>
       <c r="K131" t="n">
-        <v>1.276650045846605</v>
+        <v>1.166156136623546</v>
       </c>
       <c r="L131" t="n">
-        <v>3.472607523043153</v>
+        <v>8.647229945732324</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44529.375</v>
+        <v>44539.375</v>
       </c>
       <c r="B132" t="n">
-        <v>72255000</v>
+        <v>62217000</v>
       </c>
       <c r="C132" t="n">
-        <v>73166000</v>
+        <v>62499000</v>
       </c>
       <c r="D132" t="n">
-        <v>71298000</v>
+        <v>59200000</v>
       </c>
       <c r="E132" t="n">
-        <v>72240000</v>
+        <v>59425000</v>
       </c>
       <c r="F132" t="n">
-        <v>5965.74542692</v>
+        <v>6985.12525942</v>
       </c>
       <c r="G132" t="n">
-        <v>431249801809.792</v>
+        <v>425034996310.3946</v>
       </c>
       <c r="H132" t="n">
-        <v>934000</v>
+        <v>1649500</v>
       </c>
       <c r="I132" t="n">
-        <v>74297000</v>
+        <v>63692000</v>
       </c>
       <c r="J132" t="n">
         <v>1</v>
       </c>
       <c r="K132" t="n">
-        <v>1.276650045846605</v>
+        <v>1.166156136623546</v>
       </c>
       <c r="L132" t="n">
-        <v>3.472607523043153</v>
+        <v>8.647229945732324</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44530.375</v>
+        <v>44540.375</v>
       </c>
       <c r="B133" t="n">
-        <v>72241000</v>
+        <v>59425000</v>
       </c>
       <c r="C133" t="n">
-        <v>73300000</v>
+        <v>61995000</v>
       </c>
       <c r="D133" t="n">
-        <v>70000000</v>
+        <v>59106000</v>
       </c>
       <c r="E133" t="n">
-        <v>70702000</v>
+        <v>59683000</v>
       </c>
       <c r="F133" t="n">
-        <v>8717.7658615</v>
+        <v>7746.32503472</v>
       </c>
       <c r="G133" t="n">
-        <v>623384585488.2554</v>
+        <v>466065446683.8481</v>
       </c>
       <c r="H133" t="n">
-        <v>1650000</v>
+        <v>1444500</v>
       </c>
       <c r="I133" t="n">
-        <v>73175000</v>
+        <v>61074500</v>
       </c>
       <c r="J133" t="n">
-        <v>0.9662043047488896</v>
+        <v>0.9772163505227223</v>
       </c>
       <c r="K133" t="n">
-        <v>1.233504769954857</v>
+        <v>1.139586843970939</v>
       </c>
       <c r="L133" t="n">
-        <v>6.734817862578707</v>
+        <v>10.72857943742711</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44531.375</v>
+        <v>44541.375</v>
       </c>
       <c r="B134" t="n">
-        <v>70771000</v>
+        <v>59749000</v>
       </c>
       <c r="C134" t="n">
-        <v>72850000</v>
+        <v>61538000</v>
       </c>
       <c r="D134" t="n">
-        <v>70500000</v>
+        <v>59500000</v>
       </c>
       <c r="E134" t="n">
-        <v>70936000</v>
+        <v>61427000</v>
       </c>
       <c r="F134" t="n">
-        <v>7443.52963772</v>
+        <v>3629.5367696</v>
       </c>
       <c r="G134" t="n">
-        <v>529661740005.6198</v>
+        <v>219745359643.6799</v>
       </c>
       <c r="H134" t="n">
-        <v>1175000</v>
+        <v>1019000</v>
       </c>
       <c r="I134" t="n">
-        <v>72421000</v>
+        <v>61193500</v>
       </c>
       <c r="J134" t="n">
-        <v>0.9794948978887339</v>
+        <v>1.003815764746256</v>
       </c>
       <c r="K134" t="n">
-        <v>1.208211628692198</v>
+        <v>1.14393523927546</v>
       </c>
       <c r="L134" t="n">
-        <v>8.64722994573237</v>
+        <v>10.38794069799628</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44532.375</v>
+        <v>44542.375</v>
       </c>
       <c r="B135" t="n">
-        <v>70936000</v>
+        <v>61414000</v>
       </c>
       <c r="C135" t="n">
-        <v>71500000</v>
+        <v>62887000</v>
       </c>
       <c r="D135" t="n">
-        <v>69958000</v>
+        <v>60904000</v>
       </c>
       <c r="E135" t="n">
-        <v>70539000</v>
+        <v>62049000</v>
       </c>
       <c r="F135" t="n">
-        <v>10208.00313323</v>
+        <v>3665.34563234</v>
       </c>
       <c r="G135" t="n">
-        <v>719755308272.1974</v>
+        <v>226239759072.2335</v>
       </c>
       <c r="H135" t="n">
-        <v>771000</v>
+        <v>991500</v>
       </c>
       <c r="I135" t="n">
-        <v>72111000</v>
+        <v>62433000</v>
       </c>
       <c r="J135" t="n">
-        <v>1</v>
+        <v>0.9938494065638365</v>
       </c>
       <c r="K135" t="n">
-        <v>1.208211628692198</v>
+        <v>1.136899358701376</v>
       </c>
       <c r="L135" t="n">
-        <v>8.64722994573237</v>
+        <v>10.93910804174028</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44533.375</v>
+        <v>44543.375</v>
       </c>
       <c r="B136" t="n">
-        <v>70563000</v>
+        <v>61995000</v>
       </c>
       <c r="C136" t="n">
-        <v>71189000</v>
+        <v>62190000</v>
       </c>
       <c r="D136" t="n">
-        <v>67034000</v>
+        <v>58158000</v>
       </c>
       <c r="E136" t="n">
-        <v>68053000</v>
+        <v>58626000</v>
       </c>
       <c r="F136" t="n">
-        <v>15061.77754449</v>
+        <v>7453.74091001</v>
       </c>
       <c r="G136" t="n">
-        <v>1053599225982.528</v>
+        <v>447420970311.1684</v>
       </c>
       <c r="H136" t="n">
-        <v>2077500</v>
+        <v>2016000</v>
       </c>
       <c r="I136" t="n">
-        <v>71334000</v>
+        <v>62986500</v>
       </c>
       <c r="J136" t="n">
         <v>1</v>
       </c>
       <c r="K136" t="n">
-        <v>1.208211628692198</v>
+        <v>1.136899358701376</v>
       </c>
       <c r="L136" t="n">
-        <v>8.64722994573237</v>
+        <v>10.93910804174028</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44534.375</v>
+        <v>44544.375</v>
       </c>
       <c r="B137" t="n">
-        <v>68068000</v>
+        <v>58626000</v>
       </c>
       <c r="C137" t="n">
-        <v>68191000</v>
+        <v>60150000</v>
       </c>
       <c r="D137" t="n">
-        <v>56000000</v>
+        <v>57347000</v>
       </c>
       <c r="E137" t="n">
-        <v>62206000</v>
+        <v>59930000</v>
       </c>
       <c r="F137" t="n">
-        <v>28348.95914312</v>
+        <v>7199.35776367</v>
       </c>
       <c r="G137" t="n">
-        <v>1757512901445.48</v>
+        <v>421930887129.1652</v>
       </c>
       <c r="H137" t="n">
-        <v>6095500</v>
+        <v>1401500</v>
       </c>
       <c r="I137" t="n">
-        <v>70145500</v>
+        <v>60642000</v>
       </c>
       <c r="J137" t="n">
         <v>1</v>
       </c>
       <c r="K137" t="n">
-        <v>1.208211628692198</v>
+        <v>1.136899358701376</v>
       </c>
       <c r="L137" t="n">
-        <v>8.64722994573237</v>
+        <v>10.93910804174028</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44535.375</v>
+        <v>44545.375</v>
       </c>
       <c r="B138" t="n">
-        <v>62178000</v>
+        <v>59909000</v>
       </c>
       <c r="C138" t="n">
-        <v>63297000</v>
+        <v>62150000</v>
       </c>
       <c r="D138" t="n">
-        <v>59685000</v>
+        <v>58055000</v>
       </c>
       <c r="E138" t="n">
-        <v>61877000</v>
+        <v>61198000</v>
       </c>
       <c r="F138" t="n">
-        <v>12124.69394126</v>
+        <v>10234.38988975</v>
       </c>
       <c r="G138" t="n">
-        <v>749188784836.934</v>
+        <v>614210066819.0795</v>
       </c>
       <c r="H138" t="n">
-        <v>1806000</v>
+        <v>2047500</v>
       </c>
       <c r="I138" t="n">
-        <v>68273500</v>
+        <v>61310500</v>
       </c>
       <c r="J138" t="n">
-        <v>1</v>
+        <v>0.9981650777599269</v>
       </c>
       <c r="K138" t="n">
-        <v>1.208211628692198</v>
+        <v>1.134813236783371</v>
       </c>
       <c r="L138" t="n">
-        <v>8.64722994573237</v>
+        <v>11.10252785311523</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44536.375</v>
+        <v>44546.375</v>
       </c>
       <c r="B139" t="n">
-        <v>61877000</v>
+        <v>61196000</v>
       </c>
       <c r="C139" t="n">
-        <v>63103000</v>
+        <v>61660000</v>
       </c>
       <c r="D139" t="n">
-        <v>59016000</v>
+        <v>59500000</v>
       </c>
       <c r="E139" t="n">
-        <v>62626000</v>
+        <v>59817000</v>
       </c>
       <c r="F139" t="n">
-        <v>11591.24846455</v>
+        <v>7807.69618658</v>
       </c>
       <c r="G139" t="n">
-        <v>703577992750.9301</v>
+        <v>473844929813.8312</v>
       </c>
       <c r="H139" t="n">
-        <v>2043500</v>
+        <v>1080000</v>
       </c>
       <c r="I139" t="n">
-        <v>63683000</v>
+        <v>63243500</v>
       </c>
       <c r="J139" t="n">
         <v>1</v>
       </c>
       <c r="K139" t="n">
-        <v>1.208211628692198</v>
+        <v>1.134813236783371</v>
       </c>
       <c r="L139" t="n">
-        <v>8.64722994573237</v>
+        <v>11.10252785311523</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44537.375</v>
+        <v>44547.375</v>
       </c>
       <c r="B140" t="n">
-        <v>62632000</v>
+        <v>59820000</v>
       </c>
       <c r="C140" t="n">
-        <v>64120000</v>
+        <v>60198000</v>
       </c>
       <c r="D140" t="n">
-        <v>62316000</v>
+        <v>57400000</v>
       </c>
       <c r="E140" t="n">
-        <v>63204000</v>
+        <v>58086000</v>
       </c>
       <c r="F140" t="n">
-        <v>8054.47784621</v>
+        <v>8991.83583337</v>
       </c>
       <c r="G140" t="n">
-        <v>509439926577.6897</v>
+        <v>529378851668.7005</v>
       </c>
       <c r="H140" t="n">
-        <v>902000</v>
+        <v>1399000</v>
       </c>
       <c r="I140" t="n">
-        <v>64675500</v>
+        <v>60900000</v>
       </c>
       <c r="J140" t="n">
         <v>1</v>
       </c>
       <c r="K140" t="n">
-        <v>1.208211628692198</v>
+        <v>1.134813236783371</v>
       </c>
       <c r="L140" t="n">
-        <v>8.64722994573237</v>
+        <v>11.10252785311523</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44538.375</v>
+        <v>44548.375</v>
       </c>
       <c r="B141" t="n">
-        <v>63205000</v>
+        <v>58110000</v>
       </c>
       <c r="C141" t="n">
-        <v>63450000</v>
+        <v>58867000</v>
       </c>
       <c r="D141" t="n">
-        <v>60500000</v>
+        <v>57207000</v>
       </c>
       <c r="E141" t="n">
-        <v>62217000</v>
+        <v>58402000</v>
       </c>
       <c r="F141" t="n">
-        <v>7423.34923321</v>
+        <v>5479.58391512</v>
       </c>
       <c r="G141" t="n">
-        <v>462084243427.4263</v>
+        <v>318308284131.8217</v>
       </c>
       <c r="H141" t="n">
-        <v>1475000</v>
+        <v>830000</v>
       </c>
       <c r="I141" t="n">
-        <v>64107000</v>
+        <v>59509000</v>
       </c>
       <c r="J141" t="n">
         <v>1</v>
       </c>
       <c r="K141" t="n">
-        <v>1.208211628692198</v>
+        <v>1.134813236783371</v>
       </c>
       <c r="L141" t="n">
-        <v>8.64722994573237</v>
+        <v>11.10252785311523</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44539.375</v>
+        <v>44549.375</v>
       </c>
       <c r="B142" t="n">
-        <v>62217000</v>
+        <v>58438000</v>
       </c>
       <c r="C142" t="n">
-        <v>62499000</v>
+        <v>59864000</v>
       </c>
       <c r="D142" t="n">
-        <v>59200000</v>
+        <v>58071000</v>
       </c>
       <c r="E142" t="n">
-        <v>59425000</v>
+        <v>58329000</v>
       </c>
       <c r="F142" t="n">
-        <v>6985.12525942</v>
+        <v>5945.75001586</v>
       </c>
       <c r="G142" t="n">
-        <v>425034996310.3946</v>
+        <v>349830141080.1031</v>
       </c>
       <c r="H142" t="n">
-        <v>1649500</v>
+        <v>896500</v>
       </c>
       <c r="I142" t="n">
-        <v>63692000</v>
+        <v>59268000</v>
       </c>
       <c r="J142" t="n">
-        <v>1</v>
+        <v>0.984156711884997</v>
       </c>
       <c r="K142" t="n">
-        <v>1.208211628692198</v>
+        <v>1.116834063716293</v>
       </c>
       <c r="L142" t="n">
-        <v>8.64722994573237</v>
+        <v>12.51095611703377</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44540.375</v>
+        <v>44550.375</v>
       </c>
       <c r="B143" t="n">
-        <v>59425000</v>
+        <v>58329000</v>
       </c>
       <c r="C143" t="n">
-        <v>61995000</v>
+        <v>58616000</v>
       </c>
       <c r="D143" t="n">
-        <v>59106000</v>
+        <v>56917000</v>
       </c>
       <c r="E143" t="n">
-        <v>59683000</v>
+        <v>58011000</v>
       </c>
       <c r="F143" t="n">
-        <v>7746.32503472</v>
+        <v>6685.60533352</v>
       </c>
       <c r="G143" t="n">
-        <v>466065446683.8481</v>
+        <v>385840635557.5586</v>
       </c>
       <c r="H143" t="n">
-        <v>1444500</v>
+        <v>849500</v>
       </c>
       <c r="I143" t="n">
-        <v>61074500</v>
+        <v>59225500</v>
       </c>
       <c r="J143" t="n">
-        <v>0.9772163505227223</v>
+        <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>1.180684158449705</v>
+        <v>1.116834063716293</v>
       </c>
       <c r="L143" t="n">
-        <v>10.72857943742716</v>
+        <v>12.51095611703377</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44541.375</v>
+        <v>44551.375</v>
       </c>
       <c r="B144" t="n">
-        <v>59749000</v>
+        <v>57980000</v>
       </c>
       <c r="C144" t="n">
-        <v>61538000</v>
+        <v>60650000</v>
       </c>
       <c r="D144" t="n">
-        <v>59500000</v>
+        <v>57500000</v>
       </c>
       <c r="E144" t="n">
-        <v>61427000</v>
+        <v>60023000</v>
       </c>
       <c r="F144" t="n">
-        <v>3629.5367696</v>
+        <v>6637.6709069</v>
       </c>
       <c r="G144" t="n">
-        <v>219745359643.6799</v>
+        <v>394352689438.5196</v>
       </c>
       <c r="H144" t="n">
-        <v>1019000</v>
+        <v>1575000</v>
       </c>
       <c r="I144" t="n">
-        <v>61193500</v>
+        <v>58829500</v>
       </c>
       <c r="J144" t="n">
-        <v>1.003815764746256</v>
+        <v>1.020287440824756</v>
       </c>
       <c r="K144" t="n">
-        <v>1.18518937143798</v>
+        <v>1.139491768695009</v>
       </c>
       <c r="L144" t="n">
-        <v>10.38794069799632</v>
+        <v>10.73602731644361</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44542.375</v>
+        <v>44552.375</v>
       </c>
       <c r="B145" t="n">
-        <v>61414000</v>
+        <v>60023000</v>
       </c>
       <c r="C145" t="n">
-        <v>62887000</v>
+        <v>60772000</v>
       </c>
       <c r="D145" t="n">
-        <v>60904000</v>
+        <v>59605000</v>
       </c>
       <c r="E145" t="n">
-        <v>62049000</v>
+        <v>59753000</v>
       </c>
       <c r="F145" t="n">
-        <v>3665.34563234</v>
+        <v>5773.9637448</v>
       </c>
       <c r="G145" t="n">
-        <v>226239759072.2335</v>
+        <v>347172202153.7813</v>
       </c>
       <c r="H145" t="n">
-        <v>991500</v>
+        <v>583500</v>
       </c>
       <c r="I145" t="n">
-        <v>62433000</v>
+        <v>61598000</v>
       </c>
       <c r="J145" t="n">
-        <v>0.9938494065638365</v>
+        <v>1</v>
       </c>
       <c r="K145" t="n">
-        <v>1.177899753469402</v>
+        <v>1.139491768695009</v>
       </c>
       <c r="L145" t="n">
-        <v>10.93910804174033</v>
+        <v>10.73602731644361</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44543.375</v>
+        <v>44553.375</v>
       </c>
       <c r="B146" t="n">
-        <v>61995000</v>
+        <v>59759000</v>
       </c>
       <c r="C146" t="n">
-        <v>62190000</v>
+        <v>61925000</v>
       </c>
       <c r="D146" t="n">
-        <v>58158000</v>
+        <v>59120000</v>
       </c>
       <c r="E146" t="n">
-        <v>58626000</v>
+        <v>61490000</v>
       </c>
       <c r="F146" t="n">
-        <v>7453.74091001</v>
+        <v>6471.52989474</v>
       </c>
       <c r="G146" t="n">
-        <v>447420970311.1684</v>
+        <v>389081707456.7215</v>
       </c>
       <c r="H146" t="n">
-        <v>2016000</v>
+        <v>1402500</v>
       </c>
       <c r="I146" t="n">
-        <v>62986500</v>
+        <v>60342500</v>
       </c>
       <c r="J146" t="n">
-        <v>1</v>
+        <v>1.019016447777271</v>
       </c>
       <c r="K146" t="n">
-        <v>1.177899753469402</v>
+        <v>1.161160854407028</v>
       </c>
       <c r="L146" t="n">
-        <v>10.93910804174033</v>
+        <v>9.038543641514979</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44544.375</v>
+        <v>44554.375</v>
       </c>
       <c r="B147" t="n">
-        <v>58626000</v>
+        <v>61490000</v>
       </c>
       <c r="C147" t="n">
-        <v>60150000</v>
+        <v>62850000</v>
       </c>
       <c r="D147" t="n">
-        <v>57347000</v>
+        <v>61250000</v>
       </c>
       <c r="E147" t="n">
-        <v>59930000</v>
+        <v>61939000</v>
       </c>
       <c r="F147" t="n">
-        <v>7199.35776367</v>
+        <v>5243.5431503</v>
       </c>
       <c r="G147" t="n">
-        <v>421930887129.1652</v>
+        <v>325690062280.693</v>
       </c>
       <c r="H147" t="n">
-        <v>1401500</v>
+        <v>800000</v>
       </c>
       <c r="I147" t="n">
-        <v>60642000</v>
+        <v>62892500</v>
       </c>
       <c r="J147" t="n">
         <v>1</v>
       </c>
       <c r="K147" t="n">
-        <v>1.177899753469402</v>
+        <v>1.161160854407028</v>
       </c>
       <c r="L147" t="n">
-        <v>10.93910804174033</v>
+        <v>9.038543641514979</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44545.375</v>
+        <v>44555.375</v>
       </c>
       <c r="B148" t="n">
-        <v>59909000</v>
+        <v>61939000</v>
       </c>
       <c r="C148" t="n">
-        <v>62150000</v>
+        <v>62500000</v>
       </c>
       <c r="D148" t="n">
-        <v>58055000</v>
+        <v>61107000</v>
       </c>
       <c r="E148" t="n">
-        <v>61198000</v>
+        <v>61177000</v>
       </c>
       <c r="F148" t="n">
-        <v>10234.38988975</v>
+        <v>3730.36798441</v>
       </c>
       <c r="G148" t="n">
-        <v>614210066819.0795</v>
+        <v>230679684124.6976</v>
       </c>
       <c r="H148" t="n">
-        <v>2047500</v>
+        <v>696500</v>
       </c>
       <c r="I148" t="n">
-        <v>61310500</v>
+        <v>62739000</v>
       </c>
       <c r="J148" t="n">
-        <v>0.9981650777599269</v>
+        <v>1</v>
       </c>
       <c r="K148" t="n">
-        <v>1.175738399015185</v>
+        <v>1.161160854407028</v>
       </c>
       <c r="L148" t="n">
-        <v>11.10252785311529</v>
+        <v>9.038543641514979</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44546.375</v>
+        <v>44556.375</v>
       </c>
       <c r="B149" t="n">
-        <v>61196000</v>
+        <v>61177000</v>
       </c>
       <c r="C149" t="n">
-        <v>61660000</v>
+        <v>61939000</v>
       </c>
       <c r="D149" t="n">
-        <v>59500000</v>
+        <v>60288000</v>
       </c>
       <c r="E149" t="n">
-        <v>59817000</v>
+        <v>61467000</v>
       </c>
       <c r="F149" t="n">
-        <v>7807.69618658</v>
+        <v>4350.54366915</v>
       </c>
       <c r="G149" t="n">
-        <v>473844929813.8312</v>
+        <v>265030001351.9369</v>
       </c>
       <c r="H149" t="n">
-        <v>1080000</v>
+        <v>825500</v>
       </c>
       <c r="I149" t="n">
-        <v>63243500</v>
+        <v>61873500</v>
       </c>
       <c r="J149" t="n">
-        <v>1</v>
+        <v>0.9934301437610609</v>
       </c>
       <c r="K149" t="n">
-        <v>1.175738399015185</v>
+        <v>1.15353219452329</v>
       </c>
       <c r="L149" t="n">
-        <v>11.10252785311529</v>
+        <v>9.636147333074756</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44547.375</v>
+        <v>44557.375</v>
       </c>
       <c r="B150" t="n">
-        <v>59820000</v>
+        <v>61467000</v>
       </c>
       <c r="C150" t="n">
-        <v>60198000</v>
+        <v>62500000</v>
       </c>
       <c r="D150" t="n">
-        <v>57400000</v>
+        <v>60934000</v>
       </c>
       <c r="E150" t="n">
-        <v>58086000</v>
+        <v>61508000</v>
       </c>
       <c r="F150" t="n">
-        <v>8991.83583337</v>
+        <v>5287.22519425</v>
       </c>
       <c r="G150" t="n">
-        <v>529378851668.7005</v>
+        <v>325512198487.4511</v>
       </c>
       <c r="H150" t="n">
-        <v>1399000</v>
+        <v>783000</v>
       </c>
       <c r="I150" t="n">
-        <v>60900000</v>
+        <v>62292500</v>
       </c>
       <c r="J150" t="n">
-        <v>1</v>
+        <v>0.9874061885459726</v>
       </c>
       <c r="K150" t="n">
-        <v>1.175738399015185</v>
+        <v>1.139004827559313</v>
       </c>
       <c r="L150" t="n">
-        <v>11.10252785311529</v>
+        <v>10.77417265582152</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44548.375</v>
+        <v>44558.375</v>
       </c>
       <c r="B151" t="n">
-        <v>58110000</v>
+        <v>61470000</v>
       </c>
       <c r="C151" t="n">
-        <v>58867000</v>
+        <v>61508000</v>
       </c>
       <c r="D151" t="n">
-        <v>57207000</v>
+        <v>57912000</v>
       </c>
       <c r="E151" t="n">
-        <v>58402000</v>
+        <v>58274000</v>
       </c>
       <c r="F151" t="n">
-        <v>5479.58391512</v>
+        <v>7303.08727699</v>
       </c>
       <c r="G151" t="n">
-        <v>318308284131.8217</v>
+        <v>436619790606.5887</v>
       </c>
       <c r="H151" t="n">
-        <v>830000</v>
+        <v>1798000</v>
       </c>
       <c r="I151" t="n">
-        <v>59509000</v>
+        <v>62253000</v>
       </c>
       <c r="J151" t="n">
         <v>1</v>
       </c>
       <c r="K151" t="n">
-        <v>1.175738399015185</v>
+        <v>1.139004827559313</v>
       </c>
       <c r="L151" t="n">
-        <v>11.10252785311529</v>
+        <v>10.77417265582152</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44549.375</v>
+        <v>44559.375</v>
       </c>
       <c r="B152" t="n">
-        <v>58438000</v>
+        <v>58261000</v>
       </c>
       <c r="C152" t="n">
-        <v>59864000</v>
+        <v>58763000</v>
       </c>
       <c r="D152" t="n">
-        <v>58071000</v>
+        <v>56650000</v>
       </c>
       <c r="E152" t="n">
-        <v>58329000</v>
+        <v>57089000</v>
       </c>
       <c r="F152" t="n">
-        <v>5945.75001586</v>
+        <v>8037.99954485</v>
       </c>
       <c r="G152" t="n">
-        <v>349830141080.1031</v>
+        <v>465098505559.6989</v>
       </c>
       <c r="H152" t="n">
-        <v>896500</v>
+        <v>1056500</v>
       </c>
       <c r="I152" t="n">
-        <v>59268000</v>
+        <v>60059000</v>
       </c>
       <c r="J152" t="n">
-        <v>0.984156711884997</v>
+        <v>1</v>
       </c>
       <c r="K152" t="n">
-        <v>1.157110836811715</v>
+        <v>1.139004827559313</v>
       </c>
       <c r="L152" t="n">
-        <v>12.51095611703384</v>
+        <v>10.77417265582152</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44550.375</v>
+        <v>44560.375</v>
       </c>
       <c r="B153" t="n">
-        <v>58329000</v>
+        <v>57089000</v>
       </c>
       <c r="C153" t="n">
-        <v>58616000</v>
+        <v>58233000</v>
       </c>
       <c r="D153" t="n">
-        <v>56917000</v>
+        <v>56400000</v>
       </c>
       <c r="E153" t="n">
-        <v>58011000</v>
+        <v>57200000</v>
       </c>
       <c r="F153" t="n">
-        <v>6685.60533352</v>
+        <v>5506.78981263</v>
       </c>
       <c r="G153" t="n">
-        <v>385840635557.5586</v>
+        <v>315378745535.8602</v>
       </c>
       <c r="H153" t="n">
-        <v>849500</v>
+        <v>916500</v>
       </c>
       <c r="I153" t="n">
-        <v>59225500</v>
+        <v>58145500</v>
       </c>
       <c r="J153" t="n">
-        <v>1</v>
+        <v>0.9837390683715851</v>
       </c>
       <c r="K153" t="n">
-        <v>1.157110836811715</v>
+        <v>1.120483547933937</v>
       </c>
       <c r="L153" t="n">
-        <v>12.51095611703384</v>
+        <v>12.22506773375395</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44551.375</v>
+        <v>44561.375</v>
       </c>
       <c r="B154" t="n">
-        <v>57980000</v>
+        <v>57233000</v>
       </c>
       <c r="C154" t="n">
-        <v>60650000</v>
+        <v>58812000</v>
       </c>
       <c r="D154" t="n">
-        <v>57500000</v>
+        <v>56233000</v>
       </c>
       <c r="E154" t="n">
-        <v>60023000</v>
+        <v>56784000</v>
       </c>
       <c r="F154" t="n">
-        <v>6637.6709069</v>
+        <v>4959.9700856</v>
       </c>
       <c r="G154" t="n">
-        <v>394352689438.5196</v>
+        <v>285728205436.0753</v>
       </c>
       <c r="H154" t="n">
-        <v>1575000</v>
+        <v>1289500</v>
       </c>
       <c r="I154" t="n">
-        <v>58829500</v>
+        <v>58149500</v>
       </c>
       <c r="J154" t="n">
-        <v>1.020287440824756</v>
+        <v>0.9765174249133699</v>
       </c>
       <c r="K154" t="n">
-        <v>1.180585654441217</v>
+        <v>1.094171708886245</v>
       </c>
       <c r="L154" t="n">
-        <v>10.73602731644366</v>
+        <v>14.28624917141995</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44552.375</v>
+        <v>44562.375</v>
       </c>
       <c r="B155" t="n">
-        <v>60023000</v>
+        <v>56784000</v>
       </c>
       <c r="C155" t="n">
-        <v>60772000</v>
+        <v>58271000</v>
       </c>
       <c r="D155" t="n">
-        <v>59605000</v>
+        <v>56762000</v>
       </c>
       <c r="E155" t="n">
-        <v>59753000</v>
+        <v>57915000</v>
       </c>
       <c r="F155" t="n">
-        <v>5773.9637448</v>
+        <v>2628.14596492</v>
       </c>
       <c r="G155" t="n">
-        <v>347172202153.7813</v>
+        <v>151064521830.3326</v>
       </c>
       <c r="H155" t="n">
-        <v>583500</v>
+        <v>754500</v>
       </c>
       <c r="I155" t="n">
-        <v>61598000</v>
+        <v>58073500</v>
       </c>
       <c r="J155" t="n">
-        <v>1</v>
+        <v>0.9972707000611294</v>
       </c>
       <c r="K155" t="n">
-        <v>1.180585654441217</v>
+        <v>1.091185386108067</v>
       </c>
       <c r="L155" t="n">
-        <v>10.73602731644366</v>
+        <v>14.52018770631677</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44553.375</v>
+        <v>44563.375</v>
       </c>
       <c r="B156" t="n">
-        <v>59759000</v>
+        <v>57915000</v>
       </c>
       <c r="C156" t="n">
-        <v>61925000</v>
+        <v>58300000</v>
       </c>
       <c r="D156" t="n">
-        <v>59120000</v>
+        <v>57100000</v>
       </c>
       <c r="E156" t="n">
-        <v>61490000</v>
+        <v>57531000</v>
       </c>
       <c r="F156" t="n">
-        <v>6471.52989474</v>
+        <v>3567.5057124</v>
       </c>
       <c r="G156" t="n">
-        <v>389081707456.7215</v>
+        <v>205291308789.9393</v>
       </c>
       <c r="H156" t="n">
-        <v>1402500</v>
+        <v>600000</v>
       </c>
       <c r="I156" t="n">
-        <v>60342500</v>
+        <v>58669500</v>
       </c>
       <c r="J156" t="n">
-        <v>1.019016447777271</v>
+        <v>1</v>
       </c>
       <c r="K156" t="n">
-        <v>1.203036199885494</v>
+        <v>1.091185386108067</v>
       </c>
       <c r="L156" t="n">
-        <v>9.038543641515028</v>
+        <v>14.52018770631677</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44554.375</v>
+        <v>44564.375</v>
       </c>
       <c r="B157" t="n">
-        <v>61490000</v>
+        <v>57540000</v>
       </c>
       <c r="C157" t="n">
-        <v>62850000</v>
+        <v>57749000</v>
       </c>
       <c r="D157" t="n">
-        <v>61250000</v>
+        <v>56133000</v>
       </c>
       <c r="E157" t="n">
-        <v>61939000</v>
+        <v>56641000</v>
       </c>
       <c r="F157" t="n">
-        <v>5243.5431503</v>
+        <v>6304.95856401</v>
       </c>
       <c r="G157" t="n">
-        <v>325690062280.693</v>
+        <v>360063461140.0126</v>
       </c>
       <c r="H157" t="n">
-        <v>800000</v>
+        <v>808000</v>
       </c>
       <c r="I157" t="n">
-        <v>62892500</v>
+        <v>58140000</v>
       </c>
       <c r="J157" t="n">
         <v>1</v>
       </c>
       <c r="K157" t="n">
-        <v>1.203036199885494</v>
+        <v>1.091185386108067</v>
       </c>
       <c r="L157" t="n">
-        <v>9.038543641515028</v>
+        <v>14.52018770631677</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44555.375</v>
+        <v>44565.375</v>
       </c>
       <c r="B158" t="n">
-        <v>61939000</v>
+        <v>56640000</v>
       </c>
       <c r="C158" t="n">
-        <v>62500000</v>
+        <v>57685000</v>
       </c>
       <c r="D158" t="n">
-        <v>61107000</v>
+        <v>56000000</v>
       </c>
       <c r="E158" t="n">
-        <v>61177000</v>
+        <v>56023000</v>
       </c>
       <c r="F158" t="n">
-        <v>3730.36798441</v>
+        <v>6053.44580235</v>
       </c>
       <c r="G158" t="n">
-        <v>230679684124.6976</v>
+        <v>342512644132.8362</v>
       </c>
       <c r="H158" t="n">
-        <v>696500</v>
+        <v>842500</v>
       </c>
       <c r="I158" t="n">
-        <v>62739000</v>
+        <v>57448000</v>
       </c>
       <c r="J158" t="n">
-        <v>1</v>
+        <v>0.9751949589193706</v>
       </c>
       <c r="K158" t="n">
-        <v>1.203036199885494</v>
+        <v>1.064118487779074</v>
       </c>
       <c r="L158" t="n">
-        <v>9.038543641515028</v>
+        <v>16.64051796182607</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44556.375</v>
+        <v>44566.375</v>
       </c>
       <c r="B159" t="n">
-        <v>61177000</v>
+        <v>56023000</v>
       </c>
       <c r="C159" t="n">
-        <v>61939000</v>
+        <v>57100000</v>
       </c>
       <c r="D159" t="n">
-        <v>60288000</v>
+        <v>52701000</v>
       </c>
       <c r="E159" t="n">
-        <v>61467000</v>
+        <v>53854000</v>
       </c>
       <c r="F159" t="n">
-        <v>4350.54366915</v>
+        <v>9296.798713509999</v>
       </c>
       <c r="G159" t="n">
-        <v>265030001351.9369</v>
+        <v>515276777193.213</v>
       </c>
       <c r="H159" t="n">
-        <v>825500</v>
+        <v>2199500</v>
       </c>
       <c r="I159" t="n">
-        <v>61873500</v>
+        <v>56865500</v>
       </c>
       <c r="J159" t="n">
-        <v>0.9934301437610609</v>
+        <v>0.9470417036691843</v>
       </c>
       <c r="K159" t="n">
-        <v>1.195132425002006</v>
+        <v>1.007764585572171</v>
       </c>
       <c r="L159" t="n">
-        <v>9.636147333074813</v>
+        <v>21.05509411358699</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44557.375</v>
+        <v>44567.375</v>
       </c>
       <c r="B160" t="n">
-        <v>61467000</v>
+        <v>53854000</v>
       </c>
       <c r="C160" t="n">
-        <v>62500000</v>
+        <v>54300000</v>
       </c>
       <c r="D160" t="n">
-        <v>60934000</v>
+        <v>52388000</v>
       </c>
       <c r="E160" t="n">
-        <v>61508000</v>
+        <v>53239000</v>
       </c>
       <c r="F160" t="n">
-        <v>5287.22519425</v>
+        <v>6389.07930239</v>
       </c>
       <c r="G160" t="n">
-        <v>325512198487.4511</v>
+        <v>339630997052.0713</v>
       </c>
       <c r="H160" t="n">
-        <v>783000</v>
+        <v>956000</v>
       </c>
       <c r="I160" t="n">
-        <v>62292500</v>
+        <v>56053500</v>
       </c>
       <c r="J160" t="n">
-        <v>0.9874061885459726</v>
+        <v>1</v>
       </c>
       <c r="K160" t="n">
-        <v>1.180081152578937</v>
+        <v>1.007764585572171</v>
       </c>
       <c r="L160" t="n">
-        <v>10.77417265582158</v>
+        <v>21.05509411358699</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44558.375</v>
+        <v>44568.375</v>
       </c>
       <c r="B161" t="n">
-        <v>61470000</v>
+        <v>53240000</v>
       </c>
       <c r="C161" t="n">
-        <v>61508000</v>
+        <v>53358000</v>
       </c>
       <c r="D161" t="n">
-        <v>57912000</v>
+        <v>50900000</v>
       </c>
       <c r="E161" t="n">
-        <v>58274000</v>
+        <v>51449000</v>
       </c>
       <c r="F161" t="n">
-        <v>7303.08727699</v>
+        <v>7509.10809323</v>
       </c>
       <c r="G161" t="n">
-        <v>436619790606.5887</v>
+        <v>389528045895.4946</v>
       </c>
       <c r="H161" t="n">
-        <v>1798000</v>
+        <v>1229000</v>
       </c>
       <c r="I161" t="n">
-        <v>62253000</v>
+        <v>54196000</v>
       </c>
       <c r="J161" t="n">
         <v>1</v>
       </c>
       <c r="K161" t="n">
-        <v>1.180081152578937</v>
+        <v>1.007764585572171</v>
       </c>
       <c r="L161" t="n">
-        <v>10.77417265582158</v>
+        <v>21.05509411358699</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44559.375</v>
+        <v>44569.375</v>
       </c>
       <c r="B162" t="n">
-        <v>58261000</v>
+        <v>51449000</v>
       </c>
       <c r="C162" t="n">
-        <v>58763000</v>
+        <v>52709000</v>
       </c>
       <c r="D162" t="n">
-        <v>56650000</v>
+        <v>50829000</v>
       </c>
       <c r="E162" t="n">
-        <v>57089000</v>
+        <v>52142000</v>
       </c>
       <c r="F162" t="n">
-        <v>8037.99954485</v>
+        <v>4171.09645762</v>
       </c>
       <c r="G162" t="n">
-        <v>465098505559.6989</v>
+        <v>215423691964.9106</v>
       </c>
       <c r="H162" t="n">
-        <v>1056500</v>
+        <v>940000</v>
       </c>
       <c r="I162" t="n">
-        <v>60059000</v>
+        <v>52678000</v>
       </c>
       <c r="J162" t="n">
-        <v>1</v>
+        <v>0.9898249743726034</v>
       </c>
       <c r="K162" t="n">
-        <v>1.180081152578937</v>
+        <v>0.9975105550875911</v>
       </c>
       <c r="L162" t="n">
-        <v>10.77417265582158</v>
+        <v>21.85836055413365</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44560.375</v>
+        <v>44570.375</v>
       </c>
       <c r="B163" t="n">
-        <v>57089000</v>
+        <v>52142000</v>
       </c>
       <c r="C163" t="n">
-        <v>58233000</v>
+        <v>52600000</v>
       </c>
       <c r="D163" t="n">
-        <v>56400000</v>
+        <v>51144000</v>
       </c>
       <c r="E163" t="n">
-        <v>57200000</v>
+        <v>51678000</v>
       </c>
       <c r="F163" t="n">
-        <v>5506.78981263</v>
+        <v>3369.09508974</v>
       </c>
       <c r="G163" t="n">
-        <v>315378745535.8602</v>
+        <v>174869889802.5734</v>
       </c>
       <c r="H163" t="n">
-        <v>916500</v>
+        <v>728000</v>
       </c>
       <c r="I163" t="n">
-        <v>58145500</v>
+        <v>53082000</v>
       </c>
       <c r="J163" t="n">
-        <v>0.9837390683715851</v>
+        <v>1</v>
       </c>
       <c r="K163" t="n">
-        <v>1.160891933640869</v>
+        <v>0.9975105550875911</v>
       </c>
       <c r="L163" t="n">
-        <v>12.22506773375402</v>
+        <v>21.85836055413365</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44561.375</v>
+        <v>44571.375</v>
       </c>
       <c r="B164" t="n">
-        <v>57233000</v>
+        <v>51672000</v>
       </c>
       <c r="C164" t="n">
-        <v>58812000</v>
+        <v>51999000</v>
       </c>
       <c r="D164" t="n">
-        <v>56233000</v>
+        <v>48897000</v>
       </c>
       <c r="E164" t="n">
-        <v>56784000</v>
+        <v>51246000</v>
       </c>
       <c r="F164" t="n">
-        <v>4959.9700856</v>
+        <v>7955.46011133</v>
       </c>
       <c r="G164" t="n">
-        <v>285728205436.0753</v>
+        <v>402570820215.6586</v>
       </c>
       <c r="H164" t="n">
-        <v>1289500</v>
+        <v>1551000</v>
       </c>
       <c r="I164" t="n">
-        <v>58149500</v>
+        <v>52400000</v>
       </c>
       <c r="J164" t="n">
-        <v>0.9765174249133699</v>
+        <v>1</v>
       </c>
       <c r="K164" t="n">
-        <v>1.133631201641685</v>
+        <v>0.9975105550875911</v>
       </c>
       <c r="L164" t="n">
-        <v>14.28624917142001</v>
+        <v>21.85836055413365</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44562.375</v>
+        <v>44572.375</v>
       </c>
       <c r="B165" t="n">
-        <v>56784000</v>
+        <v>51255000</v>
       </c>
       <c r="C165" t="n">
-        <v>58271000</v>
+        <v>52493000</v>
       </c>
       <c r="D165" t="n">
-        <v>56762000</v>
+        <v>50408000</v>
       </c>
       <c r="E165" t="n">
-        <v>57915000</v>
+        <v>52307000</v>
       </c>
       <c r="F165" t="n">
-        <v>2628.14596492</v>
+        <v>5812.21805175</v>
       </c>
       <c r="G165" t="n">
-        <v>151064521830.3326</v>
+        <v>298676109322.2606</v>
       </c>
       <c r="H165" t="n">
-        <v>754500</v>
+        <v>1042500</v>
       </c>
       <c r="I165" t="n">
-        <v>58073500</v>
+        <v>52806000</v>
       </c>
       <c r="J165" t="n">
-        <v>0.9972707000611294</v>
+        <v>1</v>
       </c>
       <c r="K165" t="n">
-        <v>1.130537182072342</v>
+        <v>0.9975105550875911</v>
       </c>
       <c r="L165" t="n">
-        <v>14.52018770631683</v>
+        <v>21.85836055413365</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44563.375</v>
+        <v>44573.375</v>
       </c>
       <c r="B166" t="n">
-        <v>57915000</v>
+        <v>52306000</v>
       </c>
       <c r="C166" t="n">
-        <v>58300000</v>
+        <v>53945000</v>
       </c>
       <c r="D166" t="n">
-        <v>57100000</v>
+        <v>51800000</v>
       </c>
       <c r="E166" t="n">
-        <v>57531000</v>
+        <v>53349000</v>
       </c>
       <c r="F166" t="n">
-        <v>3567.5057124</v>
+        <v>5617.86642827</v>
       </c>
       <c r="G166" t="n">
-        <v>205291308789.9393</v>
+        <v>296492711681.8847</v>
       </c>
       <c r="H166" t="n">
-        <v>600000</v>
+        <v>1072500</v>
       </c>
       <c r="I166" t="n">
-        <v>58669500</v>
+        <v>53348500</v>
       </c>
       <c r="J166" t="n">
-        <v>1</v>
+        <v>1.000009372334742</v>
       </c>
       <c r="K166" t="n">
-        <v>1.130537182072342</v>
+        <v>0.9975199040904223</v>
       </c>
       <c r="L166" t="n">
-        <v>14.52018770631683</v>
+        <v>21.85762818453146</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44564.375</v>
+        <v>44574.375</v>
       </c>
       <c r="B167" t="n">
-        <v>57540000</v>
+        <v>53349000</v>
       </c>
       <c r="C167" t="n">
-        <v>57749000</v>
+        <v>53940000</v>
       </c>
       <c r="D167" t="n">
-        <v>56133000</v>
+        <v>51809000</v>
       </c>
       <c r="E167" t="n">
-        <v>56641000</v>
+        <v>51885000</v>
       </c>
       <c r="F167" t="n">
-        <v>6304.95856401</v>
+        <v>5468.01591063</v>
       </c>
       <c r="G167" t="n">
-        <v>360063461140.0126</v>
+        <v>289837178996.5849</v>
       </c>
       <c r="H167" t="n">
-        <v>808000</v>
+        <v>1065500</v>
       </c>
       <c r="I167" t="n">
-        <v>58140000</v>
+        <v>54421500</v>
       </c>
       <c r="J167" t="n">
         <v>1</v>
       </c>
       <c r="K167" t="n">
-        <v>1.130537182072342</v>
+        <v>0.9975199040904223</v>
       </c>
       <c r="L167" t="n">
-        <v>14.52018770631683</v>
+        <v>21.85762818453146</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44565.375</v>
+        <v>44575.375</v>
       </c>
       <c r="B168" t="n">
-        <v>56640000</v>
+        <v>51885000</v>
       </c>
       <c r="C168" t="n">
-        <v>57685000</v>
+        <v>52691000</v>
       </c>
       <c r="D168" t="n">
-        <v>56000000</v>
+        <v>51010000</v>
       </c>
       <c r="E168" t="n">
-        <v>56023000</v>
+        <v>52230000</v>
       </c>
       <c r="F168" t="n">
-        <v>6053.44580235</v>
+        <v>5030.18653553</v>
       </c>
       <c r="G168" t="n">
-        <v>342512644132.8362</v>
+        <v>261086090962.3514</v>
       </c>
       <c r="H168" t="n">
-        <v>842500</v>
+        <v>840500</v>
       </c>
       <c r="I168" t="n">
-        <v>57448000</v>
+        <v>52950500</v>
       </c>
       <c r="J168" t="n">
-        <v>0.9751949589193706</v>
+        <v>1</v>
       </c>
       <c r="K168" t="n">
-        <v>1.102494160827858</v>
+        <v>0.9975199040904223</v>
       </c>
       <c r="L168" t="n">
-        <v>16.64051796182613</v>
+        <v>21.85762818453146</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44566.375</v>
+        <v>44576.375</v>
       </c>
       <c r="B169" t="n">
-        <v>56023000</v>
+        <v>52230000</v>
       </c>
       <c r="C169" t="n">
-        <v>57100000</v>
+        <v>52891000</v>
       </c>
       <c r="D169" t="n">
-        <v>52701000</v>
+        <v>51878000</v>
       </c>
       <c r="E169" t="n">
-        <v>53854000</v>
+        <v>52357000</v>
       </c>
       <c r="F169" t="n">
-        <v>9296.798713509999</v>
+        <v>2595.04941124</v>
       </c>
       <c r="G169" t="n">
-        <v>515276777193.213</v>
+        <v>135657742666.7059</v>
       </c>
       <c r="H169" t="n">
-        <v>2199500</v>
+        <v>506500</v>
       </c>
       <c r="I169" t="n">
-        <v>56865500</v>
+        <v>53070500</v>
       </c>
       <c r="J169" t="n">
-        <v>0.9470417036691843</v>
+        <v>1</v>
       </c>
       <c r="K169" t="n">
-        <v>1.044107948355743</v>
+        <v>0.9975199040904223</v>
       </c>
       <c r="L169" t="n">
-        <v>21.05509411358706</v>
+        <v>21.85762818453146</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44567.375</v>
+        <v>44577.375</v>
       </c>
       <c r="B170" t="n">
-        <v>53854000</v>
+        <v>52357000</v>
       </c>
       <c r="C170" t="n">
-        <v>54300000</v>
+        <v>52634000</v>
       </c>
       <c r="D170" t="n">
-        <v>52388000</v>
+        <v>51948000</v>
       </c>
       <c r="E170" t="n">
-        <v>53239000</v>
+        <v>52165000</v>
       </c>
       <c r="F170" t="n">
-        <v>6389.07930239</v>
+        <v>2131.4288192</v>
       </c>
       <c r="G170" t="n">
-        <v>339630997052.0713</v>
+        <v>111417440453.1287</v>
       </c>
       <c r="H170" t="n">
-        <v>956000</v>
+        <v>343000</v>
       </c>
       <c r="I170" t="n">
-        <v>56053500</v>
+        <v>52863500</v>
       </c>
       <c r="J170" t="n">
         <v>1</v>
       </c>
       <c r="K170" t="n">
-        <v>1.044107948355743</v>
+        <v>0.9975199040904223</v>
       </c>
       <c r="L170" t="n">
-        <v>21.05509411358706</v>
+        <v>21.85762818453146</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44568.375</v>
+        <v>44578.375</v>
       </c>
       <c r="B171" t="n">
-        <v>53240000</v>
+        <v>52165000</v>
       </c>
       <c r="C171" t="n">
-        <v>53358000</v>
+        <v>52300000</v>
       </c>
       <c r="D171" t="n">
-        <v>50900000</v>
+        <v>50822000</v>
       </c>
       <c r="E171" t="n">
-        <v>51449000</v>
+        <v>51436000</v>
       </c>
       <c r="F171" t="n">
-        <v>7509.10809323</v>
+        <v>3104.23763117</v>
       </c>
       <c r="G171" t="n">
-        <v>389528045895.4946</v>
+        <v>160683769882.9794</v>
       </c>
       <c r="H171" t="n">
-        <v>1229000</v>
+        <v>739000</v>
       </c>
       <c r="I171" t="n">
-        <v>54196000</v>
+        <v>52508000</v>
       </c>
       <c r="J171" t="n">
         <v>1</v>
       </c>
       <c r="K171" t="n">
-        <v>1.044107948355743</v>
+        <v>0.9975199040904223</v>
       </c>
       <c r="L171" t="n">
-        <v>21.05509411358706</v>
+        <v>21.85762818453146</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44569.375</v>
+        <v>44579.375</v>
       </c>
       <c r="B172" t="n">
-        <v>51449000</v>
+        <v>51435000</v>
       </c>
       <c r="C172" t="n">
-        <v>52709000</v>
+        <v>51600000</v>
       </c>
       <c r="D172" t="n">
-        <v>50829000</v>
+        <v>50192000</v>
       </c>
       <c r="E172" t="n">
-        <v>52142000</v>
+        <v>51179000</v>
       </c>
       <c r="F172" t="n">
-        <v>4171.09645762</v>
+        <v>3894.69755153</v>
       </c>
       <c r="G172" t="n">
-        <v>215423691964.9106</v>
+        <v>197997204276.519</v>
       </c>
       <c r="H172" t="n">
-        <v>940000</v>
+        <v>704000</v>
       </c>
       <c r="I172" t="n">
-        <v>52678000</v>
+        <v>52174000</v>
       </c>
       <c r="J172" t="n">
-        <v>0.9898249743726034</v>
+        <v>1</v>
       </c>
       <c r="K172" t="n">
-        <v>1.033484123223455</v>
+        <v>0.9975199040904223</v>
       </c>
       <c r="L172" t="n">
-        <v>21.85836055413371</v>
+        <v>21.85762818453146</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44570.375</v>
+        <v>44580.375</v>
       </c>
       <c r="B173" t="n">
-        <v>52142000</v>
+        <v>51183000</v>
       </c>
       <c r="C173" t="n">
-        <v>52600000</v>
+        <v>51395000</v>
       </c>
       <c r="D173" t="n">
-        <v>51144000</v>
+        <v>49988000</v>
       </c>
       <c r="E173" t="n">
-        <v>51678000</v>
+        <v>50333000</v>
       </c>
       <c r="F173" t="n">
-        <v>3369.09508974</v>
+        <v>4815.61754533</v>
       </c>
       <c r="G173" t="n">
-        <v>174869889802.5734</v>
+        <v>243349644791.6262</v>
       </c>
       <c r="H173" t="n">
-        <v>728000</v>
+        <v>703500</v>
       </c>
       <c r="I173" t="n">
-        <v>53082000</v>
+        <v>51887000</v>
       </c>
       <c r="J173" t="n">
         <v>1</v>
       </c>
       <c r="K173" t="n">
-        <v>1.033484123223455</v>
+        <v>0.9975199040904223</v>
       </c>
       <c r="L173" t="n">
-        <v>21.85836055413371</v>
+        <v>21.85762818453146</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44571.375</v>
+        <v>44581.375</v>
       </c>
       <c r="B174" t="n">
-        <v>51672000</v>
+        <v>50333000</v>
       </c>
       <c r="C174" t="n">
-        <v>51999000</v>
+        <v>52361000</v>
       </c>
       <c r="D174" t="n">
-        <v>48897000</v>
+        <v>49575000</v>
       </c>
       <c r="E174" t="n">
-        <v>51246000</v>
+        <v>49648000</v>
       </c>
       <c r="F174" t="n">
-        <v>7955.46011133</v>
+        <v>6914.68087553</v>
       </c>
       <c r="G174" t="n">
-        <v>402570820215.6586</v>
+        <v>350489190147.2465</v>
       </c>
       <c r="H174" t="n">
-        <v>1551000</v>
+        <v>1393000</v>
       </c>
       <c r="I174" t="n">
-        <v>52400000</v>
+        <v>51036500</v>
       </c>
       <c r="J174" t="n">
-        <v>1</v>
+        <v>0.9727939807784625</v>
       </c>
       <c r="K174" t="n">
-        <v>1.033484123223455</v>
+        <v>0.970381358405872</v>
       </c>
       <c r="L174" t="n">
-        <v>21.85836055413371</v>
+        <v>23.98357105415963</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44572.375</v>
+        <v>44582.375</v>
       </c>
       <c r="B175" t="n">
-        <v>51255000</v>
+        <v>49600000</v>
       </c>
       <c r="C175" t="n">
-        <v>52493000</v>
+        <v>50001000</v>
       </c>
       <c r="D175" t="n">
-        <v>50408000</v>
+        <v>44600000</v>
       </c>
       <c r="E175" t="n">
-        <v>52307000</v>
+        <v>45316000</v>
       </c>
       <c r="F175" t="n">
-        <v>5812.21805175</v>
+        <v>13031.22269492</v>
       </c>
       <c r="G175" t="n">
-        <v>298676109322.2606</v>
+        <v>614895368490.7034</v>
       </c>
       <c r="H175" t="n">
-        <v>1042500</v>
+        <v>2700500</v>
       </c>
       <c r="I175" t="n">
-        <v>52806000</v>
+        <v>50993000</v>
       </c>
       <c r="J175" t="n">
         <v>1</v>
       </c>
       <c r="K175" t="n">
-        <v>1.033484123223455</v>
+        <v>0.970381358405872</v>
       </c>
       <c r="L175" t="n">
-        <v>21.85836055413371</v>
+        <v>23.98357105415963</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44573.375</v>
+        <v>44583.375</v>
       </c>
       <c r="B176" t="n">
-        <v>52306000</v>
+        <v>45316000</v>
       </c>
       <c r="C176" t="n">
-        <v>53945000</v>
+        <v>45622000</v>
       </c>
       <c r="D176" t="n">
-        <v>51800000</v>
+        <v>42629000</v>
       </c>
       <c r="E176" t="n">
-        <v>53349000</v>
+        <v>43375000</v>
       </c>
       <c r="F176" t="n">
-        <v>5617.86642827</v>
+        <v>12317.48527338</v>
       </c>
       <c r="G176" t="n">
-        <v>296492711681.8847</v>
+        <v>542096966238.2029</v>
       </c>
       <c r="H176" t="n">
-        <v>1072500</v>
+        <v>1496500</v>
       </c>
       <c r="I176" t="n">
-        <v>53348500</v>
+        <v>48016500</v>
       </c>
       <c r="J176" t="n">
-        <v>1.000009372334742</v>
+        <v>1</v>
       </c>
       <c r="K176" t="n">
-        <v>1.033493809382608</v>
+        <v>0.970381358405872</v>
       </c>
       <c r="L176" t="n">
-        <v>21.85762818453152</v>
+        <v>23.98357105415963</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44574.375</v>
+        <v>44584.375</v>
       </c>
       <c r="B177" t="n">
-        <v>53349000</v>
+        <v>43376000</v>
       </c>
       <c r="C177" t="n">
-        <v>53940000</v>
+        <v>44500000</v>
       </c>
       <c r="D177" t="n">
-        <v>51809000</v>
+        <v>42725000</v>
       </c>
       <c r="E177" t="n">
-        <v>51885000</v>
+        <v>44253000</v>
       </c>
       <c r="F177" t="n">
-        <v>5468.01591063</v>
+        <v>6165.20872887</v>
       </c>
       <c r="G177" t="n">
-        <v>289837178996.5849</v>
+        <v>269289810382.9316</v>
       </c>
       <c r="H177" t="n">
-        <v>1065500</v>
+        <v>887500</v>
       </c>
       <c r="I177" t="n">
-        <v>54421500</v>
+        <v>44872500</v>
       </c>
       <c r="J177" t="n">
         <v>1</v>
       </c>
       <c r="K177" t="n">
-        <v>1.033493809382608</v>
+        <v>0.970381358405872</v>
       </c>
       <c r="L177" t="n">
-        <v>21.85762818453152</v>
+        <v>23.98357105415963</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44575.375</v>
+        <v>44585.375</v>
       </c>
       <c r="B178" t="n">
-        <v>51885000</v>
+        <v>44255000</v>
       </c>
       <c r="C178" t="n">
-        <v>52691000</v>
+        <v>45600000</v>
       </c>
       <c r="D178" t="n">
-        <v>51010000</v>
+        <v>40871000</v>
       </c>
       <c r="E178" t="n">
-        <v>52230000</v>
+        <v>44731000</v>
       </c>
       <c r="F178" t="n">
-        <v>5030.18653553</v>
+        <v>10984.73257578</v>
       </c>
       <c r="G178" t="n">
-        <v>261086090962.3514</v>
+        <v>468862727172.8159</v>
       </c>
       <c r="H178" t="n">
-        <v>840500</v>
+        <v>2364500</v>
       </c>
       <c r="I178" t="n">
-        <v>52950500</v>
+        <v>45142500</v>
       </c>
       <c r="J178" t="n">
-        <v>1</v>
+        <v>0.9908844215539679</v>
       </c>
       <c r="K178" t="n">
-        <v>1.033493809382608</v>
+        <v>0.9615357710107562</v>
       </c>
       <c r="L178" t="n">
-        <v>21.85762818453152</v>
+        <v>24.67650477540266</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44576.375</v>
+        <v>44586.375</v>
       </c>
       <c r="B179" t="n">
-        <v>52230000</v>
+        <v>44764000</v>
       </c>
       <c r="C179" t="n">
-        <v>52891000</v>
+        <v>45572000</v>
       </c>
       <c r="D179" t="n">
-        <v>51878000</v>
+        <v>43511000</v>
       </c>
       <c r="E179" t="n">
-        <v>52357000</v>
+        <v>44909000</v>
       </c>
       <c r="F179" t="n">
-        <v>2595.04941124</v>
+        <v>6937.03740715</v>
       </c>
       <c r="G179" t="n">
-        <v>135657742666.7059</v>
+        <v>308479518001.6424</v>
       </c>
       <c r="H179" t="n">
-        <v>506500</v>
+        <v>1030500</v>
       </c>
       <c r="I179" t="n">
-        <v>53070500</v>
+        <v>47128500</v>
       </c>
       <c r="J179" t="n">
         <v>1</v>
       </c>
       <c r="K179" t="n">
-        <v>1.033493809382608</v>
+        <v>0.9615357710107562</v>
       </c>
       <c r="L179" t="n">
-        <v>21.85762818453152</v>
+        <v>24.67650477540266</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44577.375</v>
+        <v>44587.375</v>
       </c>
       <c r="B180" t="n">
-        <v>52357000</v>
+        <v>44905000</v>
       </c>
       <c r="C180" t="n">
-        <v>52634000</v>
+        <v>47460000</v>
       </c>
       <c r="D180" t="n">
-        <v>51948000</v>
+        <v>44520000</v>
       </c>
       <c r="E180" t="n">
-        <v>52165000</v>
+        <v>45100000</v>
       </c>
       <c r="F180" t="n">
-        <v>2131.4288192</v>
+        <v>10144.39442742</v>
       </c>
       <c r="G180" t="n">
-        <v>111417440453.1287</v>
+        <v>465503093047.9052</v>
       </c>
       <c r="H180" t="n">
-        <v>343000</v>
+        <v>1470000</v>
       </c>
       <c r="I180" t="n">
-        <v>52863500</v>
+        <v>45935500</v>
       </c>
       <c r="J180" t="n">
-        <v>1</v>
+        <v>0.9818114530156415</v>
       </c>
       <c r="K180" t="n">
-        <v>1.033493809382608</v>
+        <v>0.9440468324625857</v>
       </c>
       <c r="L180" t="n">
-        <v>21.85762818453152</v>
+        <v>26.04652970732135</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44578.375</v>
+        <v>44588.375</v>
       </c>
       <c r="B181" t="n">
-        <v>52165000</v>
+        <v>45100000</v>
       </c>
       <c r="C181" t="n">
-        <v>52300000</v>
+        <v>45844000</v>
       </c>
       <c r="D181" t="n">
-        <v>50822000</v>
+        <v>43786000</v>
       </c>
       <c r="E181" t="n">
-        <v>51436000</v>
+        <v>45809000</v>
       </c>
       <c r="F181" t="n">
-        <v>3104.23763117</v>
+        <v>7488.1448014</v>
       </c>
       <c r="G181" t="n">
-        <v>160683769882.9794</v>
+        <v>335012964798.7789</v>
       </c>
       <c r="H181" t="n">
-        <v>739000</v>
+        <v>1029000</v>
       </c>
       <c r="I181" t="n">
-        <v>52508000</v>
+        <v>46570000</v>
       </c>
       <c r="J181" t="n">
         <v>1</v>
       </c>
       <c r="K181" t="n">
-        <v>1.033493809382608</v>
+        <v>0.9440468324625857</v>
       </c>
       <c r="L181" t="n">
-        <v>21.85762818453152</v>
+        <v>26.04652970732135</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44579.375</v>
+        <v>44589.375</v>
       </c>
       <c r="B182" t="n">
-        <v>51435000</v>
+        <v>45800000</v>
       </c>
       <c r="C182" t="n">
-        <v>51600000</v>
+        <v>46890000</v>
       </c>
       <c r="D182" t="n">
-        <v>50192000</v>
+        <v>45060000</v>
       </c>
       <c r="E182" t="n">
-        <v>51179000</v>
+        <v>46588000</v>
       </c>
       <c r="F182" t="n">
-        <v>3894.69755153</v>
+        <v>5565.15427472</v>
       </c>
       <c r="G182" t="n">
-        <v>197997204276.519</v>
+        <v>254762670308.8096</v>
       </c>
       <c r="H182" t="n">
-        <v>704000</v>
+        <v>915000</v>
       </c>
       <c r="I182" t="n">
-        <v>52174000</v>
+        <v>46829000</v>
       </c>
       <c r="J182" t="n">
-        <v>1</v>
+        <v>0.9948536163488436</v>
       </c>
       <c r="K182" t="n">
-        <v>1.033493809382608</v>
+        <v>0.9391884052780742</v>
       </c>
       <c r="L182" t="n">
-        <v>21.85762818453152</v>
+        <v>26.42712263778187</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44580.375</v>
+        <v>44590.375</v>
       </c>
       <c r="B183" t="n">
-        <v>51183000</v>
+        <v>46592000</v>
       </c>
       <c r="C183" t="n">
-        <v>51395000</v>
+        <v>47746000</v>
       </c>
       <c r="D183" t="n">
-        <v>49988000</v>
+        <v>46180000</v>
       </c>
       <c r="E183" t="n">
-        <v>50333000</v>
+        <v>47146000</v>
       </c>
       <c r="F183" t="n">
-        <v>4815.61754533</v>
+        <v>3980.16776223</v>
       </c>
       <c r="G183" t="n">
-        <v>243349644791.6262</v>
+        <v>186286304051.2261</v>
       </c>
       <c r="H183" t="n">
-        <v>703500</v>
+        <v>783000</v>
       </c>
       <c r="I183" t="n">
-        <v>51887000</v>
+        <v>47507000</v>
       </c>
       <c r="J183" t="n">
-        <v>1</v>
+        <v>0.9924011198349717</v>
       </c>
       <c r="K183" t="n">
-        <v>1.033493809382608</v>
+        <v>0.9320516251339821</v>
       </c>
       <c r="L183" t="n">
-        <v>21.85762818453152</v>
+        <v>26.98619411625369</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44581.375</v>
+        <v>44591.375</v>
       </c>
       <c r="B184" t="n">
-        <v>50333000</v>
+        <v>47144000</v>
       </c>
       <c r="C184" t="n">
-        <v>52361000</v>
+        <v>47500000</v>
       </c>
       <c r="D184" t="n">
-        <v>49575000</v>
+        <v>46498000</v>
       </c>
       <c r="E184" t="n">
-        <v>49648000</v>
+        <v>47208000</v>
       </c>
       <c r="F184" t="n">
-        <v>6914.68087553</v>
+        <v>2868.98523419</v>
       </c>
       <c r="G184" t="n">
-        <v>350489190147.2465</v>
+        <v>135027081461.6324</v>
       </c>
       <c r="H184" t="n">
-        <v>1393000</v>
+        <v>501000</v>
       </c>
       <c r="I184" t="n">
-        <v>51036500</v>
+        <v>47927000</v>
       </c>
       <c r="J184" t="n">
-        <v>0.9727939807784625</v>
+        <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>1.005376556939205</v>
+        <v>0.9320516251339821</v>
       </c>
       <c r="L184" t="n">
-        <v>23.98357105415969</v>
+        <v>26.98619411625369</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44582.375</v>
+        <v>44592.375</v>
       </c>
       <c r="B185" t="n">
-        <v>49600000</v>
+        <v>47208000</v>
       </c>
       <c r="C185" t="n">
-        <v>50001000</v>
+        <v>47647000</v>
       </c>
       <c r="D185" t="n">
-        <v>44600000</v>
+        <v>45624000</v>
       </c>
       <c r="E185" t="n">
-        <v>45316000</v>
+        <v>47266000</v>
       </c>
       <c r="F185" t="n">
-        <v>13031.22269492</v>
+        <v>4554.26520595</v>
       </c>
       <c r="G185" t="n">
-        <v>614895368490.7034</v>
+        <v>211275432696.9253</v>
       </c>
       <c r="H185" t="n">
-        <v>2700500</v>
+        <v>1011500</v>
       </c>
       <c r="I185" t="n">
-        <v>50993000</v>
+        <v>47709000</v>
       </c>
       <c r="J185" t="n">
         <v>1</v>
       </c>
       <c r="K185" t="n">
-        <v>1.005376556939205</v>
+        <v>0.9320516251339821</v>
       </c>
       <c r="L185" t="n">
-        <v>23.98357105415969</v>
+        <v>26.98619411625369</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44583.375</v>
+        <v>44593.375</v>
       </c>
       <c r="B186" t="n">
-        <v>45316000</v>
+        <v>47304000</v>
       </c>
       <c r="C186" t="n">
-        <v>45622000</v>
+        <v>48270000</v>
       </c>
       <c r="D186" t="n">
-        <v>42629000</v>
+        <v>46869000</v>
       </c>
       <c r="E186" t="n">
-        <v>43375000</v>
+        <v>47760000</v>
       </c>
       <c r="F186" t="n">
-        <v>12317.48527338</v>
+        <v>3944.00160976</v>
       </c>
       <c r="G186" t="n">
-        <v>542096966238.2029</v>
+        <v>187434977994.1383</v>
       </c>
       <c r="H186" t="n">
-        <v>1496500</v>
+        <v>700500</v>
       </c>
       <c r="I186" t="n">
-        <v>48016500</v>
+        <v>48315500</v>
       </c>
       <c r="J186" t="n">
         <v>1</v>
       </c>
       <c r="K186" t="n">
-        <v>1.005376556939205</v>
+        <v>0.9320516251339821</v>
       </c>
       <c r="L186" t="n">
-        <v>23.98357105415969</v>
+        <v>26.98619411625369</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44584.375</v>
+        <v>44594.375</v>
       </c>
       <c r="B187" t="n">
-        <v>43376000</v>
+        <v>47784000</v>
       </c>
       <c r="C187" t="n">
-        <v>44500000</v>
+        <v>47900000</v>
       </c>
       <c r="D187" t="n">
-        <v>42725000</v>
+        <v>45401000</v>
       </c>
       <c r="E187" t="n">
-        <v>44253000</v>
+        <v>45517000</v>
       </c>
       <c r="F187" t="n">
-        <v>6165.20872887</v>
+        <v>4684.82046753</v>
       </c>
       <c r="G187" t="n">
-        <v>269289810382.9316</v>
+        <v>219281053640.675</v>
       </c>
       <c r="H187" t="n">
-        <v>887500</v>
+        <v>1249500</v>
       </c>
       <c r="I187" t="n">
-        <v>44872500</v>
+        <v>48484500</v>
       </c>
       <c r="J187" t="n">
         <v>1</v>
       </c>
       <c r="K187" t="n">
-        <v>1.005376556939205</v>
+        <v>0.9320516251339821</v>
       </c>
       <c r="L187" t="n">
-        <v>23.98357105415969</v>
+        <v>26.98619411625369</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44585.375</v>
+        <v>44595.375</v>
       </c>
       <c r="B188" t="n">
-        <v>44255000</v>
+        <v>45518000</v>
       </c>
       <c r="C188" t="n">
-        <v>45600000</v>
+        <v>45900000</v>
       </c>
       <c r="D188" t="n">
-        <v>40871000</v>
+        <v>44770000</v>
       </c>
       <c r="E188" t="n">
-        <v>44731000</v>
+        <v>45835000</v>
       </c>
       <c r="F188" t="n">
-        <v>10984.73257578</v>
+        <v>3279.73787459</v>
       </c>
       <c r="G188" t="n">
-        <v>468862727172.8159</v>
+        <v>148839125406.1171</v>
       </c>
       <c r="H188" t="n">
-        <v>2364500</v>
+        <v>565000</v>
       </c>
       <c r="I188" t="n">
-        <v>45142500</v>
+        <v>46767500</v>
       </c>
       <c r="J188" t="n">
-        <v>0.9908844215539679</v>
+        <v>1</v>
       </c>
       <c r="K188" t="n">
-        <v>0.996211968066624</v>
+        <v>0.9320516251339821</v>
       </c>
       <c r="L188" t="n">
-        <v>24.67650477540272</v>
+        <v>26.98619411625369</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44586.375</v>
+        <v>44596.375</v>
       </c>
       <c r="B189" t="n">
-        <v>44764000</v>
+        <v>45835000</v>
       </c>
       <c r="C189" t="n">
-        <v>45572000</v>
+        <v>50843000</v>
       </c>
       <c r="D189" t="n">
-        <v>43511000</v>
+        <v>45500000</v>
       </c>
       <c r="E189" t="n">
-        <v>44909000</v>
+        <v>50633000</v>
       </c>
       <c r="F189" t="n">
-        <v>6937.03740715</v>
+        <v>7451.46465055</v>
       </c>
       <c r="G189" t="n">
-        <v>308479518001.6424</v>
+        <v>355674962643.4388</v>
       </c>
       <c r="H189" t="n">
-        <v>1030500</v>
+        <v>2671500</v>
       </c>
       <c r="I189" t="n">
-        <v>47128500</v>
+        <v>46400000</v>
       </c>
       <c r="J189" t="n">
-        <v>1</v>
+        <v>1.091228448275862</v>
       </c>
       <c r="K189" t="n">
-        <v>0.996211968066624</v>
+        <v>1.017081248607951</v>
       </c>
       <c r="L189" t="n">
-        <v>24.67650477540272</v>
+        <v>20.32525790276451</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44587.375</v>
+        <v>44597.375</v>
       </c>
       <c r="B190" t="n">
-        <v>44905000</v>
+        <v>50613000</v>
       </c>
       <c r="C190" t="n">
-        <v>47460000</v>
+        <v>51488000</v>
       </c>
       <c r="D190" t="n">
-        <v>44520000</v>
+        <v>50216000</v>
       </c>
       <c r="E190" t="n">
-        <v>45100000</v>
+        <v>50788000</v>
       </c>
       <c r="F190" t="n">
-        <v>10144.39442742</v>
+        <v>5618.42220443</v>
       </c>
       <c r="G190" t="n">
-        <v>465503093047.9052</v>
+        <v>285441834169.823</v>
       </c>
       <c r="H190" t="n">
-        <v>1470000</v>
+        <v>636000</v>
       </c>
       <c r="I190" t="n">
-        <v>45935500</v>
+        <v>53284500</v>
       </c>
       <c r="J190" t="n">
-        <v>0.9818114530156415</v>
+        <v>1</v>
       </c>
       <c r="K190" t="n">
-        <v>0.9780923198790641</v>
+        <v>1.017081248607951</v>
       </c>
       <c r="L190" t="n">
-        <v>26.0465297073214</v>
+        <v>20.32525790276451</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44588.375</v>
+        <v>44598.375</v>
       </c>
       <c r="B191" t="n">
-        <v>45100000</v>
+        <v>50788000</v>
       </c>
       <c r="C191" t="n">
-        <v>45844000</v>
+        <v>52022000</v>
       </c>
       <c r="D191" t="n">
-        <v>43786000</v>
+        <v>50400000</v>
       </c>
       <c r="E191" t="n">
-        <v>45809000</v>
+        <v>51732000</v>
       </c>
       <c r="F191" t="n">
-        <v>7488.1448014</v>
+        <v>4046.19621542</v>
       </c>
       <c r="G191" t="n">
-        <v>335012964798.7789</v>
+        <v>206661446937.4289</v>
       </c>
       <c r="H191" t="n">
-        <v>1029000</v>
+        <v>811000</v>
       </c>
       <c r="I191" t="n">
-        <v>46570000</v>
+        <v>51424000</v>
       </c>
       <c r="J191" t="n">
-        <v>1</v>
+        <v>1.005989421281892</v>
       </c>
       <c r="K191" t="n">
-        <v>0.9780923198790641</v>
+        <v>1.023172976683776</v>
       </c>
       <c r="L191" t="n">
-        <v>26.0465297073214</v>
+        <v>19.8480523068181</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44589.375</v>
+        <v>44599.375</v>
       </c>
       <c r="B192" t="n">
-        <v>45800000</v>
+        <v>51678000</v>
       </c>
       <c r="C192" t="n">
-        <v>46890000</v>
+        <v>54110000</v>
       </c>
       <c r="D192" t="n">
-        <v>45060000</v>
+        <v>51084000</v>
       </c>
       <c r="E192" t="n">
-        <v>46588000</v>
+        <v>53511000</v>
       </c>
       <c r="F192" t="n">
-        <v>5565.15427472</v>
+        <v>6414.99045765</v>
       </c>
       <c r="G192" t="n">
-        <v>254762670308.8096</v>
+        <v>337553682455.3892</v>
       </c>
       <c r="H192" t="n">
-        <v>915000</v>
+        <v>1513000</v>
       </c>
       <c r="I192" t="n">
-        <v>46829000</v>
+        <v>52489000</v>
       </c>
       <c r="J192" t="n">
-        <v>0.9948536163488436</v>
+        <v>1.019470746251596</v>
       </c>
       <c r="K192" t="n">
-        <v>0.9730586815547169</v>
+        <v>1.043094918084275</v>
       </c>
       <c r="L192" t="n">
-        <v>26.42712263778192</v>
+        <v>18.287434071713</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44590.375</v>
+        <v>44600.375</v>
       </c>
       <c r="B193" t="n">
-        <v>46592000</v>
+        <v>53511000</v>
       </c>
       <c r="C193" t="n">
-        <v>47746000</v>
+        <v>55321000</v>
       </c>
       <c r="D193" t="n">
-        <v>46180000</v>
+        <v>52325000</v>
       </c>
       <c r="E193" t="n">
-        <v>47146000</v>
+        <v>53651000</v>
       </c>
       <c r="F193" t="n">
-        <v>3980.16776223</v>
+        <v>10799.76838891</v>
       </c>
       <c r="G193" t="n">
-        <v>186286304051.2261</v>
+        <v>578845327237.1124</v>
       </c>
       <c r="H193" t="n">
-        <v>783000</v>
+        <v>1498000</v>
       </c>
       <c r="I193" t="n">
-        <v>47507000</v>
+        <v>55024000</v>
       </c>
       <c r="J193" t="n">
-        <v>0.9924011198349717</v>
+        <v>0.975047252108171</v>
       </c>
       <c r="K193" t="n">
-        <v>0.9656645252400421</v>
+        <v>1.01706683356607</v>
       </c>
       <c r="L193" t="n">
-        <v>26.98619411625374</v>
+        <v>20.32638712891601</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44591.375</v>
+        <v>44601.375</v>
       </c>
       <c r="B194" t="n">
-        <v>47144000</v>
+        <v>53651000</v>
       </c>
       <c r="C194" t="n">
-        <v>47500000</v>
+        <v>54000000</v>
       </c>
       <c r="D194" t="n">
-        <v>46498000</v>
+        <v>52560000</v>
       </c>
       <c r="E194" t="n">
-        <v>47208000</v>
+        <v>53660000</v>
       </c>
       <c r="F194" t="n">
-        <v>2868.98523419</v>
+        <v>5006.39849973</v>
       </c>
       <c r="G194" t="n">
-        <v>135027081461.6324</v>
+        <v>266603510170.6266</v>
       </c>
       <c r="H194" t="n">
-        <v>501000</v>
+        <v>720000</v>
       </c>
       <c r="I194" t="n">
-        <v>47927000</v>
+        <v>55149000</v>
       </c>
       <c r="J194" t="n">
         <v>1</v>
       </c>
       <c r="K194" t="n">
-        <v>0.9656645252400421</v>
+        <v>1.01706683356607</v>
       </c>
       <c r="L194" t="n">
-        <v>26.98619411625374</v>
+        <v>20.32638712891601</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44592.375</v>
+        <v>44602.375</v>
       </c>
       <c r="B195" t="n">
-        <v>47208000</v>
+        <v>53659000</v>
       </c>
       <c r="C195" t="n">
-        <v>47647000</v>
+        <v>55380000</v>
       </c>
       <c r="D195" t="n">
-        <v>45624000</v>
+        <v>52604000</v>
       </c>
       <c r="E195" t="n">
-        <v>47266000</v>
+        <v>53123000</v>
       </c>
       <c r="F195" t="n">
-        <v>4554.26520595</v>
+        <v>9079.394422650001</v>
       </c>
       <c r="G195" t="n">
-        <v>211275432696.9253</v>
+        <v>488428411754.5602</v>
       </c>
       <c r="H195" t="n">
-        <v>1011500</v>
+        <v>1388000</v>
       </c>
       <c r="I195" t="n">
-        <v>47709000</v>
+        <v>54379000</v>
       </c>
       <c r="J195" t="n">
-        <v>1</v>
+        <v>0.9769028485260854</v>
       </c>
       <c r="K195" t="n">
-        <v>0.9656645252400421</v>
+        <v>0.9935754868521003</v>
       </c>
       <c r="L195" t="n">
-        <v>26.98619411625374</v>
+        <v>22.16662063387346</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44593.375</v>
+        <v>44603.375</v>
       </c>
       <c r="B196" t="n">
-        <v>47304000</v>
+        <v>53040000</v>
       </c>
       <c r="C196" t="n">
-        <v>48270000</v>
+        <v>53364000</v>
       </c>
       <c r="D196" t="n">
-        <v>46869000</v>
+        <v>51300000</v>
       </c>
       <c r="E196" t="n">
-        <v>47760000</v>
+        <v>51882000</v>
       </c>
       <c r="F196" t="n">
-        <v>3944.00160976</v>
+        <v>6124.94691657</v>
       </c>
       <c r="G196" t="n">
-        <v>187434977994.1383</v>
+        <v>321480090359.7405</v>
       </c>
       <c r="H196" t="n">
-        <v>700500</v>
+        <v>1032000</v>
       </c>
       <c r="I196" t="n">
-        <v>48315500</v>
+        <v>54428000</v>
       </c>
       <c r="J196" t="n">
         <v>1</v>
       </c>
       <c r="K196" t="n">
-        <v>0.9656645252400421</v>
+        <v>0.9935754868521003</v>
       </c>
       <c r="L196" t="n">
-        <v>26.98619411625374</v>
+        <v>22.16662063387346</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44594.375</v>
+        <v>44604.375</v>
       </c>
       <c r="B197" t="n">
-        <v>47784000</v>
+        <v>51875000</v>
       </c>
       <c r="C197" t="n">
-        <v>47900000</v>
+        <v>52299000</v>
       </c>
       <c r="D197" t="n">
-        <v>45401000</v>
+        <v>50835000</v>
       </c>
       <c r="E197" t="n">
-        <v>45517000</v>
+        <v>51597000</v>
       </c>
       <c r="F197" t="n">
-        <v>4684.82046753</v>
+        <v>4680.16804965</v>
       </c>
       <c r="G197" t="n">
-        <v>219281053640.675</v>
+        <v>241620206211.6828</v>
       </c>
       <c r="H197" t="n">
-        <v>1249500</v>
+        <v>732000</v>
       </c>
       <c r="I197" t="n">
-        <v>48484500</v>
+        <v>52907000</v>
       </c>
       <c r="J197" t="n">
         <v>1</v>
       </c>
       <c r="K197" t="n">
-        <v>0.9656645252400421</v>
+        <v>0.9935754868521003</v>
       </c>
       <c r="L197" t="n">
-        <v>26.98619411625374</v>
+        <v>22.16662063387346</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44595.375</v>
+        <v>44605.375</v>
       </c>
       <c r="B198" t="n">
-        <v>45518000</v>
+        <v>51619000</v>
       </c>
       <c r="C198" t="n">
-        <v>45900000</v>
+        <v>52190000</v>
       </c>
       <c r="D198" t="n">
-        <v>44770000</v>
+        <v>51400000</v>
       </c>
       <c r="E198" t="n">
-        <v>45835000</v>
+        <v>51550000</v>
       </c>
       <c r="F198" t="n">
-        <v>3279.73787459</v>
+        <v>2737.45244662</v>
       </c>
       <c r="G198" t="n">
-        <v>148839125406.1171</v>
+        <v>141796428812.6518</v>
       </c>
       <c r="H198" t="n">
-        <v>565000</v>
+        <v>395000</v>
       </c>
       <c r="I198" t="n">
-        <v>46767500</v>
+        <v>52351000</v>
       </c>
       <c r="J198" t="n">
         <v>1</v>
       </c>
       <c r="K198" t="n">
-        <v>0.9656645252400421</v>
+        <v>0.9935754868521003</v>
       </c>
       <c r="L198" t="n">
-        <v>26.98619411625374</v>
+        <v>22.16662063387346</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44596.375</v>
+        <v>44606.375</v>
       </c>
       <c r="B199" t="n">
-        <v>45835000</v>
+        <v>51550000</v>
       </c>
       <c r="C199" t="n">
-        <v>50843000</v>
+        <v>52041000</v>
       </c>
       <c r="D199" t="n">
-        <v>45500000</v>
+        <v>50744000</v>
       </c>
       <c r="E199" t="n">
-        <v>50633000</v>
+        <v>51586000</v>
       </c>
       <c r="F199" t="n">
-        <v>7451.46465055</v>
+        <v>4253.6279361</v>
       </c>
       <c r="G199" t="n">
-        <v>355674962643.4388</v>
+        <v>218529350233.5478</v>
       </c>
       <c r="H199" t="n">
-        <v>2671500</v>
+        <v>648500</v>
       </c>
       <c r="I199" t="n">
-        <v>46400000</v>
+        <v>51945000</v>
       </c>
       <c r="J199" t="n">
-        <v>1.091228448275862</v>
+        <v>0.9930888439695832</v>
       </c>
       <c r="K199" t="n">
-        <v>1.053760601432738</v>
+        <v>0.986708731634468</v>
       </c>
       <c r="L199" t="n">
-        <v>20.32525790276457</v>
+        <v>22.70453926304739</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44597.375</v>
+        <v>44607.375</v>
       </c>
       <c r="B200" t="n">
-        <v>50613000</v>
+        <v>51586000</v>
       </c>
       <c r="C200" t="n">
-        <v>51488000</v>
+        <v>53998000</v>
       </c>
       <c r="D200" t="n">
-        <v>50216000</v>
+        <v>51462000</v>
       </c>
       <c r="E200" t="n">
-        <v>50788000</v>
+        <v>53832000</v>
       </c>
       <c r="F200" t="n">
-        <v>5618.42220443</v>
+        <v>4794.46946448</v>
       </c>
       <c r="G200" t="n">
-        <v>285441834169.823</v>
+        <v>254795069714.3759</v>
       </c>
       <c r="H200" t="n">
-        <v>636000</v>
+        <v>1268000</v>
       </c>
       <c r="I200" t="n">
-        <v>53284500</v>
+        <v>52234500</v>
       </c>
       <c r="J200" t="n">
-        <v>1</v>
+        <v>1.030583235218103</v>
       </c>
       <c r="K200" t="n">
-        <v>1.053760601432738</v>
+        <v>1.016885476865801</v>
       </c>
       <c r="L200" t="n">
-        <v>20.32525790276457</v>
+        <v>20.34059400603752</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44598.375</v>
+        <v>44608.375</v>
       </c>
       <c r="B201" t="n">
-        <v>50788000</v>
+        <v>53835000</v>
       </c>
       <c r="C201" t="n">
-        <v>51210000</v>
+        <v>53842000</v>
       </c>
       <c r="D201" t="n">
-        <v>50788000</v>
+        <v>52970000</v>
       </c>
       <c r="E201" t="n">
-        <v>50914000</v>
+        <v>53150000</v>
       </c>
       <c r="F201" t="n">
-        <v>1121.09898107</v>
+        <v>1180.47142204</v>
       </c>
       <c r="G201" t="n">
-        <v>57163484406.72264</v>
+        <v>63040556525.18288</v>
       </c>
       <c r="H201" t="n">
-        <v>211000</v>
+        <v>436000</v>
       </c>
       <c r="I201" t="n">
-        <v>51424000</v>
+        <v>55103000</v>
       </c>
       <c r="J201" t="n">
         <v>1</v>
       </c>
       <c r="K201" t="n">
-        <v>1.053760601432738</v>
+        <v>1.016885476865801</v>
       </c>
       <c r="L201" t="n">
-        <v>20.32525790276457</v>
+        <v>20.34059400603752</v>
       </c>
     </row>
   </sheetData>
